--- a/asset/Documents/Exastro-ITA_[Reference]Configuration_settings_during_installation.xlsx
+++ b/asset/Documents/Exastro-ITA_[Reference]Configuration_settings_during_installation.xlsx
@@ -18,9 +18,9 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'3. ansible.cfg'!$B$5:$F$27</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'4. ITA setting file description'!$B$6:$K$6</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">'1. MariaDB(server.cnf)'!$A$2:$F$22</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="1">'2. PHP(php.ini)'!$A$2:$F$33</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="1">'2. PHP(php.ini)'!$A$2:$F$34</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="2">'3. ansible.cfg'!$A$2:$F$30</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="3">'4. ITA setting file description'!$A$1:$J$31</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="3">'4. ITA setting file description'!$A$1:$J$30</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="397" uniqueCount="216">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="396" uniqueCount="217">
   <si>
     <t>№</t>
     <phoneticPr fontId="1"/>
@@ -639,11 +639,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>Describe the path of Spyc. 
-This sample describes "/usr/share/php/spyc-master"</t>
-    <phoneticPr fontId="6"/>
-  </si>
-  <si>
     <t>Describe the path of HTML_AJAX.
 Example: /usr/share/pear/</t>
     <phoneticPr fontId="6"/>
@@ -782,9 +777,6 @@
   </si>
   <si>
     <t>(ITA installed directory)/ita-root/confs/commonconfs/path_ANSIBLE_MODULE.txt</t>
-  </si>
-  <si>
-    <t>(ITA installed directory)/ita-root/confs/commonconfs/path_PHPSpyc_Classes.txt</t>
   </si>
   <si>
     <t>(ITA installed directory)/ita-root/confs/restapiconfs/ansible_driver/accesskey.txt</t>
@@ -871,6 +863,18 @@
   <si>
     <t>ssh_args = -o ControlMaster=auto -o ControlPersist=60s -o StrictHostKeyChecking=no -o UserKnownHostsFile=/dev/null</t>
     <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>none</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>extension=yaml.so</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>※Add</t>
+    <phoneticPr fontId="6"/>
   </si>
 </sst>
 </file>
@@ -1110,7 +1114,7 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1217,6 +1221,9 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1534,7 +1541,7 @@
       <selection activeCell="B2" sqref="B2"/>
       <selection pane="topRight" activeCell="B2" sqref="B2"/>
       <selection pane="bottomLeft" activeCell="B2" sqref="B2"/>
-      <selection pane="bottomRight" activeCell="B2" sqref="B2"/>
+      <selection pane="bottomRight" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="1.625" defaultRowHeight="13.5"/>
@@ -1549,22 +1556,22 @@
     <row r="1" spans="1:6" ht="3" customHeight="1"/>
     <row r="2" spans="1:6" ht="45.95" customHeight="1">
       <c r="A2" s="28" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="17.25">
       <c r="B3" s="15" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="17.25">
       <c r="B5" s="29" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="17.25">
       <c r="B6" s="15" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="6" customHeight="1">
@@ -1645,7 +1652,7 @@
         <v>112</v>
       </c>
       <c r="E12" s="6" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="F12" s="5" t="s">
         <v>126</v>
@@ -1662,7 +1669,7 @@
         <v>113</v>
       </c>
       <c r="E13" s="6" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="F13" s="5" t="s">
         <v>126</v>
@@ -1679,7 +1686,7 @@
         <v>118</v>
       </c>
       <c r="E14" s="6" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="F14" s="5" t="s">
         <v>126</v>
@@ -1713,7 +1720,7 @@
         <v>114</v>
       </c>
       <c r="E16" s="6" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="F16" s="5" t="s">
         <v>126</v>
@@ -1730,7 +1737,7 @@
         <v>115</v>
       </c>
       <c r="E17" s="10" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="F17" s="5" t="s">
         <v>126</v>
@@ -1762,7 +1769,7 @@
         <v>113</v>
       </c>
       <c r="E19" s="6" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="F19" s="5" t="s">
         <v>126</v>
@@ -1779,7 +1786,7 @@
         <v>113</v>
       </c>
       <c r="E20" s="6" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="F20" s="5" t="s">
         <v>126</v>
@@ -1796,7 +1803,7 @@
         <v>114</v>
       </c>
       <c r="E21" s="6" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="F21" s="5" t="s">
         <v>126</v>
@@ -1813,7 +1820,7 @@
         <v>151</v>
       </c>
       <c r="E22" s="6" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="F22" s="5" t="s">
         <v>126</v>
@@ -1898,7 +1905,7 @@
       <selection activeCell="B2" sqref="B2"/>
       <selection pane="topRight" activeCell="B2" sqref="B2"/>
       <selection pane="bottomLeft" activeCell="B2" sqref="B2"/>
-      <selection pane="bottomRight" activeCell="B2" sqref="B2"/>
+      <selection pane="bottomRight" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="1.625" defaultRowHeight="13.5"/>
@@ -1913,24 +1920,24 @@
     <row r="1" spans="1:6" ht="3" customHeight="1"/>
     <row r="2" spans="1:6" ht="25.5">
       <c r="A2" s="28" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B2" s="15"/>
     </row>
     <row r="3" spans="1:6" ht="36.950000000000003" customHeight="1">
       <c r="B3" s="30" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="11.1" customHeight="1"/>
     <row r="5" spans="1:6" ht="18.95" customHeight="1">
       <c r="B5" s="29" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="21" customHeight="1">
       <c r="B6" s="15" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="5.0999999999999996" customHeight="1"/>
@@ -2047,7 +2054,7 @@
         <v>75</v>
       </c>
       <c r="E14" s="6" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="F14" s="5" t="s">
         <v>139</v>
@@ -2064,7 +2071,7 @@
         <v>74</v>
       </c>
       <c r="E15" s="6" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="F15" s="5" t="s">
         <v>140</v>
@@ -2201,7 +2208,7 @@
       <c r="E23" s="13" t="s">
         <v>88</v>
       </c>
-      <c r="F23" s="36" t="s">
+      <c r="F23" s="37" t="s">
         <v>145</v>
       </c>
     </row>
@@ -2218,7 +2225,7 @@
       <c r="E24" s="13" t="s">
         <v>90</v>
       </c>
-      <c r="F24" s="36"/>
+      <c r="F24" s="37"/>
     </row>
     <row r="25" spans="2:8" ht="45" customHeight="1">
       <c r="B25" s="8">
@@ -2354,7 +2361,7 @@
       <c r="E32" s="13" t="s">
         <v>105</v>
       </c>
-      <c r="F32" s="36"/>
+      <c r="F32" s="37"/>
     </row>
     <row r="33" spans="2:6" ht="45" customHeight="1">
       <c r="B33" s="8">
@@ -2369,7 +2376,24 @@
       <c r="E33" s="13" t="s">
         <v>106</v>
       </c>
-      <c r="F33" s="36"/>
+      <c r="F33" s="37"/>
+    </row>
+    <row r="34" spans="2:6" ht="45" customHeight="1">
+      <c r="B34" s="8">
+        <v>26</v>
+      </c>
+      <c r="C34" s="19" t="s">
+        <v>119</v>
+      </c>
+      <c r="D34" s="13" t="s">
+        <v>214</v>
+      </c>
+      <c r="E34" s="13" t="s">
+        <v>215</v>
+      </c>
+      <c r="F34" s="36" t="s">
+        <v>216</v>
+      </c>
     </row>
     <row r="35" spans="2:6" ht="45" customHeight="1"/>
   </sheetData>
@@ -2393,7 +2417,7 @@
   <dimension ref="A1:I97"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScale="115" zoomScaleNormal="70" zoomScaleSheetLayoutView="130" workbookViewId="0">
-      <pane xSplit="2" ySplit="5" topLeftCell="C6" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="5" topLeftCell="E6" activePane="bottomRight" state="frozen"/>
       <selection activeCell="B2" sqref="B2"/>
       <selection pane="topRight" activeCell="B2" sqref="B2"/>
       <selection pane="bottomLeft" activeCell="B2" sqref="B2"/>
@@ -2412,12 +2436,12 @@
     <row r="1" spans="1:8" ht="3" customHeight="1"/>
     <row r="2" spans="1:8" ht="25.5">
       <c r="A2" s="28" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="17.25">
       <c r="B3" s="15" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="3" customHeight="1"/>
@@ -2659,7 +2683,7 @@
         <v>93</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="19" spans="2:6" ht="30" customHeight="1">
@@ -2792,10 +2816,10 @@
         <v>104</v>
       </c>
       <c r="E26" s="13" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="27" spans="2:6" ht="30" customHeight="1">
@@ -2938,14 +2962,14 @@
     <tabColor rgb="FFCC9900"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:K29"/>
+  <dimension ref="A1:K28"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="70" workbookViewId="0">
       <pane xSplit="2" ySplit="6" topLeftCell="C7" activePane="bottomRight" state="frozen"/>
       <selection activeCell="B2" sqref="B2"/>
       <selection pane="topRight" activeCell="B2" sqref="B2"/>
       <selection pane="bottomLeft" activeCell="B2" sqref="B2"/>
-      <selection pane="bottomRight" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="1.625" defaultRowHeight="13.5"/>
@@ -2958,38 +2982,38 @@
   <sheetData>
     <row r="1" spans="1:11" ht="25.5">
       <c r="A1" s="28" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="5.0999999999999996" customHeight="1"/>
     <row r="3" spans="1:11" ht="17.25">
       <c r="B3" s="15" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
+      <c r="B5" s="38" t="s">
+        <v>0</v>
+      </c>
+      <c r="C5" s="40" t="s">
         <v>181</v>
       </c>
-    </row>
-    <row r="5" spans="1:11">
-      <c r="B5" s="37" t="s">
-        <v>0</v>
-      </c>
-      <c r="C5" s="39" t="s">
-        <v>182</v>
-      </c>
-      <c r="D5" s="40"/>
-      <c r="E5" s="40"/>
-      <c r="F5" s="40"/>
-      <c r="G5" s="40"/>
-      <c r="H5" s="41"/>
-      <c r="I5" s="37" t="s">
+      <c r="D5" s="41"/>
+      <c r="E5" s="41"/>
+      <c r="F5" s="41"/>
+      <c r="G5" s="41"/>
+      <c r="H5" s="42"/>
+      <c r="I5" s="38" t="s">
         <v>146</v>
       </c>
-      <c r="J5" s="37" t="s">
+      <c r="J5" s="38" t="s">
         <v>147</v>
       </c>
     </row>
     <row r="6" spans="1:11">
-      <c r="B6" s="38"/>
+      <c r="B6" s="39"/>
       <c r="C6" s="14" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="D6" s="14" t="s">
         <v>1</v>
@@ -3006,8 +3030,8 @@
       <c r="H6" s="14" t="s">
         <v>91</v>
       </c>
-      <c r="I6" s="38"/>
-      <c r="J6" s="38"/>
+      <c r="I6" s="39"/>
+      <c r="J6" s="39"/>
     </row>
     <row r="7" spans="1:11" ht="67.5" customHeight="1">
       <c r="B7" s="31">
@@ -3022,7 +3046,7 @@
       <c r="G7" s="32"/>
       <c r="H7" s="32"/>
       <c r="I7" s="33" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="J7" s="16" t="s">
         <v>148</v>
@@ -3041,7 +3065,7 @@
       <c r="G8" s="32"/>
       <c r="H8" s="32"/>
       <c r="I8" s="33" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="J8" s="16" t="s">
         <v>149</v>
@@ -3066,7 +3090,7 @@
         <v>85</v>
       </c>
       <c r="I9" s="33" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="J9" s="16" t="s">
         <v>150</v>
@@ -3095,10 +3119,10 @@
         <v>85</v>
       </c>
       <c r="I10" s="33" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="J10" s="16" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
     </row>
     <row r="11" spans="1:11" ht="67.5" customHeight="1">
@@ -3124,7 +3148,7 @@
         <v>85</v>
       </c>
       <c r="I11" s="33" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="J11" s="16" t="s">
         <v>151</v>
@@ -3143,7 +3167,7 @@
       <c r="G12" s="32"/>
       <c r="H12" s="32"/>
       <c r="I12" s="33" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="J12" s="16" t="s">
         <v>152</v>
@@ -3164,10 +3188,10 @@
         <v>85</v>
       </c>
       <c r="I13" s="33" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="J13" s="16" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
     </row>
     <row r="14" spans="1:11" ht="67.5" customHeight="1">
@@ -3183,7 +3207,7 @@
       <c r="G14" s="32"/>
       <c r="H14" s="32"/>
       <c r="I14" s="33" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="J14" s="16" t="s">
         <v>153</v>
@@ -3209,10 +3233,10 @@
         <v>85</v>
       </c>
       <c r="I15" s="33" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="J15" s="16" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="16" spans="1:11" ht="67.5" customHeight="1">
@@ -3238,10 +3262,10 @@
         <v>85</v>
       </c>
       <c r="I16" s="33" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="J16" s="16" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
     </row>
     <row r="17" spans="2:11" ht="67.5" customHeight="1">
@@ -3267,7 +3291,7 @@
         <v>85</v>
       </c>
       <c r="I17" s="33" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="J17" s="17" t="s">
         <v>154</v>
@@ -3297,10 +3321,10 @@
         <v>85</v>
       </c>
       <c r="I18" s="33" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="J18" s="17" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="19" spans="2:11" ht="67.5" customHeight="1">
@@ -3326,10 +3350,10 @@
         <v>85</v>
       </c>
       <c r="I19" s="33" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="J19" s="26" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="K19" s="4"/>
     </row>
@@ -3350,36 +3374,32 @@
         <v>85</v>
       </c>
       <c r="I20" s="33" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="J20" s="26" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="21" spans="2:11" ht="67.5" customHeight="1">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="21" spans="2:11" ht="54">
       <c r="B21" s="31">
         <v>15</v>
       </c>
-      <c r="C21" s="34" t="s">
-        <v>85</v>
-      </c>
+      <c r="C21" s="34"/>
       <c r="D21" s="32" t="s">
         <v>85</v>
       </c>
       <c r="E21" s="32"/>
       <c r="F21" s="32"/>
       <c r="G21" s="32"/>
-      <c r="H21" s="32" t="s">
-        <v>85</v>
-      </c>
+      <c r="H21" s="32"/>
       <c r="I21" s="33" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="J21" s="26" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="22" spans="2:11" ht="54">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="22" spans="2:11" ht="67.5" customHeight="1">
       <c r="B22" s="31">
         <v>16</v>
       </c>
@@ -3392,13 +3412,13 @@
       <c r="G22" s="32"/>
       <c r="H22" s="32"/>
       <c r="I22" s="33" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="J22" s="26" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="23" spans="2:11" ht="67.5" customHeight="1">
+    <row r="23" spans="2:11" ht="54">
       <c r="B23" s="31">
         <v>17</v>
       </c>
@@ -3411,37 +3431,37 @@
       <c r="G23" s="32"/>
       <c r="H23" s="32"/>
       <c r="I23" s="33" t="s">
-        <v>199</v>
-      </c>
-      <c r="J23" s="26" t="s">
-        <v>161</v>
+        <v>198</v>
+      </c>
+      <c r="J23" s="35" t="s">
+        <v>212</v>
       </c>
     </row>
     <row r="24" spans="2:11" ht="54">
       <c r="B24" s="31">
         <v>18</v>
       </c>
-      <c r="C24" s="34"/>
-      <c r="D24" s="32" t="s">
-        <v>85</v>
-      </c>
+      <c r="C24" s="34" t="s">
+        <v>85</v>
+      </c>
+      <c r="D24" s="32"/>
       <c r="E24" s="32"/>
       <c r="F24" s="32"/>
       <c r="G24" s="32"/>
       <c r="H24" s="32"/>
       <c r="I24" s="33" t="s">
-        <v>200</v>
-      </c>
-      <c r="J24" s="35" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="25" spans="2:11" ht="54">
+        <v>199</v>
+      </c>
+      <c r="J24" s="26" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="25" spans="2:11" ht="18.75">
       <c r="B25" s="31">
         <v>19</v>
       </c>
       <c r="C25" s="34" t="s">
-        <v>85</v>
+        <v>182</v>
       </c>
       <c r="D25" s="32"/>
       <c r="E25" s="32"/>
@@ -3449,18 +3469,18 @@
       <c r="G25" s="32"/>
       <c r="H25" s="32"/>
       <c r="I25" s="33" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="J25" s="26" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="26" spans="2:11" ht="18.75">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="26" spans="2:11" ht="27">
       <c r="B26" s="31">
         <v>20</v>
       </c>
       <c r="C26" s="34" t="s">
-        <v>183</v>
+        <v>85</v>
       </c>
       <c r="D26" s="32"/>
       <c r="E26" s="32"/>
@@ -3468,10 +3488,10 @@
       <c r="G26" s="32"/>
       <c r="H26" s="32"/>
       <c r="I26" s="33" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="J26" s="26" t="s">
-        <v>213</v>
+        <v>155</v>
       </c>
     </row>
     <row r="27" spans="2:11" ht="27">
@@ -3481,50 +3501,31 @@
       <c r="C27" s="34" t="s">
         <v>85</v>
       </c>
-      <c r="D27" s="32"/>
-      <c r="E27" s="32"/>
-      <c r="F27" s="32"/>
-      <c r="G27" s="32"/>
-      <c r="H27" s="32"/>
+      <c r="D27" s="32" t="s">
+        <v>85</v>
+      </c>
+      <c r="E27" s="32" t="s">
+        <v>85</v>
+      </c>
+      <c r="F27" s="32" t="s">
+        <v>85</v>
+      </c>
+      <c r="G27" s="32" t="s">
+        <v>85</v>
+      </c>
+      <c r="H27" s="32" t="s">
+        <v>85</v>
+      </c>
       <c r="I27" s="33" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="J27" s="26" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="28" spans="2:11" ht="27">
-      <c r="B28" s="31">
-        <v>22</v>
-      </c>
-      <c r="C28" s="34" t="s">
-        <v>85</v>
-      </c>
-      <c r="D28" s="32" t="s">
-        <v>85</v>
-      </c>
-      <c r="E28" s="32" t="s">
-        <v>85</v>
-      </c>
-      <c r="F28" s="32" t="s">
-        <v>85</v>
-      </c>
-      <c r="G28" s="32" t="s">
-        <v>85</v>
-      </c>
-      <c r="H28" s="32" t="s">
-        <v>85</v>
-      </c>
-      <c r="I28" s="33" t="s">
-        <v>204</v>
-      </c>
-      <c r="J28" s="26" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="29" spans="2:11">
-      <c r="J29" t="s">
-        <v>211</v>
+        <v>210</v>
+      </c>
+    </row>
+    <row r="28" spans="2:11">
+      <c r="J28" t="s">
+        <v>209</v>
       </c>
     </row>
   </sheetData>

--- a/asset/Documents/Exastro-ITA_[Reference]Configuration_settings_during_installation.xlsx
+++ b/asset/Documents/Exastro-ITA_[Reference]Configuration_settings_during_installation.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="153222"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12210"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12210" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="1. MariaDB(server.cnf)" sheetId="2" r:id="rId1"/>
@@ -14,11 +14,11 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'1. MariaDB(server.cnf)'!$B$8:$F$20</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'2. PHP(php.ini)'!$B$8:$F$33</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'2. PHP(php.ini)'!$B$8:$F$31</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'3. ansible.cfg'!$B$5:$F$27</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'4. ITA setting file description'!$B$6:$K$6</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">'1. MariaDB(server.cnf)'!$A$2:$F$22</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="1">'2. PHP(php.ini)'!$A$2:$F$34</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="1">'2. PHP(php.ini)'!$A$2:$F$32</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="2">'3. ansible.cfg'!$A$2:$F$30</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="3">'4. ITA setting file description'!$A$1:$J$30</definedName>
   </definedNames>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="396" uniqueCount="217">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="391" uniqueCount="214">
   <si>
     <t>№</t>
     <phoneticPr fontId="1"/>
@@ -131,9 +131,6 @@
     <t>#action_plugins     = /usr/share/ansible/plugins/action</t>
   </si>
   <si>
-    <t>timeout = 10</t>
-  </si>
-  <si>
     <t>#timeout = 10</t>
   </si>
   <si>
@@ -187,10 +184,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>;openssl.capath=</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>mbstring.substitute_character = none</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -382,10 +375,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>;openssl.cafile=</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>max_input_time = 600</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -416,12 +405,6 @@
   <si>
     <t>#ssh_args = -C -o ControlMaster=auto -o ControlPersist=60s</t>
     <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>openssl.cafile=/etc/pki/tls/certs/exastro-it-automation-ja.crt</t>
-  </si>
-  <si>
-    <t>openssl.capath=/etc/pki/tls/certs/exastro-it-automation-ja.crt</t>
   </si>
   <si>
     <t>query_cache_type=1</t>
@@ -846,9 +829,6 @@
 This sample describes "/usr/local/bin"</t>
   </si>
   <si>
-    <t>※1 The value encoded by base64 then converted by rot13</t>
-  </si>
-  <si>
     <t>Describe the path of Phpspreadsheet.
 This sample: "/usr/share/php"</t>
   </si>
@@ -875,6 +855,18 @@
   <si>
     <t>※Add</t>
     <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>timeout = 60</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>※1 The value encoded by base64 then converted by rot13. Create it with the following command.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>echo -ne "(String to convert)" | base64 | tr '[A-Za-z]' '[N-ZA-Mn-za-m]'</t>
+    <phoneticPr fontId="1"/>
   </si>
 </sst>
 </file>
@@ -1114,7 +1106,7 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1224,6 +1216,9 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1536,12 +1531,12 @@
   </sheetPr>
   <dimension ref="A1:I94"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="70" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="8" topLeftCell="C9" activePane="bottomRight" state="frozen"/>
+    <sheetView view="pageBreakPreview" zoomScaleNormal="70" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <pane xSplit="2" ySplit="8" topLeftCell="C21" activePane="bottomRight" state="frozen"/>
       <selection activeCell="B2" sqref="B2"/>
       <selection pane="topRight" activeCell="B2" sqref="B2"/>
       <selection pane="bottomLeft" activeCell="B2" sqref="B2"/>
-      <selection pane="bottomRight" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="1.625" defaultRowHeight="13.5"/>
@@ -1556,22 +1551,22 @@
     <row r="1" spans="1:6" ht="3" customHeight="1"/>
     <row r="2" spans="1:6" ht="45.95" customHeight="1">
       <c r="A2" s="28" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="17.25">
       <c r="B3" s="15" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="17.25">
       <c r="B5" s="29" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="17.25">
       <c r="B6" s="15" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="6" customHeight="1">
@@ -1582,16 +1577,16 @@
         <v>5</v>
       </c>
       <c r="C8" s="23" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="D8" s="14" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="E8" s="14" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="F8" s="14" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="30" customHeight="1">
@@ -1599,13 +1594,13 @@
         <v>1</v>
       </c>
       <c r="C9" s="20" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="D9" s="12" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="E9" s="13" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="F9" s="2"/>
     </row>
@@ -1614,13 +1609,13 @@
         <v>2</v>
       </c>
       <c r="C10" s="20" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="D10" s="12" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="E10" s="21" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="F10" s="2"/>
     </row>
@@ -1629,16 +1624,16 @@
         <v>4</v>
       </c>
       <c r="C11" s="20" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="D11" s="12" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="E11" s="11" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="30" customHeight="1">
@@ -1646,16 +1641,16 @@
         <v>3</v>
       </c>
       <c r="C12" s="22" t="s">
+        <v>116</v>
+      </c>
+      <c r="D12" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="E12" s="6" t="s">
+        <v>166</v>
+      </c>
+      <c r="F12" s="5" t="s">
         <v>121</v>
-      </c>
-      <c r="D12" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="E12" s="6" t="s">
-        <v>171</v>
-      </c>
-      <c r="F12" s="5" t="s">
-        <v>126</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="30" customHeight="1">
@@ -1663,16 +1658,16 @@
         <v>5</v>
       </c>
       <c r="C13" s="22" t="s">
+        <v>116</v>
+      </c>
+      <c r="D13" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="E13" s="6" t="s">
+        <v>165</v>
+      </c>
+      <c r="F13" s="5" t="s">
         <v>121</v>
-      </c>
-      <c r="D13" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="E13" s="6" t="s">
-        <v>170</v>
-      </c>
-      <c r="F13" s="5" t="s">
-        <v>126</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="30" customHeight="1">
@@ -1680,16 +1675,16 @@
         <v>6</v>
       </c>
       <c r="C14" s="22" t="s">
+        <v>116</v>
+      </c>
+      <c r="D14" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="E14" s="6" t="s">
+        <v>164</v>
+      </c>
+      <c r="F14" s="5" t="s">
         <v>121</v>
-      </c>
-      <c r="D14" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="E14" s="6" t="s">
-        <v>169</v>
-      </c>
-      <c r="F14" s="5" t="s">
-        <v>126</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="30" customHeight="1">
@@ -1697,16 +1692,16 @@
         <v>7</v>
       </c>
       <c r="C15" s="22" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="D15" s="7">
         <v>0</v>
       </c>
       <c r="E15" s="10" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="F15" s="5" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="30" customHeight="1">
@@ -1714,16 +1709,16 @@
         <v>8</v>
       </c>
       <c r="C16" s="22" t="s">
+        <v>116</v>
+      </c>
+      <c r="D16" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="E16" s="6" t="s">
+        <v>163</v>
+      </c>
+      <c r="F16" s="5" t="s">
         <v>121</v>
-      </c>
-      <c r="D16" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="E16" s="6" t="s">
-        <v>168</v>
-      </c>
-      <c r="F16" s="5" t="s">
-        <v>126</v>
       </c>
     </row>
     <row r="17" spans="2:6" ht="30" customHeight="1">
@@ -1731,16 +1726,16 @@
         <v>9</v>
       </c>
       <c r="C17" s="22" t="s">
+        <v>116</v>
+      </c>
+      <c r="D17" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="E17" s="10" t="s">
+        <v>162</v>
+      </c>
+      <c r="F17" s="5" t="s">
         <v>121</v>
-      </c>
-      <c r="D17" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="E17" s="10" t="s">
-        <v>167</v>
-      </c>
-      <c r="F17" s="5" t="s">
-        <v>126</v>
       </c>
     </row>
     <row r="18" spans="2:6" ht="30" customHeight="1">
@@ -1748,13 +1743,13 @@
         <v>10</v>
       </c>
       <c r="C18" s="22" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="D18" s="7" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="E18" s="10" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="F18" s="9"/>
     </row>
@@ -1763,16 +1758,16 @@
         <v>11</v>
       </c>
       <c r="C19" s="22" t="s">
+        <v>116</v>
+      </c>
+      <c r="D19" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="E19" s="6" t="s">
+        <v>161</v>
+      </c>
+      <c r="F19" s="5" t="s">
         <v>121</v>
-      </c>
-      <c r="D19" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="E19" s="6" t="s">
-        <v>166</v>
-      </c>
-      <c r="F19" s="5" t="s">
-        <v>126</v>
       </c>
     </row>
     <row r="20" spans="2:6" ht="30" customHeight="1">
@@ -1780,16 +1775,16 @@
         <v>12</v>
       </c>
       <c r="C20" s="22" t="s">
+        <v>116</v>
+      </c>
+      <c r="D20" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="E20" s="6" t="s">
+        <v>160</v>
+      </c>
+      <c r="F20" s="5" t="s">
         <v>121</v>
-      </c>
-      <c r="D20" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="E20" s="6" t="s">
-        <v>165</v>
-      </c>
-      <c r="F20" s="5" t="s">
-        <v>126</v>
       </c>
     </row>
     <row r="21" spans="2:6" ht="30" customHeight="1">
@@ -1797,16 +1792,16 @@
         <v>13</v>
       </c>
       <c r="C21" s="22" t="s">
+        <v>116</v>
+      </c>
+      <c r="D21" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="E21" s="6" t="s">
+        <v>159</v>
+      </c>
+      <c r="F21" s="5" t="s">
         <v>121</v>
-      </c>
-      <c r="D21" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="E21" s="6" t="s">
-        <v>164</v>
-      </c>
-      <c r="F21" s="5" t="s">
-        <v>126</v>
       </c>
     </row>
     <row r="22" spans="2:6">
@@ -1814,16 +1809,16 @@
         <v>14</v>
       </c>
       <c r="C22" s="22" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="D22" s="7">
         <v>151</v>
       </c>
       <c r="E22" s="6" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="F22" s="5" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
     </row>
     <row r="35" spans="8:9">
@@ -1898,14 +1893,14 @@
     <tabColor rgb="FFCC9900"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H35"/>
+  <dimension ref="A1:H33"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScaleNormal="70" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <pane xSplit="2" ySplit="8" topLeftCell="C9" activePane="bottomRight" state="frozen"/>
       <selection activeCell="B2" sqref="B2"/>
       <selection pane="topRight" activeCell="B2" sqref="B2"/>
       <selection pane="bottomLeft" activeCell="B2" sqref="B2"/>
-      <selection pane="bottomRight" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="1.625" defaultRowHeight="13.5"/>
@@ -1920,24 +1915,24 @@
     <row r="1" spans="1:6" ht="3" customHeight="1"/>
     <row r="2" spans="1:6" ht="25.5">
       <c r="A2" s="28" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="B2" s="15"/>
     </row>
     <row r="3" spans="1:6" ht="36.950000000000003" customHeight="1">
       <c r="B3" s="30" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="11.1" customHeight="1"/>
     <row r="5" spans="1:6" ht="18.95" customHeight="1">
       <c r="B5" s="29" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="21" customHeight="1">
       <c r="B6" s="15" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="5.0999999999999996" customHeight="1"/>
@@ -1946,16 +1941,16 @@
         <v>5</v>
       </c>
       <c r="C8" s="23" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="D8" s="14" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="E8" s="14" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="F8" s="14" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="45" customHeight="1">
@@ -1963,16 +1958,16 @@
         <v>1</v>
       </c>
       <c r="C9" s="22" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="45" customHeight="1">
@@ -1980,16 +1975,16 @@
         <v>2</v>
       </c>
       <c r="C10" s="22" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="E10" s="6" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="45" customHeight="1">
@@ -1997,16 +1992,16 @@
         <v>3</v>
       </c>
       <c r="C11" s="22" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="E11" s="6" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="F11" s="5" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="45" customHeight="1">
@@ -2014,16 +2009,16 @@
         <v>4</v>
       </c>
       <c r="C12" s="22" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="E12" s="6" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="F12" s="5" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="45" customHeight="1">
@@ -2031,16 +2026,16 @@
         <v>5</v>
       </c>
       <c r="C13" s="22" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="E13" s="6" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="F13" s="5" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="45" customHeight="1">
@@ -2048,16 +2043,16 @@
         <v>6</v>
       </c>
       <c r="C14" s="22" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="E14" s="6" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="F14" s="5" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="45" customHeight="1">
@@ -2065,16 +2060,16 @@
         <v>7</v>
       </c>
       <c r="C15" s="22" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="E15" s="6" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="F15" s="5" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="45" customHeight="1">
@@ -2082,16 +2077,16 @@
         <v>8</v>
       </c>
       <c r="C16" s="24" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="E16" s="6" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="F16" s="5" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
     </row>
     <row r="17" spans="2:8" ht="45" customHeight="1">
@@ -2099,13 +2094,13 @@
         <v>9</v>
       </c>
       <c r="C17" s="19" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="D17" s="13" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="E17" s="13" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="F17" s="1"/>
     </row>
@@ -2114,16 +2109,16 @@
         <v>10</v>
       </c>
       <c r="C18" s="24" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E18" s="6" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="F18" s="5" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
     </row>
     <row r="19" spans="2:8" ht="45" customHeight="1">
@@ -2131,16 +2126,16 @@
         <v>11</v>
       </c>
       <c r="C19" s="19" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="D19" s="13" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="E19" s="13" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="H19" s="4"/>
     </row>
@@ -2149,16 +2144,16 @@
         <v>12</v>
       </c>
       <c r="C20" s="22" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="D20" s="6" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="E20" s="6" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="F20" s="5" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
     </row>
     <row r="21" spans="2:8" ht="45" customHeight="1">
@@ -2166,16 +2161,16 @@
         <v>13</v>
       </c>
       <c r="C21" s="24" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="D21" s="6" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="E21" s="6" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="F21" s="5" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
     </row>
     <row r="22" spans="2:8" ht="45" customHeight="1">
@@ -2183,16 +2178,16 @@
         <v>14</v>
       </c>
       <c r="C22" s="19" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="D22" s="13" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="E22" s="13" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
     </row>
     <row r="23" spans="2:8" ht="45" customHeight="1">
@@ -2200,16 +2195,16 @@
         <v>15</v>
       </c>
       <c r="C23" s="19" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="D23" s="13" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="E23" s="13" t="s">
-        <v>88</v>
-      </c>
-      <c r="F23" s="37" t="s">
-        <v>145</v>
+        <v>86</v>
+      </c>
+      <c r="F23" s="38" t="s">
+        <v>140</v>
       </c>
     </row>
     <row r="24" spans="2:8" ht="45" customHeight="1">
@@ -2217,31 +2212,31 @@
         <v>16</v>
       </c>
       <c r="C24" s="19" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="D24" s="13" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="E24" s="13" t="s">
-        <v>90</v>
-      </c>
-      <c r="F24" s="37"/>
+        <v>88</v>
+      </c>
+      <c r="F24" s="38"/>
     </row>
     <row r="25" spans="2:8" ht="45" customHeight="1">
       <c r="B25" s="8">
         <v>17</v>
       </c>
       <c r="C25" s="19" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="D25" s="13" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="E25" s="13" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="F25" s="25" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
     </row>
     <row r="26" spans="2:8" ht="45" customHeight="1">
@@ -2249,16 +2244,16 @@
         <v>18</v>
       </c>
       <c r="C26" s="19" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="D26" s="13" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="E26" s="13" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F26" s="25" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="H26" s="4"/>
     </row>
@@ -2267,16 +2262,16 @@
         <v>19</v>
       </c>
       <c r="C27" s="19" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="D27" s="13" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E27" s="13" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="F27" s="25" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="H27" s="4"/>
     </row>
@@ -2285,16 +2280,16 @@
         <v>20</v>
       </c>
       <c r="C28" s="19" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="D28" s="13" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="E28" s="13" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F28" s="25" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
     </row>
     <row r="29" spans="2:8" ht="45" customHeight="1">
@@ -2302,16 +2297,16 @@
         <v>21</v>
       </c>
       <c r="C29" s="19" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="D29" s="13" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="E29" s="13" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="F29" s="25" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
     </row>
     <row r="30" spans="2:8" ht="45" customHeight="1">
@@ -2319,16 +2314,16 @@
         <v>22</v>
       </c>
       <c r="C30" s="19" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="D30" s="13" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="E30" s="13" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F30" s="25" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
     </row>
     <row r="31" spans="2:8" ht="45" customHeight="1">
@@ -2336,16 +2331,16 @@
         <v>23</v>
       </c>
       <c r="C31" s="19" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="D31" s="13" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="E31" s="13" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F31" s="25" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
     </row>
     <row r="32" spans="2:8" ht="45" customHeight="1">
@@ -2353,53 +2348,22 @@
         <v>24</v>
       </c>
       <c r="C32" s="19" t="s">
-        <v>128</v>
+        <v>114</v>
       </c>
       <c r="D32" s="13" t="s">
-        <v>96</v>
+        <v>208</v>
       </c>
       <c r="E32" s="13" t="s">
-        <v>105</v>
-      </c>
-      <c r="F32" s="37"/>
-    </row>
-    <row r="33" spans="2:6" ht="45" customHeight="1">
-      <c r="B33" s="8">
-        <v>25</v>
-      </c>
-      <c r="C33" s="19" t="s">
-        <v>128</v>
-      </c>
-      <c r="D33" s="13" t="s">
-        <v>47</v>
-      </c>
-      <c r="E33" s="13" t="s">
-        <v>106</v>
-      </c>
-      <c r="F33" s="37"/>
-    </row>
-    <row r="34" spans="2:6" ht="45" customHeight="1">
-      <c r="B34" s="8">
-        <v>26</v>
-      </c>
-      <c r="C34" s="19" t="s">
-        <v>119</v>
-      </c>
-      <c r="D34" s="13" t="s">
-        <v>214</v>
-      </c>
-      <c r="E34" s="13" t="s">
-        <v>215</v>
-      </c>
-      <c r="F34" s="36" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="35" spans="2:6" ht="45" customHeight="1"/>
+        <v>209</v>
+      </c>
+      <c r="F32" s="36" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="33" ht="45" customHeight="1"/>
   </sheetData>
-  <autoFilter ref="B8:F33"/>
-  <mergeCells count="2">
-    <mergeCell ref="F32:F33"/>
+  <autoFilter ref="B8:F31"/>
+  <mergeCells count="1">
     <mergeCell ref="F23:F24"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
@@ -2416,12 +2380,12 @@
   </sheetPr>
   <dimension ref="A1:I97"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScale="115" zoomScaleNormal="70" zoomScaleSheetLayoutView="130" workbookViewId="0">
-      <pane xSplit="2" ySplit="5" topLeftCell="E6" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="115" zoomScaleNormal="70" zoomScaleSheetLayoutView="130" workbookViewId="0">
+      <pane xSplit="2" ySplit="5" topLeftCell="E15" activePane="bottomRight" state="frozen"/>
       <selection activeCell="B2" sqref="B2"/>
       <selection pane="topRight" activeCell="B2" sqref="B2"/>
       <selection pane="bottomLeft" activeCell="B2" sqref="B2"/>
-      <selection pane="bottomRight" activeCell="B2" sqref="B2"/>
+      <selection pane="bottomRight" activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="1.625" defaultRowHeight="13.5"/>
@@ -2436,12 +2400,12 @@
     <row r="1" spans="1:8" ht="3" customHeight="1"/>
     <row r="2" spans="1:8" ht="25.5">
       <c r="A2" s="28" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="17.25">
       <c r="B3" s="15" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="3" customHeight="1"/>
@@ -2450,16 +2414,16 @@
         <v>5</v>
       </c>
       <c r="C5" s="23" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="D5" s="14" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="E5" s="14" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="F5" s="14" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="30" customHeight="1">
@@ -2467,16 +2431,16 @@
         <v>1</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="D6" s="13" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E6" s="13" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F6" s="27" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="30" customHeight="1">
@@ -2484,16 +2448,16 @@
         <v>2</v>
       </c>
       <c r="C7" s="19" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="D7" s="13" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="E7" s="13" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="F7" s="27" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="30" customHeight="1">
@@ -2501,16 +2465,16 @@
         <v>3</v>
       </c>
       <c r="C8" s="19" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="D8" s="13" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E8" s="13" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F8" s="27" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="30" customHeight="1">
@@ -2518,16 +2482,16 @@
         <v>4</v>
       </c>
       <c r="C9" s="19" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="D9" s="13" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E9" s="13" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F9" s="27" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="30" customHeight="1">
@@ -2535,16 +2499,16 @@
         <v>5</v>
       </c>
       <c r="C10" s="19" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="D10" s="13" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E10" s="13" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F10" s="27" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="30" customHeight="1">
@@ -2552,16 +2516,16 @@
         <v>6</v>
       </c>
       <c r="C11" s="19" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="D11" s="13" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E11" s="13" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F11" s="27" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="H11" s="4"/>
     </row>
@@ -2570,16 +2534,16 @@
         <v>7</v>
       </c>
       <c r="C12" s="19" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="D12" s="13" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E12" s="13" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F12" s="27" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="30" customHeight="1">
@@ -2587,16 +2551,16 @@
         <v>8</v>
       </c>
       <c r="C13" s="19" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="D13" s="13" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E13" s="13" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F13" s="27" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="30" customHeight="1">
@@ -2604,16 +2568,16 @@
         <v>9</v>
       </c>
       <c r="C14" s="19" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="D14" s="13" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="E14" s="13" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="F14" s="27" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="30" customHeight="1">
@@ -2621,16 +2585,16 @@
         <v>10</v>
       </c>
       <c r="C15" s="19" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="D15" s="13" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E15" s="13" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F15" s="27" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="H15" s="4"/>
     </row>
@@ -2639,16 +2603,16 @@
         <v>11</v>
       </c>
       <c r="C16" s="19" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="D16" s="13" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E16" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="F16" s="27" t="s">
-        <v>131</v>
+        <v>211</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>157</v>
       </c>
       <c r="H16" s="4"/>
     </row>
@@ -2657,16 +2621,16 @@
         <v>12</v>
       </c>
       <c r="C17" s="19" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="D17" s="13" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="E17" s="13" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="F17" s="27" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
     </row>
     <row r="18" spans="2:6" ht="30" customHeight="1">
@@ -2674,16 +2638,16 @@
         <v>13</v>
       </c>
       <c r="C18" s="19" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="D18" s="13" t="s">
         <v>6</v>
       </c>
       <c r="E18" s="13" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
     </row>
     <row r="19" spans="2:6" ht="30" customHeight="1">
@@ -2691,7 +2655,7 @@
         <v>14</v>
       </c>
       <c r="C19" s="19" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="D19" s="13" t="s">
         <v>28</v>
@@ -2700,7 +2664,7 @@
         <v>27</v>
       </c>
       <c r="F19" s="27" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
     </row>
     <row r="20" spans="2:6" ht="30" customHeight="1">
@@ -2708,7 +2672,7 @@
         <v>15</v>
       </c>
       <c r="C20" s="19" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="D20" s="13" t="s">
         <v>26</v>
@@ -2717,7 +2681,7 @@
         <v>25</v>
       </c>
       <c r="F20" s="27" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
     </row>
     <row r="21" spans="2:6" ht="30" customHeight="1">
@@ -2725,7 +2689,7 @@
         <v>16</v>
       </c>
       <c r="C21" s="19" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="D21" s="13" t="s">
         <v>24</v>
@@ -2734,7 +2698,7 @@
         <v>23</v>
       </c>
       <c r="F21" s="27" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
     </row>
     <row r="22" spans="2:6" ht="30" customHeight="1">
@@ -2742,7 +2706,7 @@
         <v>17</v>
       </c>
       <c r="C22" s="19" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="D22" s="13" t="s">
         <v>22</v>
@@ -2751,7 +2715,7 @@
         <v>21</v>
       </c>
       <c r="F22" s="27" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
     </row>
     <row r="23" spans="2:6" ht="30" customHeight="1">
@@ -2759,7 +2723,7 @@
         <v>18</v>
       </c>
       <c r="C23" s="19" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="D23" s="13" t="s">
         <v>20</v>
@@ -2768,7 +2732,7 @@
         <v>19</v>
       </c>
       <c r="F23" s="27" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
     </row>
     <row r="24" spans="2:6" ht="30" customHeight="1">
@@ -2776,7 +2740,7 @@
         <v>19</v>
       </c>
       <c r="C24" s="19" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="D24" s="13" t="s">
         <v>18</v>
@@ -2785,7 +2749,7 @@
         <v>17</v>
       </c>
       <c r="F24" s="27" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
     </row>
     <row r="25" spans="2:6" ht="30" customHeight="1">
@@ -2793,7 +2757,7 @@
         <v>20</v>
       </c>
       <c r="C25" s="19" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="D25" s="13" t="s">
         <v>16</v>
@@ -2802,7 +2766,7 @@
         <v>15</v>
       </c>
       <c r="F25" s="27" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
     </row>
     <row r="26" spans="2:6" ht="30" customHeight="1">
@@ -2810,16 +2774,16 @@
         <v>21</v>
       </c>
       <c r="C26" s="19" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="D26" s="13" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="E26" s="13" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
     </row>
     <row r="27" spans="2:6" ht="30" customHeight="1">
@@ -2827,7 +2791,7 @@
         <v>22</v>
       </c>
       <c r="C27" s="19" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="D27" s="13" t="s">
         <v>14</v>
@@ -2836,7 +2800,7 @@
         <v>13</v>
       </c>
       <c r="F27" s="27" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
     </row>
     <row r="28" spans="2:6" ht="30" customHeight="1">
@@ -2844,7 +2808,7 @@
         <v>23</v>
       </c>
       <c r="C28" s="19" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="D28" s="13" t="s">
         <v>12</v>
@@ -2853,7 +2817,7 @@
         <v>11</v>
       </c>
       <c r="F28" s="27" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
     </row>
     <row r="29" spans="2:6" ht="30" customHeight="1">
@@ -2861,7 +2825,7 @@
         <v>24</v>
       </c>
       <c r="C29" s="19" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="D29" s="13" t="s">
         <v>10</v>
@@ -2870,7 +2834,7 @@
         <v>9</v>
       </c>
       <c r="F29" s="27" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
     </row>
     <row r="30" spans="2:6" ht="30" customHeight="1">
@@ -2878,7 +2842,7 @@
         <v>25</v>
       </c>
       <c r="C30" s="19" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="D30" s="13" t="s">
         <v>8</v>
@@ -2887,7 +2851,7 @@
         <v>7</v>
       </c>
       <c r="F30" s="27" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
     </row>
     <row r="38" spans="8:9">
@@ -2962,14 +2926,14 @@
     <tabColor rgb="FFCC9900"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:K28"/>
+  <dimension ref="A1:K29"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="70" workbookViewId="0">
-      <pane xSplit="2" ySplit="6" topLeftCell="C7" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="6" topLeftCell="D7" activePane="bottomRight" state="frozen"/>
       <selection activeCell="B2" sqref="B2"/>
       <selection pane="topRight" activeCell="B2" sqref="B2"/>
       <selection pane="bottomLeft" activeCell="B2" sqref="B2"/>
-      <selection pane="bottomRight"/>
+      <selection pane="bottomRight" activeCell="I26" sqref="I26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="1.625" defaultRowHeight="13.5"/>
@@ -2982,38 +2946,38 @@
   <sheetData>
     <row r="1" spans="1:11" ht="25.5">
       <c r="A1" s="28" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="5.0999999999999996" customHeight="1"/>
     <row r="3" spans="1:11" ht="17.25">
       <c r="B3" s="15" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
     </row>
     <row r="5" spans="1:11">
-      <c r="B5" s="38" t="s">
+      <c r="B5" s="39" t="s">
         <v>0</v>
       </c>
-      <c r="C5" s="40" t="s">
-        <v>181</v>
-      </c>
-      <c r="D5" s="41"/>
-      <c r="E5" s="41"/>
-      <c r="F5" s="41"/>
-      <c r="G5" s="41"/>
-      <c r="H5" s="42"/>
-      <c r="I5" s="38" t="s">
-        <v>146</v>
-      </c>
-      <c r="J5" s="38" t="s">
-        <v>147</v>
+      <c r="C5" s="41" t="s">
+        <v>176</v>
+      </c>
+      <c r="D5" s="42"/>
+      <c r="E5" s="42"/>
+      <c r="F5" s="42"/>
+      <c r="G5" s="42"/>
+      <c r="H5" s="43"/>
+      <c r="I5" s="39" t="s">
+        <v>141</v>
+      </c>
+      <c r="J5" s="39" t="s">
+        <v>142</v>
       </c>
     </row>
     <row r="6" spans="1:11">
-      <c r="B6" s="39"/>
+      <c r="B6" s="40"/>
       <c r="C6" s="14" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="D6" s="14" t="s">
         <v>1</v>
@@ -3028,10 +2992,10 @@
         <v>4</v>
       </c>
       <c r="H6" s="14" t="s">
-        <v>91</v>
-      </c>
-      <c r="I6" s="39"/>
-      <c r="J6" s="39"/>
+        <v>89</v>
+      </c>
+      <c r="I6" s="40"/>
+      <c r="J6" s="40"/>
     </row>
     <row r="7" spans="1:11" ht="67.5" customHeight="1">
       <c r="B7" s="31">
@@ -3040,16 +3004,16 @@
       <c r="C7" s="32"/>
       <c r="D7" s="32"/>
       <c r="E7" s="32" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="F7" s="32"/>
       <c r="G7" s="32"/>
       <c r="H7" s="32"/>
       <c r="I7" s="33" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="J7" s="16" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
     </row>
     <row r="8" spans="1:11" ht="67.5" customHeight="1">
@@ -3057,7 +3021,7 @@
         <v>2</v>
       </c>
       <c r="C8" s="32" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D8" s="32"/>
       <c r="E8" s="32"/>
@@ -3065,10 +3029,10 @@
       <c r="G8" s="32"/>
       <c r="H8" s="32"/>
       <c r="I8" s="33" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="J8" s="16" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
     </row>
     <row r="9" spans="1:11" ht="67.5" customHeight="1">
@@ -3076,24 +3040,24 @@
         <v>3</v>
       </c>
       <c r="C9" s="32" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D9" s="32" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="E9" s="32"/>
       <c r="F9" s="32"/>
       <c r="G9" s="32" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="H9" s="32" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I9" s="33" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="J9" s="16" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
     </row>
     <row r="10" spans="1:11" ht="67.5" customHeight="1">
@@ -3101,28 +3065,28 @@
         <v>4</v>
       </c>
       <c r="C10" s="34" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D10" s="32" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="E10" s="32" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="F10" s="32" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="G10" s="32" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="H10" s="32" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I10" s="33" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="J10" s="16" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
     </row>
     <row r="11" spans="1:11" ht="67.5" customHeight="1">
@@ -3130,28 +3094,28 @@
         <v>5</v>
       </c>
       <c r="C11" s="34" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D11" s="32" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="E11" s="32" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="F11" s="32" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="G11" s="32" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="H11" s="32" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I11" s="33" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="J11" s="16" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
     </row>
     <row r="12" spans="1:11" ht="67.5" customHeight="1">
@@ -3159,7 +3123,7 @@
         <v>6</v>
       </c>
       <c r="C12" s="34" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D12" s="32"/>
       <c r="E12" s="32"/>
@@ -3167,10 +3131,10 @@
       <c r="G12" s="32"/>
       <c r="H12" s="32"/>
       <c r="I12" s="33" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="J12" s="16" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
     </row>
     <row r="13" spans="1:11" ht="110.1" customHeight="1">
@@ -3179,19 +3143,19 @@
       </c>
       <c r="C13" s="34"/>
       <c r="D13" s="32" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="E13" s="32"/>
       <c r="F13" s="32"/>
       <c r="G13" s="32"/>
       <c r="H13" s="32" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I13" s="33" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="J13" s="16" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
     </row>
     <row r="14" spans="1:11" ht="67.5" customHeight="1">
@@ -3199,7 +3163,7 @@
         <v>8</v>
       </c>
       <c r="C14" s="34" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D14" s="32"/>
       <c r="E14" s="32"/>
@@ -3207,10 +3171,10 @@
       <c r="G14" s="32"/>
       <c r="H14" s="32"/>
       <c r="I14" s="33" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="J14" s="16" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="K14" s="4"/>
     </row>
@@ -3219,24 +3183,24 @@
         <v>9</v>
       </c>
       <c r="C15" s="34" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D15" s="32" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="E15" s="32"/>
       <c r="F15" s="32"/>
       <c r="G15" s="32" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="H15" s="32" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I15" s="33" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="J15" s="16" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
     </row>
     <row r="16" spans="1:11" ht="67.5" customHeight="1">
@@ -3244,28 +3208,28 @@
         <v>10</v>
       </c>
       <c r="C16" s="34" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D16" s="32" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="E16" s="32" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="F16" s="32" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="G16" s="32" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="H16" s="32" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I16" s="33" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="J16" s="16" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
     </row>
     <row r="17" spans="2:11" ht="67.5" customHeight="1">
@@ -3273,28 +3237,28 @@
         <v>11</v>
       </c>
       <c r="C17" s="34" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D17" s="32" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="E17" s="32" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="F17" s="32" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="G17" s="32" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="H17" s="32" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I17" s="33" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="J17" s="17" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="K17" s="4"/>
     </row>
@@ -3303,28 +3267,28 @@
         <v>12</v>
       </c>
       <c r="C18" s="34" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D18" s="32" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="E18" s="32" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="F18" s="32" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="G18" s="32" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="H18" s="32" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I18" s="33" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="J18" s="17" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
     </row>
     <row r="19" spans="2:11" ht="67.5" customHeight="1">
@@ -3332,28 +3296,28 @@
         <v>13</v>
       </c>
       <c r="C19" s="34" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D19" s="32" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="E19" s="32" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="F19" s="32" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="G19" s="32" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="H19" s="32" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I19" s="33" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="J19" s="26" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="K19" s="4"/>
     </row>
@@ -3362,22 +3326,22 @@
         <v>14</v>
       </c>
       <c r="C20" s="34" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D20" s="32" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="E20" s="32"/>
       <c r="F20" s="32"/>
       <c r="G20" s="32"/>
       <c r="H20" s="32" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I20" s="33" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="J20" s="26" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
     </row>
     <row r="21" spans="2:11" ht="54">
@@ -3386,17 +3350,17 @@
       </c>
       <c r="C21" s="34"/>
       <c r="D21" s="32" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="E21" s="32"/>
       <c r="F21" s="32"/>
       <c r="G21" s="32"/>
       <c r="H21" s="32"/>
       <c r="I21" s="33" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="J21" s="26" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
     </row>
     <row r="22" spans="2:11" ht="67.5" customHeight="1">
@@ -3405,17 +3369,17 @@
       </c>
       <c r="C22" s="34"/>
       <c r="D22" s="32" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="E22" s="32"/>
       <c r="F22" s="32"/>
       <c r="G22" s="32"/>
       <c r="H22" s="32"/>
       <c r="I22" s="33" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="J22" s="26" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
     </row>
     <row r="23" spans="2:11" ht="54">
@@ -3424,17 +3388,17 @@
       </c>
       <c r="C23" s="34"/>
       <c r="D23" s="32" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="E23" s="32"/>
       <c r="F23" s="32"/>
       <c r="G23" s="32"/>
       <c r="H23" s="32"/>
       <c r="I23" s="33" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="J23" s="35" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
     </row>
     <row r="24" spans="2:11" ht="54">
@@ -3442,7 +3406,7 @@
         <v>18</v>
       </c>
       <c r="C24" s="34" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D24" s="32"/>
       <c r="E24" s="32"/>
@@ -3450,10 +3414,10 @@
       <c r="G24" s="32"/>
       <c r="H24" s="32"/>
       <c r="I24" s="33" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="J24" s="26" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
     </row>
     <row r="25" spans="2:11" ht="18.75">
@@ -3461,7 +3425,7 @@
         <v>19</v>
       </c>
       <c r="C25" s="34" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="D25" s="32"/>
       <c r="E25" s="32"/>
@@ -3469,10 +3433,10 @@
       <c r="G25" s="32"/>
       <c r="H25" s="32"/>
       <c r="I25" s="33" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="J25" s="26" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
     </row>
     <row r="26" spans="2:11" ht="27">
@@ -3480,7 +3444,7 @@
         <v>20</v>
       </c>
       <c r="C26" s="34" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D26" s="32"/>
       <c r="E26" s="32"/>
@@ -3488,10 +3452,10 @@
       <c r="G26" s="32"/>
       <c r="H26" s="32"/>
       <c r="I26" s="33" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="J26" s="26" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
     </row>
     <row r="27" spans="2:11" ht="27">
@@ -3499,33 +3463,38 @@
         <v>21</v>
       </c>
       <c r="C27" s="34" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D27" s="32" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="E27" s="32" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="F27" s="32" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="G27" s="32" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="H27" s="32" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I27" s="33" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="J27" s="26" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
     </row>
     <row r="28" spans="2:11">
       <c r="J28" t="s">
-        <v>209</v>
+        <v>212</v>
+      </c>
+    </row>
+    <row r="29" spans="2:11">
+      <c r="J29" s="37" t="s">
+        <v>213</v>
       </c>
     </row>
   </sheetData>

--- a/asset/Documents/Exastro-ITA_[Reference]Configuration_settings_during_installation.xlsx
+++ b/asset/Documents/Exastro-ITA_[Reference]Configuration_settings_during_installation.xlsx
@@ -14,13 +14,13 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'1. MariaDB(server.cnf)'!$B$8:$F$20</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'2. PHP(php.ini)'!$B$8:$F$33</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'2. PHP(php.ini)'!$B$8:$F$31</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'3. ansible.cfg'!$B$5:$F$27</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'4. ITA setting file description'!$B$6:$K$6</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">'1. MariaDB(server.cnf)'!$A$2:$F$22</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="1">'2. PHP(php.ini)'!$A$2:$F$33</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="1">'2. PHP(php.ini)'!$A$2:$F$32</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="2">'3. ansible.cfg'!$A$2:$F$30</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="3">'4. ITA setting file description'!$A$1:$J$32</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="3">'4. ITA setting file description'!$A$1:$J$30</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="400" uniqueCount="218">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="391" uniqueCount="214">
   <si>
     <t>№</t>
     <phoneticPr fontId="1"/>
@@ -131,9 +131,6 @@
     <t>#action_plugins     = /usr/share/ansible/plugins/action</t>
   </si>
   <si>
-    <t>timeout = 10</t>
-  </si>
-  <si>
     <t>#timeout = 10</t>
   </si>
   <si>
@@ -187,10 +184,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>;openssl.capath=</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>mbstring.substitute_character = none</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -382,10 +375,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>;openssl.cafile=</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>max_input_time = 600</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -416,12 +405,6 @@
   <si>
     <t>#ssh_args = -C -o ControlMaster=auto -o ControlPersist=60s</t>
     <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>openssl.cafile=/etc/pki/tls/certs/exastro-it-automation-ja.crt</t>
-  </si>
-  <si>
-    <t>openssl.capath=/etc/pki/tls/certs/exastro-it-automation-ja.crt</t>
   </si>
   <si>
     <t>query_cache_type=1</t>
@@ -639,11 +622,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>Describe the path of Spyc. 
-This sample describes "/usr/share/php/spyc-master"</t>
-    <phoneticPr fontId="6"/>
-  </si>
-  <si>
     <t>Describe the path of HTML_AJAX.
 Example: /usr/share/pear/</t>
     <phoneticPr fontId="6"/>
@@ -655,14 +633,6 @@
     <phoneticPr fontId="6"/>
   </si>
   <si>
-    <t>Used when the protocol of client →server is unknown, such as using HTTPS termination before ITA, etc.
-In the case that the file exists and the protocol(HTTP/HTTPS) is described  
-⇒ The protocol (HTTP/HTTPS) described in the file is adopted.
-In the case that the file doesn't exist or the file size is zero byte 
-⇒ Determine HTTP/HTTPS from the environment variable($_SERVER)</t>
-    <phoneticPr fontId="6"/>
-  </si>
-  <si>
     <t>The password to connect to MySQL.
 Example: The string encrypted from "ITA_PASSWD"
 Refer to ※1 for the encryption specification</t>
@@ -792,9 +762,6 @@
     <t>(ITA installed directory)/ita-root/confs/commonconfs/path_ANSIBLE_MODULE.txt</t>
   </si>
   <si>
-    <t>(ITA installed directory)/ita-root/confs/commonconfs/path_PHPSpyc_Classes.txt</t>
-  </si>
-  <si>
     <t>(ITA installed directory)/ita-root/confs/restapiconfs/ansible_driver/accesskey.txt</t>
   </si>
   <si>
@@ -808,9 +775,6 @@
   </si>
   <si>
     <t>(ITA installed directory)/ita-root/confs/webconfs/ExternalAuthSettings.ini</t>
-  </si>
-  <si>
-    <t>(ITA installed directory)/ita-root/confs/webconfs/L7Protocol.txt</t>
   </si>
   <si>
     <t>(ITA installed directory)/ita-root/confs/webconfs/path_HTML_AJAX.txt</t>
@@ -865,9 +829,6 @@
 This sample describes "/usr/local/bin"</t>
   </si>
   <si>
-    <t>※1 The value encoded by base64 then converted by rot13</t>
-  </si>
-  <si>
     <t>Describe the path of Phpspreadsheet.
 This sample: "/usr/share/php"</t>
   </si>
@@ -881,6 +842,30 @@
   </si>
   <si>
     <t>ssh_args = -o ControlMaster=auto -o ControlPersist=60s -o StrictHostKeyChecking=no -o UserKnownHostsFile=/dev/null</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>none</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>extension=yaml.so</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>※Add</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>timeout = 60</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>※1 The value encoded by base64 then converted by rot13. Create it with the following command.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>echo -ne "(String to convert)" | base64 | tr '[A-Za-z]' '[N-ZA-Mn-za-m]'</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1121,7 +1106,7 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1228,6 +1213,12 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1541,11 +1532,11 @@
   <dimension ref="A1:I94"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScaleNormal="70" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="8" topLeftCell="C9" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="8" topLeftCell="C21" activePane="bottomRight" state="frozen"/>
       <selection activeCell="B2" sqref="B2"/>
       <selection pane="topRight" activeCell="B2" sqref="B2"/>
       <selection pane="bottomLeft" activeCell="B2" sqref="B2"/>
-      <selection pane="bottomRight" activeCell="E24" sqref="E24"/>
+      <selection pane="bottomRight" activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="1.625" defaultRowHeight="13.5"/>
@@ -1560,22 +1551,22 @@
     <row r="1" spans="1:6" ht="3" customHeight="1"/>
     <row r="2" spans="1:6" ht="45.95" customHeight="1">
       <c r="A2" s="28" t="s">
-        <v>174</v>
+        <v>167</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="17.25">
       <c r="B3" s="15" t="s">
-        <v>175</v>
+        <v>168</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="17.25">
       <c r="B5" s="29" t="s">
-        <v>176</v>
+        <v>169</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="17.25">
       <c r="B6" s="15" t="s">
-        <v>177</v>
+        <v>170</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="6" customHeight="1">
@@ -1586,16 +1577,16 @@
         <v>5</v>
       </c>
       <c r="C8" s="23" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="D8" s="14" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="E8" s="14" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="F8" s="14" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="30" customHeight="1">
@@ -1603,13 +1594,13 @@
         <v>1</v>
       </c>
       <c r="C9" s="20" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="D9" s="12" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="E9" s="13" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="F9" s="2"/>
     </row>
@@ -1618,13 +1609,13 @@
         <v>2</v>
       </c>
       <c r="C10" s="20" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="D10" s="12" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="E10" s="21" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="F10" s="2"/>
     </row>
@@ -1633,16 +1624,16 @@
         <v>4</v>
       </c>
       <c r="C11" s="20" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="D11" s="12" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="E11" s="11" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="30" customHeight="1">
@@ -1650,16 +1641,16 @@
         <v>3</v>
       </c>
       <c r="C12" s="22" t="s">
+        <v>116</v>
+      </c>
+      <c r="D12" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="E12" s="6" t="s">
+        <v>166</v>
+      </c>
+      <c r="F12" s="5" t="s">
         <v>121</v>
-      </c>
-      <c r="D12" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="E12" s="6" t="s">
-        <v>173</v>
-      </c>
-      <c r="F12" s="5" t="s">
-        <v>126</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="30" customHeight="1">
@@ -1667,16 +1658,16 @@
         <v>5</v>
       </c>
       <c r="C13" s="22" t="s">
+        <v>116</v>
+      </c>
+      <c r="D13" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="E13" s="6" t="s">
+        <v>165</v>
+      </c>
+      <c r="F13" s="5" t="s">
         <v>121</v>
-      </c>
-      <c r="D13" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="E13" s="6" t="s">
-        <v>172</v>
-      </c>
-      <c r="F13" s="5" t="s">
-        <v>126</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="30" customHeight="1">
@@ -1684,16 +1675,16 @@
         <v>6</v>
       </c>
       <c r="C14" s="22" t="s">
+        <v>116</v>
+      </c>
+      <c r="D14" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="E14" s="6" t="s">
+        <v>164</v>
+      </c>
+      <c r="F14" s="5" t="s">
         <v>121</v>
-      </c>
-      <c r="D14" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="E14" s="6" t="s">
-        <v>171</v>
-      </c>
-      <c r="F14" s="5" t="s">
-        <v>126</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="30" customHeight="1">
@@ -1701,16 +1692,16 @@
         <v>7</v>
       </c>
       <c r="C15" s="22" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="D15" s="7">
         <v>0</v>
       </c>
       <c r="E15" s="10" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="F15" s="5" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="30" customHeight="1">
@@ -1718,16 +1709,16 @@
         <v>8</v>
       </c>
       <c r="C16" s="22" t="s">
+        <v>116</v>
+      </c>
+      <c r="D16" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="E16" s="6" t="s">
+        <v>163</v>
+      </c>
+      <c r="F16" s="5" t="s">
         <v>121</v>
-      </c>
-      <c r="D16" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="E16" s="6" t="s">
-        <v>170</v>
-      </c>
-      <c r="F16" s="5" t="s">
-        <v>126</v>
       </c>
     </row>
     <row r="17" spans="2:6" ht="30" customHeight="1">
@@ -1735,16 +1726,16 @@
         <v>9</v>
       </c>
       <c r="C17" s="22" t="s">
+        <v>116</v>
+      </c>
+      <c r="D17" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="E17" s="10" t="s">
+        <v>162</v>
+      </c>
+      <c r="F17" s="5" t="s">
         <v>121</v>
-      </c>
-      <c r="D17" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="E17" s="10" t="s">
-        <v>169</v>
-      </c>
-      <c r="F17" s="5" t="s">
-        <v>126</v>
       </c>
     </row>
     <row r="18" spans="2:6" ht="30" customHeight="1">
@@ -1752,13 +1743,13 @@
         <v>10</v>
       </c>
       <c r="C18" s="22" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="D18" s="7" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="E18" s="10" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="F18" s="9"/>
     </row>
@@ -1767,16 +1758,16 @@
         <v>11</v>
       </c>
       <c r="C19" s="22" t="s">
+        <v>116</v>
+      </c>
+      <c r="D19" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="E19" s="6" t="s">
+        <v>161</v>
+      </c>
+      <c r="F19" s="5" t="s">
         <v>121</v>
-      </c>
-      <c r="D19" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="E19" s="6" t="s">
-        <v>168</v>
-      </c>
-      <c r="F19" s="5" t="s">
-        <v>126</v>
       </c>
     </row>
     <row r="20" spans="2:6" ht="30" customHeight="1">
@@ -1784,16 +1775,16 @@
         <v>12</v>
       </c>
       <c r="C20" s="22" t="s">
+        <v>116</v>
+      </c>
+      <c r="D20" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="E20" s="6" t="s">
+        <v>160</v>
+      </c>
+      <c r="F20" s="5" t="s">
         <v>121</v>
-      </c>
-      <c r="D20" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="E20" s="6" t="s">
-        <v>167</v>
-      </c>
-      <c r="F20" s="5" t="s">
-        <v>126</v>
       </c>
     </row>
     <row r="21" spans="2:6" ht="30" customHeight="1">
@@ -1801,16 +1792,16 @@
         <v>13</v>
       </c>
       <c r="C21" s="22" t="s">
+        <v>116</v>
+      </c>
+      <c r="D21" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="E21" s="6" t="s">
+        <v>159</v>
+      </c>
+      <c r="F21" s="5" t="s">
         <v>121</v>
-      </c>
-      <c r="D21" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="E21" s="6" t="s">
-        <v>166</v>
-      </c>
-      <c r="F21" s="5" t="s">
-        <v>126</v>
       </c>
     </row>
     <row r="22" spans="2:6">
@@ -1818,16 +1809,16 @@
         <v>14</v>
       </c>
       <c r="C22" s="22" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="D22" s="7">
         <v>151</v>
       </c>
       <c r="E22" s="6" t="s">
-        <v>165</v>
+        <v>158</v>
       </c>
       <c r="F22" s="5" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
     </row>
     <row r="35" spans="8:9">
@@ -1902,14 +1893,14 @@
     <tabColor rgb="FFCC9900"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H35"/>
+  <dimension ref="A1:H33"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScaleNormal="70" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="8" topLeftCell="C27" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="8" topLeftCell="C9" activePane="bottomRight" state="frozen"/>
       <selection activeCell="B2" sqref="B2"/>
       <selection pane="topRight" activeCell="B2" sqref="B2"/>
       <selection pane="bottomLeft" activeCell="B2" sqref="B2"/>
-      <selection pane="bottomRight" activeCell="E29" sqref="E29"/>
+      <selection pane="bottomRight" activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="1.625" defaultRowHeight="13.5"/>
@@ -1924,24 +1915,24 @@
     <row r="1" spans="1:6" ht="3" customHeight="1"/>
     <row r="2" spans="1:6" ht="25.5">
       <c r="A2" s="28" t="s">
-        <v>174</v>
+        <v>167</v>
       </c>
       <c r="B2" s="15"/>
     </row>
     <row r="3" spans="1:6" ht="36.950000000000003" customHeight="1">
       <c r="B3" s="30" t="s">
-        <v>178</v>
+        <v>171</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="11.1" customHeight="1"/>
     <row r="5" spans="1:6" ht="18.95" customHeight="1">
       <c r="B5" s="29" t="s">
-        <v>176</v>
+        <v>169</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="21" customHeight="1">
       <c r="B6" s="15" t="s">
-        <v>177</v>
+        <v>170</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="5.0999999999999996" customHeight="1"/>
@@ -1950,16 +1941,16 @@
         <v>5</v>
       </c>
       <c r="C8" s="23" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="D8" s="14" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="E8" s="14" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="F8" s="14" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="45" customHeight="1">
@@ -1967,16 +1958,16 @@
         <v>1</v>
       </c>
       <c r="C9" s="22" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="45" customHeight="1">
@@ -1984,16 +1975,16 @@
         <v>2</v>
       </c>
       <c r="C10" s="22" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="E10" s="6" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="45" customHeight="1">
@@ -2001,16 +1992,16 @@
         <v>3</v>
       </c>
       <c r="C11" s="22" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="E11" s="6" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="F11" s="5" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="45" customHeight="1">
@@ -2018,16 +2009,16 @@
         <v>4</v>
       </c>
       <c r="C12" s="22" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="E12" s="6" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="F12" s="5" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="45" customHeight="1">
@@ -2035,16 +2026,16 @@
         <v>5</v>
       </c>
       <c r="C13" s="22" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="E13" s="6" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="F13" s="5" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="45" customHeight="1">
@@ -2052,16 +2043,16 @@
         <v>6</v>
       </c>
       <c r="C14" s="22" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="E14" s="6" t="s">
-        <v>179</v>
+        <v>172</v>
       </c>
       <c r="F14" s="5" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="45" customHeight="1">
@@ -2069,16 +2060,16 @@
         <v>7</v>
       </c>
       <c r="C15" s="22" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="E15" s="6" t="s">
-        <v>180</v>
+        <v>173</v>
       </c>
       <c r="F15" s="5" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="45" customHeight="1">
@@ -2086,16 +2077,16 @@
         <v>8</v>
       </c>
       <c r="C16" s="24" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="E16" s="6" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="F16" s="5" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
     </row>
     <row r="17" spans="2:8" ht="45" customHeight="1">
@@ -2103,13 +2094,13 @@
         <v>9</v>
       </c>
       <c r="C17" s="19" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="D17" s="13" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="E17" s="13" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="F17" s="1"/>
     </row>
@@ -2118,16 +2109,16 @@
         <v>10</v>
       </c>
       <c r="C18" s="24" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E18" s="6" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="F18" s="5" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
     </row>
     <row r="19" spans="2:8" ht="45" customHeight="1">
@@ -2135,16 +2126,16 @@
         <v>11</v>
       </c>
       <c r="C19" s="19" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="D19" s="13" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="E19" s="13" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="H19" s="4"/>
     </row>
@@ -2153,16 +2144,16 @@
         <v>12</v>
       </c>
       <c r="C20" s="22" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="D20" s="6" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="E20" s="6" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="F20" s="5" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
     </row>
     <row r="21" spans="2:8" ht="45" customHeight="1">
@@ -2170,16 +2161,16 @@
         <v>13</v>
       </c>
       <c r="C21" s="24" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="D21" s="6" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="E21" s="6" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="F21" s="5" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
     </row>
     <row r="22" spans="2:8" ht="45" customHeight="1">
@@ -2187,16 +2178,16 @@
         <v>14</v>
       </c>
       <c r="C22" s="19" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="D22" s="13" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="E22" s="13" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
     </row>
     <row r="23" spans="2:8" ht="45" customHeight="1">
@@ -2204,16 +2195,16 @@
         <v>15</v>
       </c>
       <c r="C23" s="19" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="D23" s="13" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="E23" s="13" t="s">
-        <v>88</v>
-      </c>
-      <c r="F23" s="36" t="s">
-        <v>145</v>
+        <v>86</v>
+      </c>
+      <c r="F23" s="38" t="s">
+        <v>140</v>
       </c>
     </row>
     <row r="24" spans="2:8" ht="45" customHeight="1">
@@ -2221,31 +2212,31 @@
         <v>16</v>
       </c>
       <c r="C24" s="19" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="D24" s="13" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="E24" s="13" t="s">
-        <v>90</v>
-      </c>
-      <c r="F24" s="36"/>
+        <v>88</v>
+      </c>
+      <c r="F24" s="38"/>
     </row>
     <row r="25" spans="2:8" ht="45" customHeight="1">
       <c r="B25" s="8">
         <v>17</v>
       </c>
       <c r="C25" s="19" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="D25" s="13" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="E25" s="13" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="F25" s="25" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
     </row>
     <row r="26" spans="2:8" ht="45" customHeight="1">
@@ -2253,16 +2244,16 @@
         <v>18</v>
       </c>
       <c r="C26" s="19" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="D26" s="13" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="E26" s="13" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F26" s="25" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="H26" s="4"/>
     </row>
@@ -2271,16 +2262,16 @@
         <v>19</v>
       </c>
       <c r="C27" s="19" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="D27" s="13" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E27" s="13" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="F27" s="25" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="H27" s="4"/>
     </row>
@@ -2289,16 +2280,16 @@
         <v>20</v>
       </c>
       <c r="C28" s="19" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="D28" s="13" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="E28" s="13" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F28" s="25" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
     </row>
     <row r="29" spans="2:8" ht="45" customHeight="1">
@@ -2306,16 +2297,16 @@
         <v>21</v>
       </c>
       <c r="C29" s="19" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="D29" s="13" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="E29" s="13" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="F29" s="25" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
     </row>
     <row r="30" spans="2:8" ht="45" customHeight="1">
@@ -2323,16 +2314,16 @@
         <v>22</v>
       </c>
       <c r="C30" s="19" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="D30" s="13" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="E30" s="13" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F30" s="25" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
     </row>
     <row r="31" spans="2:8" ht="45" customHeight="1">
@@ -2340,16 +2331,16 @@
         <v>23</v>
       </c>
       <c r="C31" s="19" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="D31" s="13" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="E31" s="13" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F31" s="25" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
     </row>
     <row r="32" spans="2:8" ht="45" customHeight="1">
@@ -2357,36 +2348,22 @@
         <v>24</v>
       </c>
       <c r="C32" s="19" t="s">
-        <v>128</v>
+        <v>114</v>
       </c>
       <c r="D32" s="13" t="s">
-        <v>96</v>
+        <v>208</v>
       </c>
       <c r="E32" s="13" t="s">
-        <v>105</v>
-      </c>
-      <c r="F32" s="36"/>
-    </row>
-    <row r="33" spans="2:6" ht="45" customHeight="1">
-      <c r="B33" s="8">
-        <v>25</v>
-      </c>
-      <c r="C33" s="19" t="s">
-        <v>128</v>
-      </c>
-      <c r="D33" s="13" t="s">
-        <v>47</v>
-      </c>
-      <c r="E33" s="13" t="s">
-        <v>106</v>
-      </c>
-      <c r="F33" s="36"/>
-    </row>
-    <row r="35" spans="2:6" ht="45" customHeight="1"/>
+        <v>209</v>
+      </c>
+      <c r="F32" s="36" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="33" ht="45" customHeight="1"/>
   </sheetData>
-  <autoFilter ref="B8:F33"/>
-  <mergeCells count="2">
-    <mergeCell ref="F32:F33"/>
+  <autoFilter ref="B8:F31"/>
+  <mergeCells count="1">
     <mergeCell ref="F23:F24"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
@@ -2404,11 +2381,11 @@
   <dimension ref="A1:I97"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="115" zoomScaleNormal="70" zoomScaleSheetLayoutView="130" workbookViewId="0">
-      <pane xSplit="2" ySplit="5" topLeftCell="C21" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="5" topLeftCell="E15" activePane="bottomRight" state="frozen"/>
       <selection activeCell="B2" sqref="B2"/>
       <selection pane="topRight" activeCell="B2" sqref="B2"/>
       <selection pane="bottomLeft" activeCell="B2" sqref="B2"/>
-      <selection pane="bottomRight" activeCell="E26" sqref="E26"/>
+      <selection pane="bottomRight" activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="1.625" defaultRowHeight="13.5"/>
@@ -2423,12 +2400,12 @@
     <row r="1" spans="1:8" ht="3" customHeight="1"/>
     <row r="2" spans="1:8" ht="25.5">
       <c r="A2" s="28" t="s">
-        <v>174</v>
+        <v>167</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="17.25">
       <c r="B3" s="15" t="s">
-        <v>181</v>
+        <v>174</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="3" customHeight="1"/>
@@ -2437,16 +2414,16 @@
         <v>5</v>
       </c>
       <c r="C5" s="23" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="D5" s="14" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="E5" s="14" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="F5" s="14" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="30" customHeight="1">
@@ -2454,16 +2431,16 @@
         <v>1</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="D6" s="13" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E6" s="13" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F6" s="27" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="30" customHeight="1">
@@ -2471,16 +2448,16 @@
         <v>2</v>
       </c>
       <c r="C7" s="19" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="D7" s="13" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="E7" s="13" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="F7" s="27" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="30" customHeight="1">
@@ -2488,16 +2465,16 @@
         <v>3</v>
       </c>
       <c r="C8" s="19" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="D8" s="13" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E8" s="13" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F8" s="27" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="30" customHeight="1">
@@ -2505,16 +2482,16 @@
         <v>4</v>
       </c>
       <c r="C9" s="19" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="D9" s="13" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E9" s="13" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F9" s="27" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="30" customHeight="1">
@@ -2522,16 +2499,16 @@
         <v>5</v>
       </c>
       <c r="C10" s="19" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="D10" s="13" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E10" s="13" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F10" s="27" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="30" customHeight="1">
@@ -2539,16 +2516,16 @@
         <v>6</v>
       </c>
       <c r="C11" s="19" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="D11" s="13" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E11" s="13" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F11" s="27" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="H11" s="4"/>
     </row>
@@ -2557,16 +2534,16 @@
         <v>7</v>
       </c>
       <c r="C12" s="19" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="D12" s="13" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E12" s="13" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F12" s="27" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="30" customHeight="1">
@@ -2574,16 +2551,16 @@
         <v>8</v>
       </c>
       <c r="C13" s="19" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="D13" s="13" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E13" s="13" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F13" s="27" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="30" customHeight="1">
@@ -2591,16 +2568,16 @@
         <v>9</v>
       </c>
       <c r="C14" s="19" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="D14" s="13" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="E14" s="13" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="F14" s="27" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="30" customHeight="1">
@@ -2608,16 +2585,16 @@
         <v>10</v>
       </c>
       <c r="C15" s="19" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="D15" s="13" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E15" s="13" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F15" s="27" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="H15" s="4"/>
     </row>
@@ -2626,16 +2603,16 @@
         <v>11</v>
       </c>
       <c r="C16" s="19" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="D16" s="13" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E16" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="F16" s="27" t="s">
-        <v>131</v>
+        <v>211</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>157</v>
       </c>
       <c r="H16" s="4"/>
     </row>
@@ -2644,16 +2621,16 @@
         <v>12</v>
       </c>
       <c r="C17" s="19" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="D17" s="13" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="E17" s="13" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="F17" s="27" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
     </row>
     <row r="18" spans="2:6" ht="30" customHeight="1">
@@ -2661,16 +2638,16 @@
         <v>13</v>
       </c>
       <c r="C18" s="19" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="D18" s="13" t="s">
         <v>6</v>
       </c>
       <c r="E18" s="13" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
     </row>
     <row r="19" spans="2:6" ht="30" customHeight="1">
@@ -2678,7 +2655,7 @@
         <v>14</v>
       </c>
       <c r="C19" s="19" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="D19" s="13" t="s">
         <v>28</v>
@@ -2687,7 +2664,7 @@
         <v>27</v>
       </c>
       <c r="F19" s="27" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
     </row>
     <row r="20" spans="2:6" ht="30" customHeight="1">
@@ -2695,7 +2672,7 @@
         <v>15</v>
       </c>
       <c r="C20" s="19" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="D20" s="13" t="s">
         <v>26</v>
@@ -2704,7 +2681,7 @@
         <v>25</v>
       </c>
       <c r="F20" s="27" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
     </row>
     <row r="21" spans="2:6" ht="30" customHeight="1">
@@ -2712,7 +2689,7 @@
         <v>16</v>
       </c>
       <c r="C21" s="19" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="D21" s="13" t="s">
         <v>24</v>
@@ -2721,7 +2698,7 @@
         <v>23</v>
       </c>
       <c r="F21" s="27" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
     </row>
     <row r="22" spans="2:6" ht="30" customHeight="1">
@@ -2729,7 +2706,7 @@
         <v>17</v>
       </c>
       <c r="C22" s="19" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="D22" s="13" t="s">
         <v>22</v>
@@ -2738,7 +2715,7 @@
         <v>21</v>
       </c>
       <c r="F22" s="27" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
     </row>
     <row r="23" spans="2:6" ht="30" customHeight="1">
@@ -2746,7 +2723,7 @@
         <v>18</v>
       </c>
       <c r="C23" s="19" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="D23" s="13" t="s">
         <v>20</v>
@@ -2755,7 +2732,7 @@
         <v>19</v>
       </c>
       <c r="F23" s="27" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
     </row>
     <row r="24" spans="2:6" ht="30" customHeight="1">
@@ -2763,7 +2740,7 @@
         <v>19</v>
       </c>
       <c r="C24" s="19" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="D24" s="13" t="s">
         <v>18</v>
@@ -2772,7 +2749,7 @@
         <v>17</v>
       </c>
       <c r="F24" s="27" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
     </row>
     <row r="25" spans="2:6" ht="30" customHeight="1">
@@ -2780,7 +2757,7 @@
         <v>20</v>
       </c>
       <c r="C25" s="19" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="D25" s="13" t="s">
         <v>16</v>
@@ -2789,7 +2766,7 @@
         <v>15</v>
       </c>
       <c r="F25" s="27" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
     </row>
     <row r="26" spans="2:6" ht="30" customHeight="1">
@@ -2797,16 +2774,16 @@
         <v>21</v>
       </c>
       <c r="C26" s="19" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="D26" s="13" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="E26" s="13" t="s">
-        <v>217</v>
+        <v>207</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
     </row>
     <row r="27" spans="2:6" ht="30" customHeight="1">
@@ -2814,7 +2791,7 @@
         <v>22</v>
       </c>
       <c r="C27" s="19" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="D27" s="13" t="s">
         <v>14</v>
@@ -2823,7 +2800,7 @@
         <v>13</v>
       </c>
       <c r="F27" s="27" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
     </row>
     <row r="28" spans="2:6" ht="30" customHeight="1">
@@ -2831,7 +2808,7 @@
         <v>23</v>
       </c>
       <c r="C28" s="19" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="D28" s="13" t="s">
         <v>12</v>
@@ -2840,7 +2817,7 @@
         <v>11</v>
       </c>
       <c r="F28" s="27" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
     </row>
     <row r="29" spans="2:6" ht="30" customHeight="1">
@@ -2848,7 +2825,7 @@
         <v>24</v>
       </c>
       <c r="C29" s="19" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="D29" s="13" t="s">
         <v>10</v>
@@ -2857,7 +2834,7 @@
         <v>9</v>
       </c>
       <c r="F29" s="27" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
     </row>
     <row r="30" spans="2:6" ht="30" customHeight="1">
@@ -2865,7 +2842,7 @@
         <v>25</v>
       </c>
       <c r="C30" s="19" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="D30" s="13" t="s">
         <v>8</v>
@@ -2874,7 +2851,7 @@
         <v>7</v>
       </c>
       <c r="F30" s="27" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
     </row>
     <row r="38" spans="8:9">
@@ -2949,14 +2926,14 @@
     <tabColor rgb="FFCC9900"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:K30"/>
+  <dimension ref="A1:K29"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="70" workbookViewId="0">
-      <pane xSplit="2" ySplit="6" topLeftCell="J19" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="6" topLeftCell="D7" activePane="bottomRight" state="frozen"/>
       <selection activeCell="B2" sqref="B2"/>
       <selection pane="topRight" activeCell="B2" sqref="B2"/>
       <selection pane="bottomLeft" activeCell="B2" sqref="B2"/>
-      <selection pane="bottomRight" activeCell="J25" sqref="J25"/>
+      <selection pane="bottomRight" activeCell="I26" sqref="I26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="1.625" defaultRowHeight="13.5"/>
@@ -2969,38 +2946,38 @@
   <sheetData>
     <row r="1" spans="1:11" ht="25.5">
       <c r="A1" s="28" t="s">
-        <v>174</v>
+        <v>167</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="5.0999999999999996" customHeight="1"/>
     <row r="3" spans="1:11" ht="17.25">
       <c r="B3" s="15" t="s">
-        <v>182</v>
+        <v>175</v>
       </c>
     </row>
     <row r="5" spans="1:11">
-      <c r="B5" s="37" t="s">
+      <c r="B5" s="39" t="s">
         <v>0</v>
       </c>
-      <c r="C5" s="39" t="s">
-        <v>183</v>
-      </c>
-      <c r="D5" s="40"/>
-      <c r="E5" s="40"/>
-      <c r="F5" s="40"/>
-      <c r="G5" s="40"/>
-      <c r="H5" s="41"/>
-      <c r="I5" s="37" t="s">
-        <v>146</v>
-      </c>
-      <c r="J5" s="37" t="s">
-        <v>147</v>
+      <c r="C5" s="41" t="s">
+        <v>176</v>
+      </c>
+      <c r="D5" s="42"/>
+      <c r="E5" s="42"/>
+      <c r="F5" s="42"/>
+      <c r="G5" s="42"/>
+      <c r="H5" s="43"/>
+      <c r="I5" s="39" t="s">
+        <v>141</v>
+      </c>
+      <c r="J5" s="39" t="s">
+        <v>142</v>
       </c>
     </row>
     <row r="6" spans="1:11">
-      <c r="B6" s="38"/>
+      <c r="B6" s="40"/>
       <c r="C6" s="14" t="s">
-        <v>208</v>
+        <v>199</v>
       </c>
       <c r="D6" s="14" t="s">
         <v>1</v>
@@ -3015,10 +2992,10 @@
         <v>4</v>
       </c>
       <c r="H6" s="14" t="s">
-        <v>91</v>
-      </c>
-      <c r="I6" s="38"/>
-      <c r="J6" s="38"/>
+        <v>89</v>
+      </c>
+      <c r="I6" s="40"/>
+      <c r="J6" s="40"/>
     </row>
     <row r="7" spans="1:11" ht="67.5" customHeight="1">
       <c r="B7" s="31">
@@ -3027,16 +3004,16 @@
       <c r="C7" s="32"/>
       <c r="D7" s="32"/>
       <c r="E7" s="32" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="F7" s="32"/>
       <c r="G7" s="32"/>
       <c r="H7" s="32"/>
       <c r="I7" s="33" t="s">
-        <v>207</v>
+        <v>198</v>
       </c>
       <c r="J7" s="16" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
     </row>
     <row r="8" spans="1:11" ht="67.5" customHeight="1">
@@ -3044,7 +3021,7 @@
         <v>2</v>
       </c>
       <c r="C8" s="32" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D8" s="32"/>
       <c r="E8" s="32"/>
@@ -3052,10 +3029,10 @@
       <c r="G8" s="32"/>
       <c r="H8" s="32"/>
       <c r="I8" s="33" t="s">
-        <v>185</v>
+        <v>178</v>
       </c>
       <c r="J8" s="16" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
     </row>
     <row r="9" spans="1:11" ht="67.5" customHeight="1">
@@ -3063,24 +3040,24 @@
         <v>3</v>
       </c>
       <c r="C9" s="32" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D9" s="32" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="E9" s="32"/>
       <c r="F9" s="32"/>
       <c r="G9" s="32" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="H9" s="32" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I9" s="33" t="s">
-        <v>186</v>
+        <v>179</v>
       </c>
       <c r="J9" s="16" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
     </row>
     <row r="10" spans="1:11" ht="67.5" customHeight="1">
@@ -3088,28 +3065,28 @@
         <v>4</v>
       </c>
       <c r="C10" s="34" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D10" s="32" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="E10" s="32" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="F10" s="32" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="G10" s="32" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="H10" s="32" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I10" s="33" t="s">
-        <v>187</v>
+        <v>180</v>
       </c>
       <c r="J10" s="16" t="s">
-        <v>209</v>
+        <v>200</v>
       </c>
     </row>
     <row r="11" spans="1:11" ht="67.5" customHeight="1">
@@ -3117,28 +3094,28 @@
         <v>5</v>
       </c>
       <c r="C11" s="34" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D11" s="32" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="E11" s="32" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="F11" s="32" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="G11" s="32" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="H11" s="32" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I11" s="33" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="J11" s="16" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
     </row>
     <row r="12" spans="1:11" ht="67.5" customHeight="1">
@@ -3146,7 +3123,7 @@
         <v>6</v>
       </c>
       <c r="C12" s="34" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D12" s="32"/>
       <c r="E12" s="32"/>
@@ -3154,10 +3131,10 @@
       <c r="G12" s="32"/>
       <c r="H12" s="32"/>
       <c r="I12" s="33" t="s">
-        <v>189</v>
+        <v>182</v>
       </c>
       <c r="J12" s="16" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
     </row>
     <row r="13" spans="1:11" ht="110.1" customHeight="1">
@@ -3166,19 +3143,19 @@
       </c>
       <c r="C13" s="34"/>
       <c r="D13" s="32" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="E13" s="32"/>
       <c r="F13" s="32"/>
       <c r="G13" s="32"/>
       <c r="H13" s="32" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I13" s="33" t="s">
-        <v>190</v>
+        <v>183</v>
       </c>
       <c r="J13" s="16" t="s">
-        <v>210</v>
+        <v>201</v>
       </c>
     </row>
     <row r="14" spans="1:11" ht="67.5" customHeight="1">
@@ -3186,7 +3163,7 @@
         <v>8</v>
       </c>
       <c r="C14" s="34" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D14" s="32"/>
       <c r="E14" s="32"/>
@@ -3194,10 +3171,10 @@
       <c r="G14" s="32"/>
       <c r="H14" s="32"/>
       <c r="I14" s="33" t="s">
-        <v>191</v>
+        <v>184</v>
       </c>
       <c r="J14" s="16" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="K14" s="4"/>
     </row>
@@ -3206,24 +3183,24 @@
         <v>9</v>
       </c>
       <c r="C15" s="34" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D15" s="32" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="E15" s="32"/>
       <c r="F15" s="32"/>
       <c r="G15" s="32" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="H15" s="32" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I15" s="33" t="s">
-        <v>192</v>
+        <v>185</v>
       </c>
       <c r="J15" s="16" t="s">
-        <v>163</v>
+        <v>156</v>
       </c>
     </row>
     <row r="16" spans="1:11" ht="67.5" customHeight="1">
@@ -3231,28 +3208,28 @@
         <v>10</v>
       </c>
       <c r="C16" s="34" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D16" s="32" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="E16" s="32" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="F16" s="32" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="G16" s="32" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="H16" s="32" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I16" s="33" t="s">
-        <v>193</v>
+        <v>186</v>
       </c>
       <c r="J16" s="16" t="s">
-        <v>211</v>
+        <v>202</v>
       </c>
     </row>
     <row r="17" spans="2:11" ht="67.5" customHeight="1">
@@ -3260,28 +3237,28 @@
         <v>11</v>
       </c>
       <c r="C17" s="34" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D17" s="32" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="E17" s="32" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="F17" s="32" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="G17" s="32" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="H17" s="32" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I17" s="33" t="s">
-        <v>194</v>
+        <v>187</v>
       </c>
       <c r="J17" s="17" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="K17" s="4"/>
     </row>
@@ -3290,28 +3267,28 @@
         <v>12</v>
       </c>
       <c r="C18" s="34" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D18" s="32" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="E18" s="32" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="F18" s="32" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="G18" s="32" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="H18" s="32" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I18" s="33" t="s">
-        <v>195</v>
+        <v>188</v>
       </c>
       <c r="J18" s="17" t="s">
-        <v>159</v>
+        <v>152</v>
       </c>
     </row>
     <row r="19" spans="2:11" ht="67.5" customHeight="1">
@@ -3319,28 +3296,28 @@
         <v>13</v>
       </c>
       <c r="C19" s="34" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D19" s="32" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="E19" s="32" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="F19" s="32" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="G19" s="32" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="H19" s="32" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I19" s="33" t="s">
-        <v>196</v>
+        <v>189</v>
       </c>
       <c r="J19" s="26" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
       <c r="K19" s="4"/>
     </row>
@@ -3349,110 +3326,106 @@
         <v>14</v>
       </c>
       <c r="C20" s="34" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D20" s="32" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="E20" s="32"/>
       <c r="F20" s="32"/>
       <c r="G20" s="32"/>
       <c r="H20" s="32" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I20" s="33" t="s">
-        <v>197</v>
+        <v>190</v>
       </c>
       <c r="J20" s="26" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="21" spans="2:11" ht="67.5" customHeight="1">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="21" spans="2:11" ht="54">
       <c r="B21" s="31">
         <v>15</v>
       </c>
-      <c r="C21" s="34" t="s">
-        <v>85</v>
-      </c>
+      <c r="C21" s="34"/>
       <c r="D21" s="32" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="E21" s="32"/>
       <c r="F21" s="32"/>
       <c r="G21" s="32"/>
-      <c r="H21" s="32" t="s">
-        <v>85</v>
-      </c>
+      <c r="H21" s="32"/>
       <c r="I21" s="33" t="s">
-        <v>198</v>
+        <v>191</v>
       </c>
       <c r="J21" s="26" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="22" spans="2:11" ht="54">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="22" spans="2:11" ht="67.5" customHeight="1">
       <c r="B22" s="31">
         <v>16</v>
       </c>
       <c r="C22" s="34"/>
       <c r="D22" s="32" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="E22" s="32"/>
       <c r="F22" s="32"/>
       <c r="G22" s="32"/>
       <c r="H22" s="32"/>
       <c r="I22" s="33" t="s">
-        <v>199</v>
+        <v>192</v>
       </c>
       <c r="J22" s="26" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="23" spans="2:11" ht="67.5" customHeight="1">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="23" spans="2:11" ht="54">
       <c r="B23" s="31">
         <v>17</v>
       </c>
       <c r="C23" s="34"/>
       <c r="D23" s="32" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="E23" s="32"/>
       <c r="F23" s="32"/>
       <c r="G23" s="32"/>
       <c r="H23" s="32"/>
       <c r="I23" s="33" t="s">
-        <v>200</v>
-      </c>
-      <c r="J23" s="26" t="s">
-        <v>162</v>
+        <v>193</v>
+      </c>
+      <c r="J23" s="35" t="s">
+        <v>206</v>
       </c>
     </row>
     <row r="24" spans="2:11" ht="54">
       <c r="B24" s="31">
         <v>18</v>
       </c>
-      <c r="C24" s="34"/>
-      <c r="D24" s="32" t="s">
-        <v>85</v>
-      </c>
+      <c r="C24" s="34" t="s">
+        <v>83</v>
+      </c>
+      <c r="D24" s="32"/>
       <c r="E24" s="32"/>
       <c r="F24" s="32"/>
       <c r="G24" s="32"/>
       <c r="H24" s="32"/>
       <c r="I24" s="33" t="s">
-        <v>201</v>
-      </c>
-      <c r="J24" s="35" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="25" spans="2:11" ht="54">
+        <v>194</v>
+      </c>
+      <c r="J24" s="26" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="25" spans="2:11" ht="18.75">
       <c r="B25" s="31">
         <v>19</v>
       </c>
       <c r="C25" s="34" t="s">
-        <v>85</v>
+        <v>177</v>
       </c>
       <c r="D25" s="32"/>
       <c r="E25" s="32"/>
@@ -3460,18 +3433,18 @@
       <c r="G25" s="32"/>
       <c r="H25" s="32"/>
       <c r="I25" s="33" t="s">
-        <v>202</v>
+        <v>195</v>
       </c>
       <c r="J25" s="26" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="26" spans="2:11" ht="18.75">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="26" spans="2:11" ht="27">
       <c r="B26" s="31">
         <v>20</v>
       </c>
       <c r="C26" s="34" t="s">
-        <v>184</v>
+        <v>83</v>
       </c>
       <c r="D26" s="32"/>
       <c r="E26" s="32"/>
@@ -3479,81 +3452,48 @@
       <c r="G26" s="32"/>
       <c r="H26" s="32"/>
       <c r="I26" s="33" t="s">
-        <v>203</v>
+        <v>196</v>
       </c>
       <c r="J26" s="26" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="27" spans="2:11" ht="94.5">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="27" spans="2:11" ht="27">
       <c r="B27" s="31">
         <v>21</v>
       </c>
       <c r="C27" s="34" t="s">
-        <v>85</v>
-      </c>
-      <c r="D27" s="32"/>
-      <c r="E27" s="32"/>
-      <c r="F27" s="32"/>
-      <c r="G27" s="32"/>
-      <c r="H27" s="32"/>
+        <v>83</v>
+      </c>
+      <c r="D27" s="32" t="s">
+        <v>83</v>
+      </c>
+      <c r="E27" s="32" t="s">
+        <v>83</v>
+      </c>
+      <c r="F27" s="32" t="s">
+        <v>83</v>
+      </c>
+      <c r="G27" s="32" t="s">
+        <v>83</v>
+      </c>
+      <c r="H27" s="32" t="s">
+        <v>83</v>
+      </c>
       <c r="I27" s="33" t="s">
+        <v>197</v>
+      </c>
+      <c r="J27" s="26" t="s">
         <v>204</v>
       </c>
-      <c r="J27" s="27" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="28" spans="2:11" ht="27">
-      <c r="B28" s="31">
-        <v>22</v>
-      </c>
-      <c r="C28" s="34" t="s">
-        <v>85</v>
-      </c>
-      <c r="D28" s="32"/>
-      <c r="E28" s="32"/>
-      <c r="F28" s="32"/>
-      <c r="G28" s="32"/>
-      <c r="H28" s="32"/>
-      <c r="I28" s="33" t="s">
-        <v>205</v>
-      </c>
-      <c r="J28" s="26" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="29" spans="2:11" ht="27">
-      <c r="B29" s="31">
-        <v>23</v>
-      </c>
-      <c r="C29" s="34" t="s">
-        <v>85</v>
-      </c>
-      <c r="D29" s="32" t="s">
-        <v>85</v>
-      </c>
-      <c r="E29" s="32" t="s">
-        <v>85</v>
-      </c>
-      <c r="F29" s="32" t="s">
-        <v>85</v>
-      </c>
-      <c r="G29" s="32" t="s">
-        <v>85</v>
-      </c>
-      <c r="H29" s="32" t="s">
-        <v>85</v>
-      </c>
-      <c r="I29" s="33" t="s">
-        <v>206</v>
-      </c>
-      <c r="J29" s="26" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="30" spans="2:11">
-      <c r="J30" t="s">
+    </row>
+    <row r="28" spans="2:11">
+      <c r="J28" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="29" spans="2:11">
+      <c r="J29" s="37" t="s">
         <v>213</v>
       </c>
     </row>

--- a/asset/Documents/Exastro-ITA_[Reference]Configuration_settings_during_installation.xlsx
+++ b/asset/Documents/Exastro-ITA_[Reference]Configuration_settings_during_installation.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="153222"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11460" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11460"/>
   </bookViews>
   <sheets>
     <sheet name="1. MariaDB(server.cnf)" sheetId="2" r:id="rId1"/>
@@ -21,6 +21,9 @@
     <definedName name="_xlnm.Print_Area" localSheetId="1">'2. PHP(php.ini)'!$A$2:$H$33</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="2">'3. ansible.cfg'!$A$2:$G$30</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="3">'4. ITA setting file description'!$A$1:$J$30</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="1">'2. PHP(php.ini)'!$2:$9</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="2">'3. ansible.cfg'!$2:$5</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="3">'4. ITA setting file description'!$1:$6</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -32,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="456" uniqueCount="247">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="455" uniqueCount="246">
   <si>
     <t>№</t>
     <phoneticPr fontId="1"/>
@@ -881,15 +884,9 @@
     <t>#ssh_args = -C -o ControlMaster=auto -o ControlPersist=60s</t>
   </si>
   <si>
-    <t>-o ControlMaster=auto -o ControlPersist=60s</t>
-  </si>
-  <si>
     <t>accelerate_port</t>
   </si>
   <si>
-    <t>no -o UserKnownHostsFile=/dev/null</t>
-  </si>
-  <si>
     <t>accelerate_timeout</t>
   </si>
   <si>
@@ -904,6 +901,10 @@
   </si>
   <si>
     <t>Setting value</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> -o ControlMaster=auto -o ControlPersist=60s -o StrictHostKeyChecking=no -o UserKnownHostsFile=/dev/null</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1172,7 +1173,7 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="61">
+  <cellXfs count="62">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1218,6 +1219,129 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1233,128 +1357,8 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1648,452 +1652,452 @@
   </sheetPr>
   <dimension ref="A1:K95"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScaleNormal="70" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="70" zoomScaleSheetLayoutView="85" workbookViewId="0">
       <pane xSplit="2" ySplit="9" topLeftCell="D10" activePane="bottomRight" state="frozen"/>
       <selection activeCell="B2" sqref="B2"/>
       <selection pane="topRight" activeCell="B2" sqref="B2"/>
       <selection pane="bottomLeft" activeCell="B2" sqref="B2"/>
-      <selection pane="bottomRight" activeCell="F12" sqref="F12"/>
+      <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="1.625" defaultRowHeight="18.75"/>
   <cols>
-    <col min="1" max="1" width="1.625" style="22"/>
-    <col min="2" max="2" width="4" style="22" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.375" style="22" customWidth="1"/>
-    <col min="4" max="4" width="27.875" style="22" customWidth="1"/>
-    <col min="5" max="5" width="13.125" style="22" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="57.5" style="22" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="57.5" style="22" customWidth="1"/>
-    <col min="8" max="8" width="60.625" style="22" customWidth="1"/>
-    <col min="9" max="16384" width="1.625" style="22"/>
+    <col min="1" max="1" width="1.625" style="17"/>
+    <col min="2" max="2" width="4" style="17" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.375" style="17" customWidth="1"/>
+    <col min="4" max="4" width="27.875" style="17" customWidth="1"/>
+    <col min="5" max="5" width="13.125" style="17" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="57.5" style="17" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="57.5" style="17" customWidth="1"/>
+    <col min="8" max="8" width="60.625" style="17" customWidth="1"/>
+    <col min="9" max="16384" width="1.625" style="17"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="3" customHeight="1"/>
     <row r="2" spans="1:8" ht="45.95" customHeight="1">
-      <c r="A2" s="21" t="s">
+      <c r="A2" s="16" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="22.5">
-      <c r="B3" s="20" t="s">
+      <c r="B3" s="15" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="22.5">
-      <c r="B5" s="24" t="s">
+      <c r="B5" s="19" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="22.5">
-      <c r="B6" s="24" t="s">
+      <c r="B6" s="19" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="22.5">
-      <c r="B7" s="20" t="s">
+      <c r="B7" s="15" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="6" customHeight="1">
-      <c r="B8" s="20"/>
+      <c r="B8" s="15"/>
     </row>
     <row r="9" spans="1:8" ht="33">
-      <c r="B9" s="29" t="s">
+      <c r="B9" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="C9" s="30" t="s">
+      <c r="C9" s="25" t="s">
         <v>44</v>
       </c>
-      <c r="D9" s="30" t="s">
+      <c r="D9" s="25" t="s">
         <v>120</v>
       </c>
-      <c r="E9" s="29" t="s">
+      <c r="E9" s="24" t="s">
         <v>39</v>
       </c>
-      <c r="F9" s="29" t="s">
+      <c r="F9" s="24" t="s">
         <v>40</v>
       </c>
-      <c r="G9" s="29" t="s">
+      <c r="G9" s="24" t="s">
         <v>145</v>
       </c>
-      <c r="H9" s="29" t="s">
+      <c r="H9" s="24" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="30" customHeight="1">
-      <c r="B10" s="31">
+      <c r="B10" s="26">
         <v>1</v>
       </c>
-      <c r="C10" s="32" t="s">
+      <c r="C10" s="27" t="s">
         <v>36</v>
       </c>
-      <c r="D10" s="33" t="s">
+      <c r="D10" s="28" t="s">
         <v>121</v>
       </c>
-      <c r="E10" s="34" t="s">
+      <c r="E10" s="29" t="s">
         <v>28</v>
       </c>
-      <c r="F10" s="35" t="b">
+      <c r="F10" s="30" t="b">
         <v>1</v>
       </c>
-      <c r="G10" s="35" t="b">
+      <c r="G10" s="30" t="b">
         <v>1</v>
       </c>
-      <c r="H10" s="36"/>
+      <c r="H10" s="31"/>
     </row>
     <row r="11" spans="1:8" ht="30" customHeight="1">
-      <c r="B11" s="31">
+      <c r="B11" s="26">
         <v>2</v>
       </c>
-      <c r="C11" s="32" t="s">
+      <c r="C11" s="27" t="s">
         <v>36</v>
       </c>
-      <c r="D11" s="33" t="s">
+      <c r="D11" s="28" t="s">
         <v>122</v>
       </c>
-      <c r="E11" s="34" t="s">
+      <c r="E11" s="29" t="s">
         <v>34</v>
       </c>
-      <c r="F11" s="37" t="s">
+      <c r="F11" s="32" t="s">
         <v>135</v>
       </c>
-      <c r="G11" s="37" t="s">
+      <c r="G11" s="32" t="s">
         <v>135</v>
       </c>
-      <c r="H11" s="36"/>
+      <c r="H11" s="31"/>
     </row>
     <row r="12" spans="1:8" ht="108" customHeight="1">
-      <c r="B12" s="31">
+      <c r="B12" s="26">
         <v>3</v>
       </c>
-      <c r="C12" s="32" t="s">
+      <c r="C12" s="27" t="s">
         <v>36</v>
       </c>
-      <c r="D12" s="33" t="s">
+      <c r="D12" s="28" t="s">
         <v>123</v>
       </c>
-      <c r="E12" s="34" t="s">
+      <c r="E12" s="29" t="s">
         <v>33</v>
       </c>
-      <c r="F12" s="38" t="s">
+      <c r="F12" s="33" t="s">
         <v>136</v>
       </c>
-      <c r="G12" s="38" t="s">
+      <c r="G12" s="33" t="s">
         <v>136</v>
       </c>
-      <c r="H12" s="36" t="s">
+      <c r="H12" s="31" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="13" spans="1:8">
-      <c r="B13" s="31">
+      <c r="B13" s="26">
         <v>4</v>
       </c>
-      <c r="C13" s="39" t="s">
+      <c r="C13" s="34" t="s">
         <v>38</v>
       </c>
-      <c r="D13" s="40" t="s">
+      <c r="D13" s="35" t="s">
         <v>124</v>
       </c>
-      <c r="E13" s="41" t="s">
+      <c r="E13" s="36" t="s">
         <v>29</v>
       </c>
-      <c r="F13" s="42" t="s">
+      <c r="F13" s="37" t="s">
         <v>137</v>
       </c>
-      <c r="G13" s="43" t="s">
+      <c r="G13" s="38" t="s">
         <v>142</v>
       </c>
-      <c r="H13" s="44" t="s">
+      <c r="H13" s="39" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="30" customHeight="1">
-      <c r="B14" s="31">
+      <c r="B14" s="26">
         <v>5</v>
       </c>
-      <c r="C14" s="39" t="s">
+      <c r="C14" s="34" t="s">
         <v>38</v>
       </c>
-      <c r="D14" s="40" t="s">
+      <c r="D14" s="35" t="s">
         <v>125</v>
       </c>
-      <c r="E14" s="41" t="s">
+      <c r="E14" s="36" t="s">
         <v>30</v>
       </c>
-      <c r="F14" s="42" t="s">
+      <c r="F14" s="37" t="s">
         <v>138</v>
       </c>
-      <c r="G14" s="43" t="s">
+      <c r="G14" s="38" t="s">
         <v>140</v>
       </c>
-      <c r="H14" s="44" t="s">
+      <c r="H14" s="39" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="30" customHeight="1">
-      <c r="B15" s="31">
+      <c r="B15" s="26">
         <v>6</v>
       </c>
-      <c r="C15" s="39" t="s">
+      <c r="C15" s="34" t="s">
         <v>38</v>
       </c>
-      <c r="D15" s="40" t="s">
+      <c r="D15" s="35" t="s">
         <v>126</v>
       </c>
-      <c r="E15" s="41" t="s">
+      <c r="E15" s="36" t="s">
         <v>35</v>
       </c>
-      <c r="F15" s="42" t="s">
+      <c r="F15" s="37" t="s">
         <v>139</v>
       </c>
-      <c r="G15" s="43" t="s">
+      <c r="G15" s="38" t="s">
         <v>143</v>
       </c>
-      <c r="H15" s="44" t="s">
+      <c r="H15" s="39" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="30" customHeight="1">
-      <c r="B16" s="31">
+      <c r="B16" s="26">
         <v>7</v>
       </c>
-      <c r="C16" s="39" t="s">
+      <c r="C16" s="34" t="s">
         <v>38</v>
       </c>
-      <c r="D16" s="40" t="s">
+      <c r="D16" s="35" t="s">
         <v>127</v>
       </c>
-      <c r="E16" s="41">
+      <c r="E16" s="36">
         <v>0</v>
       </c>
-      <c r="F16" s="45">
+      <c r="F16" s="40">
         <v>100</v>
       </c>
-      <c r="G16" s="45">
+      <c r="G16" s="40">
         <v>100</v>
       </c>
-      <c r="H16" s="44" t="s">
+      <c r="H16" s="39" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="17" spans="2:8" ht="30" customHeight="1">
-      <c r="B17" s="31">
+      <c r="B17" s="26">
         <v>8</v>
       </c>
-      <c r="C17" s="39" t="s">
+      <c r="C17" s="34" t="s">
         <v>38</v>
       </c>
-      <c r="D17" s="40" t="s">
+      <c r="D17" s="35" t="s">
         <v>128</v>
       </c>
-      <c r="E17" s="41" t="s">
+      <c r="E17" s="36" t="s">
         <v>31</v>
       </c>
-      <c r="F17" s="42" t="s">
+      <c r="F17" s="37" t="s">
         <v>140</v>
       </c>
-      <c r="G17" s="43" t="s">
+      <c r="G17" s="38" t="s">
         <v>139</v>
       </c>
-      <c r="H17" s="44" t="s">
+      <c r="H17" s="39" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="18" spans="2:8" ht="30" customHeight="1">
-      <c r="B18" s="31">
+      <c r="B18" s="26">
         <v>9</v>
       </c>
-      <c r="C18" s="39" t="s">
+      <c r="C18" s="34" t="s">
         <v>38</v>
       </c>
-      <c r="D18" s="40" t="s">
+      <c r="D18" s="35" t="s">
         <v>129</v>
       </c>
-      <c r="E18" s="41" t="s">
+      <c r="E18" s="36" t="s">
         <v>32</v>
       </c>
-      <c r="F18" s="45" t="s">
+      <c r="F18" s="40" t="s">
         <v>141</v>
       </c>
-      <c r="G18" s="43" t="s">
+      <c r="G18" s="38" t="s">
         <v>144</v>
       </c>
-      <c r="H18" s="44" t="s">
+      <c r="H18" s="39" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="19" spans="2:8" ht="30" customHeight="1">
-      <c r="B19" s="31">
+      <c r="B19" s="26">
         <v>10</v>
       </c>
-      <c r="C19" s="39" t="s">
+      <c r="C19" s="34" t="s">
         <v>38</v>
       </c>
-      <c r="D19" s="40" t="s">
+      <c r="D19" s="35" t="s">
         <v>130</v>
       </c>
-      <c r="E19" s="41" t="s">
+      <c r="E19" s="36" t="s">
         <v>28</v>
       </c>
-      <c r="F19" s="45">
+      <c r="F19" s="40">
         <v>1</v>
       </c>
-      <c r="G19" s="45">
+      <c r="G19" s="40">
         <v>1</v>
       </c>
-      <c r="H19" s="46"/>
+      <c r="H19" s="41"/>
     </row>
     <row r="20" spans="2:8" ht="30" customHeight="1">
-      <c r="B20" s="31">
+      <c r="B20" s="26">
         <v>11</v>
       </c>
-      <c r="C20" s="39" t="s">
+      <c r="C20" s="34" t="s">
         <v>38</v>
       </c>
-      <c r="D20" s="40" t="s">
+      <c r="D20" s="35" t="s">
         <v>131</v>
       </c>
-      <c r="E20" s="41" t="s">
+      <c r="E20" s="36" t="s">
         <v>30</v>
       </c>
-      <c r="F20" s="42" t="s">
+      <c r="F20" s="37" t="s">
         <v>138</v>
       </c>
-      <c r="G20" s="43" t="s">
+      <c r="G20" s="38" t="s">
         <v>140</v>
       </c>
-      <c r="H20" s="44" t="s">
+      <c r="H20" s="39" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="21" spans="2:8" ht="30" customHeight="1">
-      <c r="B21" s="31">
+      <c r="B21" s="26">
         <v>12</v>
       </c>
-      <c r="C21" s="39" t="s">
+      <c r="C21" s="34" t="s">
         <v>38</v>
       </c>
-      <c r="D21" s="40" t="s">
+      <c r="D21" s="35" t="s">
         <v>132</v>
       </c>
-      <c r="E21" s="41" t="s">
+      <c r="E21" s="36" t="s">
         <v>30</v>
       </c>
-      <c r="F21" s="42" t="s">
+      <c r="F21" s="37" t="s">
         <v>138</v>
       </c>
-      <c r="G21" s="43" t="s">
+      <c r="G21" s="38" t="s">
         <v>140</v>
       </c>
-      <c r="H21" s="44" t="s">
+      <c r="H21" s="39" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="22" spans="2:8" ht="30" customHeight="1">
-      <c r="B22" s="31">
+      <c r="B22" s="26">
         <v>13</v>
       </c>
-      <c r="C22" s="39" t="s">
+      <c r="C22" s="34" t="s">
         <v>38</v>
       </c>
-      <c r="D22" s="40" t="s">
+      <c r="D22" s="35" t="s">
         <v>133</v>
       </c>
-      <c r="E22" s="41" t="s">
+      <c r="E22" s="36" t="s">
         <v>31</v>
       </c>
-      <c r="F22" s="42" t="s">
+      <c r="F22" s="37" t="s">
         <v>138</v>
       </c>
-      <c r="G22" s="43" t="s">
+      <c r="G22" s="38" t="s">
         <v>140</v>
       </c>
-      <c r="H22" s="44" t="s">
+      <c r="H22" s="39" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="23" spans="2:8">
-      <c r="B23" s="31">
+      <c r="B23" s="26">
         <v>14</v>
       </c>
-      <c r="C23" s="39" t="s">
+      <c r="C23" s="34" t="s">
         <v>38</v>
       </c>
-      <c r="D23" s="40" t="s">
+      <c r="D23" s="35" t="s">
         <v>134</v>
       </c>
-      <c r="E23" s="41">
+      <c r="E23" s="36">
         <v>151</v>
       </c>
-      <c r="F23" s="42">
+      <c r="F23" s="37">
         <v>256</v>
       </c>
-      <c r="G23" s="43">
+      <c r="G23" s="38">
         <v>5000</v>
       </c>
-      <c r="H23" s="44" t="s">
+      <c r="H23" s="39" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="36" spans="10:11">
-      <c r="J36" s="23"/>
+      <c r="J36" s="18"/>
     </row>
     <row r="38" spans="10:11">
-      <c r="J38" s="23"/>
-      <c r="K38" s="23"/>
+      <c r="J38" s="18"/>
+      <c r="K38" s="18"/>
     </row>
     <row r="56" spans="10:10">
-      <c r="J56" s="23"/>
+      <c r="J56" s="18"/>
     </row>
     <row r="63" spans="10:10">
-      <c r="J63" s="23"/>
+      <c r="J63" s="18"/>
     </row>
     <row r="64" spans="10:10">
-      <c r="J64" s="23"/>
+      <c r="J64" s="18"/>
     </row>
     <row r="69" spans="10:10">
-      <c r="J69" s="23"/>
+      <c r="J69" s="18"/>
     </row>
     <row r="71" spans="10:10">
-      <c r="J71" s="23"/>
+      <c r="J71" s="18"/>
     </row>
     <row r="73" spans="10:10">
-      <c r="J73" s="23"/>
+      <c r="J73" s="18"/>
     </row>
     <row r="80" spans="10:10">
-      <c r="J80" s="23"/>
+      <c r="J80" s="18"/>
     </row>
     <row r="81" spans="10:10">
-      <c r="J81" s="23"/>
+      <c r="J81" s="18"/>
     </row>
     <row r="82" spans="10:10">
-      <c r="J82" s="23"/>
+      <c r="J82" s="18"/>
     </row>
     <row r="83" spans="10:10">
-      <c r="J83" s="23"/>
+      <c r="J83" s="18"/>
     </row>
     <row r="85" spans="10:10">
-      <c r="J85" s="23"/>
+      <c r="J85" s="18"/>
     </row>
     <row r="86" spans="10:10">
-      <c r="J86" s="23"/>
+      <c r="J86" s="18"/>
     </row>
     <row r="89" spans="10:10">
-      <c r="J89" s="23"/>
+      <c r="J89" s="18"/>
     </row>
     <row r="91" spans="10:10">
-      <c r="J91" s="23"/>
+      <c r="J91" s="18"/>
     </row>
     <row r="92" spans="10:10">
-      <c r="J92" s="23"/>
+      <c r="J92" s="18"/>
     </row>
     <row r="93" spans="10:10">
-      <c r="J93" s="23"/>
+      <c r="J93" s="18"/>
     </row>
     <row r="95" spans="10:10">
-      <c r="J95" s="23"/>
+      <c r="J95" s="18"/>
     </row>
   </sheetData>
   <autoFilter ref="B9:H21">
@@ -2103,7 +2107,7 @@
   </autoFilter>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="9" scale="37" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="56" fitToHeight="0" orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -2115,627 +2119,626 @@
   </sheetPr>
   <dimension ref="A1:J34"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="70" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="9" topLeftCell="G22" activePane="bottomRight" state="frozen"/>
-      <selection activeCell="B2" sqref="B2"/>
-      <selection pane="topRight" activeCell="B2" sqref="B2"/>
-      <selection pane="bottomLeft" activeCell="B2" sqref="B2"/>
-      <selection pane="bottomRight" activeCell="H23" sqref="H23"/>
+    <sheetView view="pageBreakPreview" zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="70" workbookViewId="0">
+      <pane xSplit="2" ySplit="9" topLeftCell="C10" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="1.625" defaultRowHeight="18.75"/>
   <cols>
-    <col min="1" max="1" width="1.625" style="22"/>
-    <col min="2" max="2" width="4" style="22" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.875" style="22" customWidth="1"/>
-    <col min="4" max="4" width="35.25" style="22" customWidth="1"/>
-    <col min="5" max="5" width="45.625" style="22" customWidth="1"/>
-    <col min="6" max="6" width="55.625" style="22" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="55.625" style="22" customWidth="1"/>
-    <col min="8" max="8" width="60.625" style="22" customWidth="1"/>
-    <col min="9" max="16384" width="1.625" style="22"/>
+    <col min="1" max="1" width="1.625" style="17"/>
+    <col min="2" max="2" width="4" style="17" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.875" style="17" customWidth="1"/>
+    <col min="4" max="4" width="35.25" style="17" customWidth="1"/>
+    <col min="5" max="5" width="45.625" style="17" customWidth="1"/>
+    <col min="6" max="6" width="55.625" style="17" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="55.625" style="17" customWidth="1"/>
+    <col min="8" max="8" width="60.625" style="17" customWidth="1"/>
+    <col min="9" max="16384" width="1.625" style="17"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="3" customHeight="1"/>
     <row r="2" spans="1:8" ht="35.25">
-      <c r="A2" s="21" t="s">
+      <c r="A2" s="16" t="s">
         <v>79</v>
       </c>
-      <c r="B2" s="20"/>
+      <c r="B2" s="15"/>
     </row>
     <row r="3" spans="1:8" ht="36.950000000000003" customHeight="1">
-      <c r="B3" s="47" t="s">
+      <c r="B3" s="42" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="11.1" customHeight="1"/>
     <row r="5" spans="1:8" ht="18.95" customHeight="1">
-      <c r="B5" s="24" t="s">
+      <c r="B5" s="19" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="18.95" customHeight="1">
-      <c r="B6" s="24" t="s">
+      <c r="B6" s="19" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="21" customHeight="1">
-      <c r="B7" s="20" t="s">
+      <c r="B7" s="15" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="5.0999999999999996" customHeight="1"/>
     <row r="9" spans="1:8" ht="33">
-      <c r="B9" s="29" t="s">
+      <c r="B9" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="C9" s="30" t="s">
+      <c r="C9" s="25" t="s">
         <v>49</v>
       </c>
-      <c r="D9" s="30" t="s">
+      <c r="D9" s="25" t="s">
         <v>195</v>
       </c>
-      <c r="E9" s="29" t="s">
+      <c r="E9" s="24" t="s">
         <v>46</v>
       </c>
-      <c r="F9" s="29" t="s">
+      <c r="F9" s="24" t="s">
         <v>47</v>
       </c>
-      <c r="G9" s="29" t="s">
+      <c r="G9" s="24" t="s">
         <v>196</v>
       </c>
-      <c r="H9" s="29" t="s">
+      <c r="H9" s="24" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="45" customHeight="1">
-      <c r="B10" s="31">
+      <c r="B10" s="26">
         <v>1</v>
       </c>
-      <c r="C10" s="39" t="s">
+      <c r="C10" s="34" t="s">
         <v>37</v>
       </c>
-      <c r="D10" s="40" t="s">
+      <c r="D10" s="35" t="s">
         <v>147</v>
       </c>
-      <c r="E10" s="42">
+      <c r="E10" s="37">
         <v>4096</v>
       </c>
-      <c r="F10" s="42">
+      <c r="F10" s="37">
         <v>8192</v>
       </c>
-      <c r="G10" s="43">
+      <c r="G10" s="38">
         <v>16384</v>
       </c>
-      <c r="H10" s="44" t="s">
+      <c r="H10" s="39" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="45" customHeight="1">
-      <c r="B11" s="31">
+      <c r="B11" s="26">
         <v>2</v>
       </c>
-      <c r="C11" s="39" t="s">
+      <c r="C11" s="34" t="s">
         <v>37</v>
       </c>
-      <c r="D11" s="40" t="s">
+      <c r="D11" s="35" t="s">
         <v>148</v>
       </c>
-      <c r="E11" s="42" t="s">
+      <c r="E11" s="37" t="s">
         <v>149</v>
       </c>
-      <c r="F11" s="42" t="s">
+      <c r="F11" s="37" t="s">
         <v>150</v>
       </c>
-      <c r="G11" s="42" t="s">
+      <c r="G11" s="37" t="s">
         <v>150</v>
       </c>
-      <c r="H11" s="44" t="s">
+      <c r="H11" s="39" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="45" customHeight="1">
-      <c r="B12" s="31">
+      <c r="B12" s="26">
         <v>3</v>
       </c>
-      <c r="C12" s="39" t="s">
+      <c r="C12" s="34" t="s">
         <v>37</v>
       </c>
-      <c r="D12" s="40" t="s">
+      <c r="D12" s="35" t="s">
         <v>151</v>
       </c>
-      <c r="E12" s="42">
+      <c r="E12" s="37">
         <v>30</v>
       </c>
-      <c r="F12" s="42">
+      <c r="F12" s="37">
         <v>600</v>
       </c>
-      <c r="G12" s="42">
+      <c r="G12" s="37">
         <v>600</v>
       </c>
-      <c r="H12" s="44" t="s">
+      <c r="H12" s="39" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="45" customHeight="1">
-      <c r="B13" s="31">
+      <c r="B13" s="26">
         <v>4</v>
       </c>
-      <c r="C13" s="39" t="s">
+      <c r="C13" s="34" t="s">
         <v>37</v>
       </c>
-      <c r="D13" s="40" t="s">
+      <c r="D13" s="35" t="s">
         <v>152</v>
       </c>
-      <c r="E13" s="42">
+      <c r="E13" s="37">
         <v>60</v>
       </c>
-      <c r="F13" s="42">
+      <c r="F13" s="37">
         <v>600</v>
       </c>
-      <c r="G13" s="42">
+      <c r="G13" s="37">
         <v>600</v>
       </c>
-      <c r="H13" s="44" t="s">
+      <c r="H13" s="39" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="45" customHeight="1">
-      <c r="B14" s="31">
+      <c r="B14" s="26">
         <v>5</v>
       </c>
-      <c r="C14" s="39" t="s">
+      <c r="C14" s="34" t="s">
         <v>37</v>
       </c>
-      <c r="D14" s="40" t="s">
+      <c r="D14" s="35" t="s">
         <v>153</v>
       </c>
-      <c r="E14" s="42" t="s">
+      <c r="E14" s="37" t="s">
         <v>140</v>
       </c>
-      <c r="F14" s="42" t="s">
+      <c r="F14" s="37" t="s">
         <v>141</v>
       </c>
-      <c r="G14" s="43" t="s">
+      <c r="G14" s="38" t="s">
         <v>144</v>
       </c>
-      <c r="H14" s="44" t="s">
+      <c r="H14" s="39" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="45" customHeight="1">
-      <c r="B15" s="31">
+      <c r="B15" s="26">
         <v>6</v>
       </c>
-      <c r="C15" s="39" t="s">
+      <c r="C15" s="34" t="s">
         <v>37</v>
       </c>
-      <c r="D15" s="40" t="s">
+      <c r="D15" s="35" t="s">
         <v>154</v>
       </c>
-      <c r="E15" s="42" t="s">
+      <c r="E15" s="37" t="s">
         <v>155</v>
       </c>
-      <c r="F15" s="42" t="s">
+      <c r="F15" s="37" t="s">
         <v>156</v>
       </c>
-      <c r="G15" s="42" t="s">
+      <c r="G15" s="37" t="s">
         <v>156</v>
       </c>
-      <c r="H15" s="44" t="s">
+      <c r="H15" s="39" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="45" customHeight="1">
-      <c r="B16" s="31">
+      <c r="B16" s="26">
         <v>7</v>
       </c>
-      <c r="C16" s="39" t="s">
+      <c r="C16" s="34" t="s">
         <v>37</v>
       </c>
-      <c r="D16" s="40" t="s">
+      <c r="D16" s="35" t="s">
         <v>157</v>
       </c>
-      <c r="E16" s="42" t="s">
+      <c r="E16" s="37" t="s">
         <v>158</v>
       </c>
-      <c r="F16" s="42" t="s">
+      <c r="F16" s="37" t="s">
         <v>156</v>
       </c>
-      <c r="G16" s="42" t="s">
+      <c r="G16" s="37" t="s">
         <v>156</v>
       </c>
-      <c r="H16" s="44" t="s">
+      <c r="H16" s="39" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="17" spans="2:10" ht="45" customHeight="1">
-      <c r="B17" s="31">
+      <c r="B17" s="26">
         <v>8</v>
       </c>
-      <c r="C17" s="50" t="s">
+      <c r="C17" s="45" t="s">
         <v>37</v>
       </c>
-      <c r="D17" s="40" t="s">
+      <c r="D17" s="35" t="s">
         <v>159</v>
       </c>
-      <c r="E17" s="42">
+      <c r="E17" s="37">
         <v>60</v>
       </c>
-      <c r="F17" s="42">
+      <c r="F17" s="37">
         <v>600</v>
       </c>
-      <c r="G17" s="42">
+      <c r="G17" s="37">
         <v>600</v>
       </c>
-      <c r="H17" s="44" t="s">
+      <c r="H17" s="39" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="18" spans="2:10" ht="45" customHeight="1">
-      <c r="B18" s="31">
+      <c r="B18" s="26">
         <v>9</v>
       </c>
-      <c r="C18" s="49" t="s">
+      <c r="C18" s="44" t="s">
         <v>45</v>
       </c>
-      <c r="D18" s="52" t="s">
+      <c r="D18" s="47" t="s">
         <v>160</v>
       </c>
-      <c r="E18" s="35" t="s">
+      <c r="E18" s="30" t="s">
         <v>161</v>
       </c>
-      <c r="F18" s="35" t="s">
+      <c r="F18" s="30" t="s">
         <v>162</v>
       </c>
-      <c r="G18" s="35" t="s">
+      <c r="G18" s="30" t="s">
         <v>162</v>
       </c>
-      <c r="H18" s="53"/>
+      <c r="H18" s="48"/>
     </row>
     <row r="19" spans="2:10" ht="45" customHeight="1">
-      <c r="B19" s="31">
+      <c r="B19" s="26">
         <v>10</v>
       </c>
-      <c r="C19" s="50" t="s">
+      <c r="C19" s="45" t="s">
         <v>37</v>
       </c>
-      <c r="D19" s="40" t="s">
+      <c r="D19" s="35" t="s">
         <v>163</v>
       </c>
-      <c r="E19" s="42">
+      <c r="E19" s="37">
         <v>2000</v>
       </c>
-      <c r="F19" s="42">
+      <c r="F19" s="37">
         <v>4000</v>
       </c>
-      <c r="G19" s="43">
+      <c r="G19" s="38">
         <v>8000</v>
       </c>
-      <c r="H19" s="44" t="s">
+      <c r="H19" s="39" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="20" spans="2:10" ht="45" customHeight="1">
-      <c r="B20" s="31">
+      <c r="B20" s="26">
         <v>11</v>
       </c>
-      <c r="C20" s="49" t="s">
+      <c r="C20" s="44" t="s">
         <v>45</v>
       </c>
-      <c r="D20" s="52" t="s">
+      <c r="D20" s="47" t="s">
         <v>164</v>
       </c>
-      <c r="E20" s="35" t="s">
+      <c r="E20" s="30" t="s">
         <v>165</v>
       </c>
-      <c r="F20" s="35" t="s">
+      <c r="F20" s="30" t="s">
         <v>166</v>
       </c>
-      <c r="G20" s="35" t="s">
+      <c r="G20" s="30" t="s">
         <v>166</v>
       </c>
-      <c r="H20" s="36" t="s">
+      <c r="H20" s="31" t="s">
         <v>58</v>
       </c>
-      <c r="J20" s="23"/>
+      <c r="J20" s="18"/>
     </row>
     <row r="21" spans="2:10" ht="45" customHeight="1">
-      <c r="B21" s="31">
+      <c r="B21" s="26">
         <v>12</v>
       </c>
-      <c r="C21" s="39" t="s">
+      <c r="C21" s="34" t="s">
         <v>37</v>
       </c>
-      <c r="D21" s="40" t="s">
+      <c r="D21" s="35" t="s">
         <v>167</v>
       </c>
-      <c r="E21" s="42">
+      <c r="E21" s="37">
         <v>2000</v>
       </c>
-      <c r="F21" s="42">
+      <c r="F21" s="37">
         <v>4000</v>
       </c>
-      <c r="G21" s="43">
+      <c r="G21" s="38">
         <v>8000</v>
       </c>
-      <c r="H21" s="44" t="s">
+      <c r="H21" s="39" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="22" spans="2:10" ht="45" customHeight="1">
-      <c r="B22" s="31">
+      <c r="B22" s="26">
         <v>13</v>
       </c>
-      <c r="C22" s="50" t="s">
+      <c r="C22" s="45" t="s">
         <v>37</v>
       </c>
-      <c r="D22" s="40" t="s">
+      <c r="D22" s="35" t="s">
         <v>168</v>
       </c>
-      <c r="E22" s="42">
+      <c r="E22" s="37">
         <v>60</v>
       </c>
-      <c r="F22" s="42">
+      <c r="F22" s="37">
         <v>600</v>
       </c>
-      <c r="G22" s="43">
+      <c r="G22" s="38">
         <v>600</v>
       </c>
-      <c r="H22" s="44" t="s">
+      <c r="H22" s="39" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="23" spans="2:10" ht="66" customHeight="1">
-      <c r="B23" s="31">
+      <c r="B23" s="26">
         <v>14</v>
       </c>
-      <c r="C23" s="49" t="s">
+      <c r="C23" s="44" t="s">
         <v>45</v>
       </c>
-      <c r="D23" s="52" t="s">
+      <c r="D23" s="47" t="s">
         <v>169</v>
       </c>
-      <c r="E23" s="35" t="s">
+      <c r="E23" s="30" t="s">
         <v>170</v>
       </c>
-      <c r="F23" s="35" t="s">
+      <c r="F23" s="30" t="s">
         <v>171</v>
       </c>
-      <c r="G23" s="35" t="s">
+      <c r="G23" s="30" t="s">
         <v>171</v>
       </c>
-      <c r="H23" s="36" t="s">
+      <c r="H23" s="31" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="24" spans="2:10" ht="45" customHeight="1">
-      <c r="B24" s="31">
+      <c r="B24" s="26">
         <v>15</v>
       </c>
-      <c r="C24" s="49" t="s">
+      <c r="C24" s="44" t="s">
         <v>45</v>
       </c>
-      <c r="D24" s="52" t="s">
+      <c r="D24" s="47" t="s">
         <v>172</v>
       </c>
-      <c r="E24" s="35">
+      <c r="E24" s="30">
         <v>1000</v>
       </c>
-      <c r="F24" s="35">
+      <c r="F24" s="30">
         <v>1</v>
       </c>
-      <c r="G24" s="35">
+      <c r="G24" s="30">
         <v>1</v>
       </c>
-      <c r="H24" s="54" t="s">
+      <c r="H24" s="55" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="25" spans="2:10" ht="45" customHeight="1">
-      <c r="B25" s="31">
+      <c r="B25" s="26">
         <v>16</v>
       </c>
-      <c r="C25" s="49" t="s">
+      <c r="C25" s="44" t="s">
         <v>45</v>
       </c>
-      <c r="D25" s="52" t="s">
+      <c r="D25" s="47" t="s">
         <v>173</v>
       </c>
-      <c r="E25" s="35">
+      <c r="E25" s="30">
         <v>1440</v>
       </c>
-      <c r="F25" s="35">
+      <c r="F25" s="30">
         <v>43200</v>
       </c>
-      <c r="G25" s="35">
+      <c r="G25" s="30">
         <v>43200</v>
       </c>
-      <c r="H25" s="54"/>
+      <c r="H25" s="55"/>
     </row>
     <row r="26" spans="2:10" ht="45" customHeight="1">
-      <c r="B26" s="31">
+      <c r="B26" s="26">
         <v>17</v>
       </c>
-      <c r="C26" s="49" t="s">
+      <c r="C26" s="44" t="s">
         <v>45</v>
       </c>
-      <c r="D26" s="52" t="s">
+      <c r="D26" s="47" t="s">
         <v>174</v>
       </c>
-      <c r="E26" s="35" t="s">
+      <c r="E26" s="30" t="s">
         <v>175</v>
       </c>
-      <c r="F26" s="35" t="s">
+      <c r="F26" s="30" t="s">
         <v>176</v>
       </c>
-      <c r="G26" s="35" t="s">
+      <c r="G26" s="30" t="s">
         <v>176</v>
       </c>
-      <c r="H26" s="55" t="s">
+      <c r="H26" s="49" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="27" spans="2:10" ht="45" customHeight="1">
-      <c r="B27" s="31">
+      <c r="B27" s="26">
         <v>18</v>
       </c>
-      <c r="C27" s="49" t="s">
+      <c r="C27" s="44" t="s">
         <v>45</v>
       </c>
-      <c r="D27" s="52" t="s">
+      <c r="D27" s="47" t="s">
         <v>177</v>
       </c>
-      <c r="E27" s="35" t="s">
+      <c r="E27" s="30" t="s">
         <v>178</v>
       </c>
-      <c r="F27" s="35" t="s">
+      <c r="F27" s="30" t="s">
         <v>179</v>
       </c>
-      <c r="G27" s="35" t="s">
+      <c r="G27" s="30" t="s">
         <v>179</v>
       </c>
-      <c r="H27" s="55" t="s">
+      <c r="H27" s="49" t="s">
         <v>61</v>
       </c>
-      <c r="J27" s="23"/>
+      <c r="J27" s="18"/>
     </row>
     <row r="28" spans="2:10" ht="45" customHeight="1">
-      <c r="B28" s="31">
+      <c r="B28" s="26">
         <v>19</v>
       </c>
-      <c r="C28" s="49" t="s">
+      <c r="C28" s="44" t="s">
         <v>45</v>
       </c>
-      <c r="D28" s="52" t="s">
+      <c r="D28" s="47" t="s">
         <v>180</v>
       </c>
-      <c r="E28" s="35" t="s">
+      <c r="E28" s="30" t="s">
         <v>181</v>
       </c>
-      <c r="F28" s="35" t="s">
+      <c r="F28" s="30" t="s">
         <v>182</v>
       </c>
-      <c r="G28" s="35" t="s">
+      <c r="G28" s="30" t="s">
         <v>182</v>
       </c>
-      <c r="H28" s="55" t="s">
+      <c r="H28" s="49" t="s">
         <v>61</v>
       </c>
-      <c r="J28" s="23"/>
+      <c r="J28" s="18"/>
     </row>
     <row r="29" spans="2:10" ht="45" customHeight="1">
-      <c r="B29" s="31">
+      <c r="B29" s="26">
         <v>20</v>
       </c>
-      <c r="C29" s="49" t="s">
+      <c r="C29" s="44" t="s">
         <v>45</v>
       </c>
-      <c r="D29" s="52" t="s">
+      <c r="D29" s="47" t="s">
         <v>183</v>
       </c>
-      <c r="E29" s="35" t="s">
+      <c r="E29" s="30" t="s">
         <v>184</v>
       </c>
-      <c r="F29" s="35" t="s">
+      <c r="F29" s="30" t="s">
         <v>179</v>
       </c>
-      <c r="G29" s="35" t="s">
+      <c r="G29" s="30" t="s">
         <v>179</v>
       </c>
-      <c r="H29" s="55" t="s">
+      <c r="H29" s="49" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="30" spans="2:10" ht="45" customHeight="1">
-      <c r="B30" s="31">
+      <c r="B30" s="26">
         <v>21</v>
       </c>
-      <c r="C30" s="49" t="s">
+      <c r="C30" s="44" t="s">
         <v>45</v>
       </c>
-      <c r="D30" s="52" t="s">
+      <c r="D30" s="47" t="s">
         <v>185</v>
       </c>
-      <c r="E30" s="35" t="s">
+      <c r="E30" s="30" t="s">
         <v>186</v>
       </c>
-      <c r="F30" s="35" t="s">
+      <c r="F30" s="30" t="s">
         <v>150</v>
       </c>
-      <c r="G30" s="35" t="s">
+      <c r="G30" s="30" t="s">
         <v>150</v>
       </c>
-      <c r="H30" s="55" t="s">
+      <c r="H30" s="49" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="31" spans="2:10" ht="45" customHeight="1">
-      <c r="B31" s="31">
+      <c r="B31" s="26">
         <v>22</v>
       </c>
-      <c r="C31" s="49" t="s">
+      <c r="C31" s="44" t="s">
         <v>45</v>
       </c>
-      <c r="D31" s="52" t="s">
+      <c r="D31" s="47" t="s">
         <v>187</v>
       </c>
-      <c r="E31" s="35" t="s">
+      <c r="E31" s="30" t="s">
         <v>188</v>
       </c>
-      <c r="F31" s="35" t="s">
+      <c r="F31" s="30" t="s">
         <v>182</v>
       </c>
-      <c r="G31" s="35" t="s">
+      <c r="G31" s="30" t="s">
         <v>182</v>
       </c>
-      <c r="H31" s="55" t="s">
+      <c r="H31" s="49" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="32" spans="2:10" ht="45" customHeight="1">
-      <c r="B32" s="31">
+      <c r="B32" s="26">
         <v>23</v>
       </c>
-      <c r="C32" s="49" t="s">
+      <c r="C32" s="44" t="s">
         <v>45</v>
       </c>
-      <c r="D32" s="52" t="s">
+      <c r="D32" s="47" t="s">
         <v>189</v>
       </c>
-      <c r="E32" s="35" t="s">
+      <c r="E32" s="30" t="s">
         <v>190</v>
       </c>
-      <c r="F32" s="35" t="s">
+      <c r="F32" s="30" t="s">
         <v>191</v>
       </c>
-      <c r="G32" s="35" t="s">
+      <c r="G32" s="30" t="s">
         <v>191</v>
       </c>
-      <c r="H32" s="55" t="s">
+      <c r="H32" s="49" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="33" spans="2:8" ht="45" customHeight="1">
-      <c r="B33" s="31">
+      <c r="B33" s="26">
         <v>24</v>
       </c>
-      <c r="C33" s="49" t="s">
+      <c r="C33" s="44" t="s">
         <v>36</v>
       </c>
-      <c r="D33" s="52" t="s">
+      <c r="D33" s="47" t="s">
         <v>192</v>
       </c>
-      <c r="E33" s="56" t="s">
+      <c r="E33" s="50" t="s">
         <v>194</v>
       </c>
-      <c r="F33" s="56" t="s">
+      <c r="F33" s="50" t="s">
         <v>193</v>
       </c>
-      <c r="G33" s="56" t="s">
+      <c r="G33" s="50" t="s">
         <v>193</v>
       </c>
-      <c r="H33" s="55" t="s">
+      <c r="H33" s="49" t="s">
         <v>117</v>
       </c>
     </row>
@@ -2747,7 +2750,7 @@
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="9" scale="32" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="49" fitToHeight="0" orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -2761,17 +2764,16 @@
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="70" workbookViewId="0">
       <pane xSplit="2" ySplit="5" topLeftCell="C6" activePane="bottomRight" state="frozen"/>
-      <selection activeCell="B2" sqref="B2"/>
-      <selection pane="topRight" activeCell="B2" sqref="B2"/>
-      <selection pane="bottomLeft" activeCell="B2" sqref="B2"/>
-      <selection pane="bottomRight" activeCell="F17" sqref="F17"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="1.625" defaultRowHeight="13.5"/>
   <cols>
     <col min="2" max="2" width="4.25" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.625" customWidth="1"/>
-    <col min="4" max="4" width="25.625" style="51" customWidth="1"/>
+    <col min="4" max="4" width="25.625" style="46" customWidth="1"/>
     <col min="5" max="5" width="55.875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="108.5" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="27.25" customWidth="1"/>
@@ -2782,551 +2784,551 @@
       <c r="A2" s="8" t="s">
         <v>79</v>
       </c>
-      <c r="B2" s="59"/>
-      <c r="C2" s="59"/>
-      <c r="D2" s="59"/>
-      <c r="E2" s="59"/>
-      <c r="F2" s="59"/>
-      <c r="G2" s="59"/>
+      <c r="B2" s="53"/>
+      <c r="C2" s="53"/>
+      <c r="D2" s="53"/>
+      <c r="E2" s="53"/>
+      <c r="F2" s="53"/>
+      <c r="G2" s="53"/>
     </row>
     <row r="3" spans="1:9" ht="22.5">
-      <c r="B3" s="20" t="s">
+      <c r="B3" s="15" t="s">
         <v>84</v>
       </c>
-      <c r="C3" s="59"/>
-      <c r="D3" s="59"/>
-      <c r="E3" s="59"/>
-      <c r="F3" s="59"/>
-      <c r="G3" s="59"/>
+      <c r="C3" s="53"/>
+      <c r="D3" s="53"/>
+      <c r="E3" s="53"/>
+      <c r="F3" s="53"/>
+      <c r="G3" s="53"/>
     </row>
     <row r="4" spans="1:9" ht="3" customHeight="1">
-      <c r="B4" s="59"/>
-      <c r="C4" s="59"/>
-      <c r="D4" s="59"/>
-      <c r="E4" s="59"/>
-      <c r="F4" s="59"/>
-      <c r="G4" s="59"/>
+      <c r="B4" s="53"/>
+      <c r="C4" s="53"/>
+      <c r="D4" s="53"/>
+      <c r="E4" s="53"/>
+      <c r="F4" s="53"/>
+      <c r="G4" s="53"/>
     </row>
     <row r="5" spans="1:9" ht="56.25">
-      <c r="B5" s="25" t="s">
+      <c r="B5" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="26" t="s">
+      <c r="C5" s="21" t="s">
         <v>44</v>
       </c>
-      <c r="D5" s="26" t="s">
-        <v>246</v>
-      </c>
-      <c r="E5" s="25" t="s">
+      <c r="D5" s="21" t="s">
+        <v>244</v>
+      </c>
+      <c r="E5" s="20" t="s">
         <v>46</v>
       </c>
-      <c r="F5" s="25" t="s">
+      <c r="F5" s="20" t="s">
         <v>47</v>
       </c>
-      <c r="G5" s="25" t="s">
+      <c r="G5" s="20" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="30" customHeight="1">
-      <c r="B6" s="27">
+      <c r="B6" s="22">
         <v>1</v>
       </c>
-      <c r="C6" s="48" t="s">
+      <c r="C6" s="43" t="s">
         <v>45</v>
       </c>
-      <c r="D6" s="55" t="s">
+      <c r="D6" s="49" t="s">
         <v>197</v>
       </c>
-      <c r="E6" s="58" t="s">
+      <c r="E6" s="52" t="s">
         <v>198</v>
       </c>
-      <c r="F6" s="57" t="s">
+      <c r="F6" s="51" t="s">
         <v>199</v>
       </c>
-      <c r="G6" s="60" t="s">
+      <c r="G6" s="54" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="30" customHeight="1">
-      <c r="B7" s="27">
+      <c r="B7" s="22">
         <v>2</v>
       </c>
-      <c r="C7" s="48" t="s">
+      <c r="C7" s="43" t="s">
         <v>45</v>
       </c>
-      <c r="D7" s="55" t="s">
+      <c r="D7" s="49" t="s">
         <v>200</v>
       </c>
-      <c r="E7" s="58" t="s">
+      <c r="E7" s="52" t="s">
         <v>201</v>
       </c>
-      <c r="F7" s="57" t="s">
+      <c r="F7" s="51" t="s">
         <v>202</v>
       </c>
-      <c r="G7" s="60" t="s">
+      <c r="G7" s="54" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="30" customHeight="1">
-      <c r="B8" s="27">
+      <c r="B8" s="22">
         <v>3</v>
       </c>
-      <c r="C8" s="48" t="s">
+      <c r="C8" s="43" t="s">
         <v>45</v>
       </c>
-      <c r="D8" s="55" t="s">
+      <c r="D8" s="49" t="s">
         <v>203</v>
       </c>
-      <c r="E8" s="58" t="s">
+      <c r="E8" s="52" t="s">
         <v>24</v>
       </c>
-      <c r="F8" s="57">
+      <c r="F8" s="51">
         <v>5</v>
       </c>
-      <c r="G8" s="60" t="s">
+      <c r="G8" s="54" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="30" customHeight="1">
-      <c r="B9" s="27">
+      <c r="B9" s="22">
         <v>4</v>
       </c>
-      <c r="C9" s="48" t="s">
+      <c r="C9" s="43" t="s">
         <v>45</v>
       </c>
-      <c r="D9" s="55" t="s">
+      <c r="D9" s="49" t="s">
         <v>204</v>
       </c>
-      <c r="E9" s="58" t="s">
+      <c r="E9" s="52" t="s">
         <v>23</v>
       </c>
-      <c r="F9" s="57">
+      <c r="F9" s="51">
         <v>15</v>
       </c>
-      <c r="G9" s="60" t="s">
+      <c r="G9" s="54" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="30" customHeight="1">
-      <c r="B10" s="27">
+      <c r="B10" s="22">
         <v>5</v>
       </c>
-      <c r="C10" s="48" t="s">
+      <c r="C10" s="43" t="s">
         <v>45</v>
       </c>
-      <c r="D10" s="55" t="s">
+      <c r="D10" s="49" t="s">
         <v>205</v>
       </c>
-      <c r="E10" s="58" t="s">
+      <c r="E10" s="52" t="s">
         <v>22</v>
       </c>
-      <c r="F10" s="57" t="s">
+      <c r="F10" s="51" t="s">
         <v>206</v>
       </c>
-      <c r="G10" s="60" t="s">
+      <c r="G10" s="54" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="30" customHeight="1">
-      <c r="B11" s="27">
+      <c r="B11" s="22">
         <v>6</v>
       </c>
-      <c r="C11" s="48" t="s">
+      <c r="C11" s="43" t="s">
         <v>45</v>
       </c>
-      <c r="D11" s="55" t="s">
+      <c r="D11" s="49" t="s">
         <v>207</v>
       </c>
-      <c r="E11" s="58" t="s">
+      <c r="E11" s="52" t="s">
         <v>21</v>
       </c>
-      <c r="F11" s="57" t="s">
+      <c r="F11" s="51" t="s">
         <v>208</v>
       </c>
-      <c r="G11" s="60" t="s">
+      <c r="G11" s="54" t="s">
         <v>48</v>
       </c>
       <c r="I11" s="1"/>
     </row>
     <row r="12" spans="1:9" ht="30" customHeight="1">
-      <c r="B12" s="27">
+      <c r="B12" s="22">
         <v>7</v>
       </c>
-      <c r="C12" s="48" t="s">
+      <c r="C12" s="43" t="s">
         <v>45</v>
       </c>
-      <c r="D12" s="55" t="s">
+      <c r="D12" s="49" t="s">
         <v>209</v>
       </c>
-      <c r="E12" s="58" t="s">
+      <c r="E12" s="52" t="s">
         <v>20</v>
       </c>
-      <c r="F12" s="57" t="s">
+      <c r="F12" s="51" t="s">
         <v>210</v>
       </c>
-      <c r="G12" s="60" t="s">
+      <c r="G12" s="54" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="30" customHeight="1">
-      <c r="B13" s="27">
+      <c r="B13" s="22">
         <v>8</v>
       </c>
-      <c r="C13" s="48" t="s">
+      <c r="C13" s="43" t="s">
         <v>45</v>
       </c>
-      <c r="D13" s="55" t="s">
+      <c r="D13" s="49" t="s">
         <v>211</v>
       </c>
-      <c r="E13" s="58" t="s">
+      <c r="E13" s="52" t="s">
         <v>19</v>
       </c>
-      <c r="F13" s="57" t="s">
+      <c r="F13" s="51" t="s">
         <v>212</v>
       </c>
-      <c r="G13" s="60" t="s">
+      <c r="G13" s="54" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="30" customHeight="1">
-      <c r="B14" s="27">
+      <c r="B14" s="22">
         <v>9</v>
       </c>
-      <c r="C14" s="48" t="s">
+      <c r="C14" s="43" t="s">
         <v>45</v>
       </c>
-      <c r="D14" s="55" t="s">
+      <c r="D14" s="49" t="s">
         <v>213</v>
       </c>
-      <c r="E14" s="58" t="s">
+      <c r="E14" s="52" t="s">
         <v>214</v>
       </c>
-      <c r="F14" s="57" t="b">
+      <c r="F14" s="51" t="b">
         <v>0</v>
       </c>
-      <c r="G14" s="60" t="s">
+      <c r="G14" s="54" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="30" customHeight="1">
-      <c r="B15" s="27">
+      <c r="B15" s="22">
         <v>10</v>
       </c>
-      <c r="C15" s="48" t="s">
+      <c r="C15" s="43" t="s">
         <v>45</v>
       </c>
-      <c r="D15" s="55" t="s">
+      <c r="D15" s="49" t="s">
         <v>215</v>
       </c>
-      <c r="E15" s="58" t="s">
+      <c r="E15" s="52" t="s">
         <v>18</v>
       </c>
-      <c r="F15" s="57" t="s">
+      <c r="F15" s="51" t="s">
         <v>216</v>
       </c>
-      <c r="G15" s="60" t="s">
+      <c r="G15" s="54" t="s">
         <v>48</v>
       </c>
       <c r="I15" s="1"/>
     </row>
     <row r="16" spans="1:9" ht="30" customHeight="1">
-      <c r="B16" s="27">
+      <c r="B16" s="22">
         <v>11</v>
       </c>
-      <c r="C16" s="48" t="s">
+      <c r="C16" s="43" t="s">
         <v>45</v>
       </c>
-      <c r="D16" s="55" t="s">
+      <c r="D16" s="49" t="s">
         <v>217</v>
       </c>
-      <c r="E16" s="58" t="s">
+      <c r="E16" s="52" t="s">
         <v>17</v>
       </c>
-      <c r="F16" s="57">
+      <c r="F16" s="51">
         <v>60</v>
       </c>
-      <c r="G16" s="28" t="s">
+      <c r="G16" s="23" t="s">
+        <v>243</v>
+      </c>
+      <c r="I16" s="1"/>
+    </row>
+    <row r="17" spans="2:7" ht="30" customHeight="1">
+      <c r="B17" s="22">
+        <v>12</v>
+      </c>
+      <c r="C17" s="43" t="s">
+        <v>45</v>
+      </c>
+      <c r="D17" s="49" t="s">
+        <v>218</v>
+      </c>
+      <c r="E17" s="52" t="s">
+        <v>219</v>
+      </c>
+      <c r="F17" s="51" t="s">
+        <v>220</v>
+      </c>
+      <c r="G17" s="54" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="18" spans="2:7" ht="30" customHeight="1">
+      <c r="B18" s="22">
+        <v>13</v>
+      </c>
+      <c r="C18" s="43" t="s">
+        <v>45</v>
+      </c>
+      <c r="D18" s="49" t="s">
+        <v>221</v>
+      </c>
+      <c r="E18" s="52" t="s">
+        <v>222</v>
+      </c>
+      <c r="F18" s="51" t="b">
+        <v>0</v>
+      </c>
+      <c r="G18" s="23" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="19" spans="2:7" ht="30" customHeight="1">
+      <c r="B19" s="22">
+        <v>14</v>
+      </c>
+      <c r="C19" s="43" t="s">
+        <v>45</v>
+      </c>
+      <c r="D19" s="49" t="s">
+        <v>223</v>
+      </c>
+      <c r="E19" s="52" t="s">
+        <v>16</v>
+      </c>
+      <c r="F19" s="51" t="s">
+        <v>224</v>
+      </c>
+      <c r="G19" s="54" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="20" spans="2:7" ht="30" customHeight="1">
+      <c r="B20" s="22">
+        <v>15</v>
+      </c>
+      <c r="C20" s="43" t="s">
+        <v>45</v>
+      </c>
+      <c r="D20" s="49" t="s">
+        <v>225</v>
+      </c>
+      <c r="E20" s="52" t="s">
+        <v>15</v>
+      </c>
+      <c r="F20" s="51" t="s">
+        <v>226</v>
+      </c>
+      <c r="G20" s="54" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="21" spans="2:7" ht="30" customHeight="1">
+      <c r="B21" s="22">
+        <v>16</v>
+      </c>
+      <c r="C21" s="43" t="s">
+        <v>45</v>
+      </c>
+      <c r="D21" s="49" t="s">
+        <v>227</v>
+      </c>
+      <c r="E21" s="52" t="s">
+        <v>14</v>
+      </c>
+      <c r="F21" s="51" t="s">
+        <v>228</v>
+      </c>
+      <c r="G21" s="54" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="22" spans="2:7" ht="30" customHeight="1">
+      <c r="B22" s="22">
+        <v>17</v>
+      </c>
+      <c r="C22" s="43" t="s">
+        <v>45</v>
+      </c>
+      <c r="D22" s="49" t="s">
+        <v>229</v>
+      </c>
+      <c r="E22" s="52" t="s">
+        <v>13</v>
+      </c>
+      <c r="F22" s="51" t="s">
+        <v>230</v>
+      </c>
+      <c r="G22" s="54" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="23" spans="2:7" ht="30" customHeight="1">
+      <c r="B23" s="22">
+        <v>18</v>
+      </c>
+      <c r="C23" s="43" t="s">
+        <v>45</v>
+      </c>
+      <c r="D23" s="49" t="s">
+        <v>231</v>
+      </c>
+      <c r="E23" s="52" t="s">
+        <v>12</v>
+      </c>
+      <c r="F23" s="51" t="s">
+        <v>232</v>
+      </c>
+      <c r="G23" s="54" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="24" spans="2:7" ht="30" customHeight="1">
+      <c r="B24" s="22">
+        <v>19</v>
+      </c>
+      <c r="C24" s="43" t="s">
+        <v>45</v>
+      </c>
+      <c r="D24" s="49" t="s">
+        <v>233</v>
+      </c>
+      <c r="E24" s="52" t="s">
+        <v>11</v>
+      </c>
+      <c r="F24" s="51" t="s">
+        <v>234</v>
+      </c>
+      <c r="G24" s="54" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="25" spans="2:7" ht="30" customHeight="1">
+      <c r="B25" s="22">
+        <v>20</v>
+      </c>
+      <c r="C25" s="43" t="s">
+        <v>45</v>
+      </c>
+      <c r="D25" s="49" t="s">
+        <v>235</v>
+      </c>
+      <c r="E25" s="52" t="s">
+        <v>10</v>
+      </c>
+      <c r="F25" s="51" t="s">
+        <v>236</v>
+      </c>
+      <c r="G25" s="54" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="26" spans="2:7" ht="30" customHeight="1">
+      <c r="B26" s="22">
+        <v>21</v>
+      </c>
+      <c r="C26" s="43" t="s">
+        <v>45</v>
+      </c>
+      <c r="D26" s="49" t="s">
+        <v>237</v>
+      </c>
+      <c r="E26" s="52" t="s">
+        <v>238</v>
+      </c>
+      <c r="F26" s="61" t="s">
         <v>245</v>
       </c>
-      <c r="I16" s="1"/>
-    </row>
-    <row r="17" spans="2:7" ht="30" customHeight="1">
-      <c r="B17" s="27">
-        <v>12</v>
-      </c>
-      <c r="C17" s="48" t="s">
+      <c r="G26" s="23" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="27" spans="2:7" ht="30" customHeight="1">
+      <c r="B27" s="22">
+        <v>22</v>
+      </c>
+      <c r="C27" s="43" t="s">
         <v>45</v>
       </c>
-      <c r="D17" s="55" t="s">
-        <v>218</v>
-      </c>
-      <c r="E17" s="58" t="s">
-        <v>219</v>
-      </c>
-      <c r="F17" s="57" t="s">
-        <v>220</v>
-      </c>
-      <c r="G17" s="60" t="s">
+      <c r="D27" s="49" t="s">
+        <v>239</v>
+      </c>
+      <c r="E27" s="52" t="s">
+        <v>9</v>
+      </c>
+      <c r="F27" s="61">
+        <v>5099</v>
+      </c>
+      <c r="G27" s="54" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="18" spans="2:7" ht="30" customHeight="1">
-      <c r="B18" s="27">
-        <v>13</v>
-      </c>
-      <c r="C18" s="48" t="s">
+    <row r="28" spans="2:7" ht="30" customHeight="1">
+      <c r="B28" s="22">
+        <v>23</v>
+      </c>
+      <c r="C28" s="43" t="s">
         <v>45</v>
       </c>
-      <c r="D18" s="55" t="s">
-        <v>221</v>
-      </c>
-      <c r="E18" s="58" t="s">
-        <v>222</v>
-      </c>
-      <c r="F18" s="57" t="b">
-        <v>0</v>
-      </c>
-      <c r="G18" s="28" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="19" spans="2:7" ht="30" customHeight="1">
-      <c r="B19" s="27">
-        <v>14</v>
-      </c>
-      <c r="C19" s="48" t="s">
+      <c r="D28" s="49" t="s">
+        <v>240</v>
+      </c>
+      <c r="E28" s="52" t="s">
+        <v>8</v>
+      </c>
+      <c r="F28" s="61">
+        <v>30</v>
+      </c>
+      <c r="G28" s="54" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="29" spans="2:7" ht="30" customHeight="1">
+      <c r="B29" s="22">
+        <v>24</v>
+      </c>
+      <c r="C29" s="43" t="s">
         <v>45</v>
       </c>
-      <c r="D19" s="55" t="s">
-        <v>223</v>
-      </c>
-      <c r="E19" s="58" t="s">
-        <v>16</v>
-      </c>
-      <c r="F19" s="57" t="s">
-        <v>224</v>
-      </c>
-      <c r="G19" s="60" t="s">
+      <c r="D29" s="49" t="s">
+        <v>241</v>
+      </c>
+      <c r="E29" s="52" t="s">
+        <v>7</v>
+      </c>
+      <c r="F29" s="61">
+        <v>5</v>
+      </c>
+      <c r="G29" s="54" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="20" spans="2:7" ht="30" customHeight="1">
-      <c r="B20" s="27">
-        <v>15</v>
-      </c>
-      <c r="C20" s="48" t="s">
+    <row r="30" spans="2:7" ht="30" customHeight="1">
+      <c r="B30" s="22">
+        <v>25</v>
+      </c>
+      <c r="C30" s="43" t="s">
         <v>45</v>
       </c>
-      <c r="D20" s="55" t="s">
-        <v>225</v>
-      </c>
-      <c r="E20" s="58" t="s">
-        <v>15</v>
-      </c>
-      <c r="F20" s="57" t="s">
-        <v>226</v>
-      </c>
-      <c r="G20" s="60" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="21" spans="2:7" ht="30" customHeight="1">
-      <c r="B21" s="27">
-        <v>16</v>
-      </c>
-      <c r="C21" s="48" t="s">
-        <v>45</v>
-      </c>
-      <c r="D21" s="55" t="s">
-        <v>227</v>
-      </c>
-      <c r="E21" s="58" t="s">
-        <v>14</v>
-      </c>
-      <c r="F21" s="57" t="s">
-        <v>228</v>
-      </c>
-      <c r="G21" s="60" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="22" spans="2:7" ht="30" customHeight="1">
-      <c r="B22" s="27">
-        <v>17</v>
-      </c>
-      <c r="C22" s="48" t="s">
-        <v>45</v>
-      </c>
-      <c r="D22" s="55" t="s">
-        <v>229</v>
-      </c>
-      <c r="E22" s="58" t="s">
-        <v>13</v>
-      </c>
-      <c r="F22" s="57" t="s">
-        <v>230</v>
-      </c>
-      <c r="G22" s="60" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="23" spans="2:7" ht="30" customHeight="1">
-      <c r="B23" s="27">
-        <v>18</v>
-      </c>
-      <c r="C23" s="48" t="s">
-        <v>45</v>
-      </c>
-      <c r="D23" s="55" t="s">
-        <v>231</v>
-      </c>
-      <c r="E23" s="58" t="s">
-        <v>12</v>
-      </c>
-      <c r="F23" s="57" t="s">
-        <v>232</v>
-      </c>
-      <c r="G23" s="60" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="24" spans="2:7" ht="30" customHeight="1">
-      <c r="B24" s="27">
-        <v>19</v>
-      </c>
-      <c r="C24" s="48" t="s">
-        <v>45</v>
-      </c>
-      <c r="D24" s="55" t="s">
-        <v>233</v>
-      </c>
-      <c r="E24" s="58" t="s">
-        <v>11</v>
-      </c>
-      <c r="F24" s="57" t="s">
-        <v>234</v>
-      </c>
-      <c r="G24" s="60" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="25" spans="2:7" ht="30" customHeight="1">
-      <c r="B25" s="27">
-        <v>20</v>
-      </c>
-      <c r="C25" s="48" t="s">
-        <v>45</v>
-      </c>
-      <c r="D25" s="55" t="s">
-        <v>235</v>
-      </c>
-      <c r="E25" s="58" t="s">
-        <v>10</v>
-      </c>
-      <c r="F25" s="57" t="s">
-        <v>236</v>
-      </c>
-      <c r="G25" s="60" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="26" spans="2:7" ht="30" customHeight="1">
-      <c r="B26" s="27">
-        <v>21</v>
-      </c>
-      <c r="C26" s="48" t="s">
-        <v>45</v>
-      </c>
-      <c r="D26" s="55" t="s">
-        <v>237</v>
-      </c>
-      <c r="E26" s="58" t="s">
-        <v>238</v>
-      </c>
-      <c r="F26" s="57" t="s">
-        <v>239</v>
-      </c>
-      <c r="G26" s="28" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="27" spans="2:7" ht="30" customHeight="1">
-      <c r="B27" s="27">
-        <v>22</v>
-      </c>
-      <c r="C27" s="48" t="s">
-        <v>45</v>
-      </c>
-      <c r="D27" s="55" t="s">
-        <v>240</v>
-      </c>
-      <c r="E27" s="58" t="s">
-        <v>9</v>
-      </c>
-      <c r="F27" s="57" t="s">
-        <v>241</v>
-      </c>
-      <c r="G27" s="60" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="28" spans="2:7" ht="30" customHeight="1">
-      <c r="B28" s="27">
-        <v>23</v>
-      </c>
-      <c r="C28" s="48" t="s">
-        <v>45</v>
-      </c>
-      <c r="D28" s="55" t="s">
+      <c r="D30" s="49" t="s">
         <v>242</v>
       </c>
-      <c r="E28" s="58" t="s">
-        <v>8</v>
-      </c>
-      <c r="F28" s="57">
-        <v>5099</v>
-      </c>
-      <c r="G28" s="60" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="29" spans="2:7" ht="30" customHeight="1">
-      <c r="B29" s="27">
-        <v>24</v>
-      </c>
-      <c r="C29" s="48" t="s">
-        <v>45</v>
-      </c>
-      <c r="D29" s="55" t="s">
-        <v>243</v>
-      </c>
-      <c r="E29" s="58" t="s">
-        <v>7</v>
-      </c>
-      <c r="F29" s="57">
+      <c r="E30" s="52" t="s">
+        <v>6</v>
+      </c>
+      <c r="F30" s="61">
         <v>30</v>
       </c>
-      <c r="G29" s="60" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="30" spans="2:7" ht="30" customHeight="1">
-      <c r="B30" s="27">
-        <v>25</v>
-      </c>
-      <c r="C30" s="48" t="s">
-        <v>45</v>
-      </c>
-      <c r="D30" s="55" t="s">
-        <v>244</v>
-      </c>
-      <c r="E30" s="58" t="s">
-        <v>6</v>
-      </c>
-      <c r="F30" s="57">
-        <v>5</v>
-      </c>
-      <c r="G30" s="60" t="s">
+      <c r="G30" s="54" t="s">
         <v>48</v>
       </c>
     </row>
@@ -3392,7 +3394,7 @@
   <autoFilter ref="B5:G27"/>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="9" scale="38" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="57" fitToHeight="0" orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -3406,10 +3408,9 @@
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="70" workbookViewId="0">
       <pane xSplit="2" ySplit="6" topLeftCell="C7" activePane="bottomRight" state="frozen"/>
-      <selection activeCell="B2" sqref="B2"/>
-      <selection pane="topRight" activeCell="B2" sqref="B2"/>
-      <selection pane="bottomLeft" activeCell="B2" sqref="B2"/>
-      <selection pane="bottomRight" activeCell="A4" sqref="A4"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="1.625" defaultRowHeight="13.5"/>
@@ -3432,26 +3433,26 @@
       </c>
     </row>
     <row r="5" spans="1:11">
-      <c r="B5" s="15" t="s">
+      <c r="B5" s="56" t="s">
         <v>0</v>
       </c>
-      <c r="C5" s="17" t="s">
+      <c r="C5" s="58" t="s">
         <v>86</v>
       </c>
-      <c r="D5" s="18"/>
-      <c r="E5" s="18"/>
-      <c r="F5" s="18"/>
-      <c r="G5" s="18"/>
-      <c r="H5" s="19"/>
-      <c r="I5" s="15" t="s">
+      <c r="D5" s="59"/>
+      <c r="E5" s="59"/>
+      <c r="F5" s="59"/>
+      <c r="G5" s="59"/>
+      <c r="H5" s="60"/>
+      <c r="I5" s="56" t="s">
         <v>63</v>
       </c>
-      <c r="J5" s="15" t="s">
+      <c r="J5" s="56" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="6" spans="1:11">
-      <c r="B6" s="16"/>
+      <c r="B6" s="57"/>
       <c r="C6" s="2" t="s">
         <v>109</v>
       </c>
@@ -3470,8 +3471,8 @@
       <c r="H6" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="I6" s="16"/>
-      <c r="J6" s="16"/>
+      <c r="I6" s="57"/>
+      <c r="J6" s="57"/>
     </row>
     <row r="7" spans="1:11" ht="67.5" customHeight="1">
       <c r="B7" s="9">
@@ -3983,6 +3984,6 @@
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="9" scale="33" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="50" fitToHeight="0" orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>
--- a/asset/Documents/Exastro-ITA_[Reference]Configuration_settings_during_installation.xlsx
+++ b/asset/Documents/Exastro-ITA_[Reference]Configuration_settings_during_installation.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="153222"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11460"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11460" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="1. MariaDB(server.cnf)" sheetId="2" r:id="rId1"/>
@@ -293,12 +293,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>The execution time limit of data portability import process. 
-The process during execution will be determined as failed if the execution time passed the setting value.
-The unit is second.Default value is 300</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t xml:space="preserve">Describe the column to be excluded from the item display of substitution auto-registration setting.
 The line starting with "#" is ignored. </t>
     <phoneticPr fontId="1"/>
@@ -905,6 +899,12 @@
   </si>
   <si>
     <t xml:space="preserve"> -o ControlMaster=auto -o ControlPersist=60s -o StrictHostKeyChecking=no -o UserKnownHostsFile=/dev/null</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>The execution time limit of data portability import process. 
+The process during execution will be determined as failed if the execution time passed the setting value.
+The unit is second.Default value is 18000</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1339,6 +1339,9 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -1356,9 +1359,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1652,7 +1652,7 @@
   </sheetPr>
   <dimension ref="A1:K95"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="70" zoomScaleSheetLayoutView="85" workbookViewId="0">
+    <sheetView view="pageBreakPreview" zoomScale="85" zoomScaleNormal="70" zoomScaleSheetLayoutView="85" workbookViewId="0">
       <pane xSplit="2" ySplit="9" topLeftCell="D10" activePane="bottomRight" state="frozen"/>
       <selection activeCell="B2" sqref="B2"/>
       <selection pane="topRight" activeCell="B2" sqref="B2"/>
@@ -1676,27 +1676,27 @@
     <row r="1" spans="1:8" ht="3" customHeight="1"/>
     <row r="2" spans="1:8" ht="45.95" customHeight="1">
       <c r="A2" s="16" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="22.5">
       <c r="B3" s="15" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="22.5">
       <c r="B5" s="19" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="22.5">
       <c r="B6" s="19" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="22.5">
       <c r="B7" s="15" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="6" customHeight="1">
@@ -1710,7 +1710,7 @@
         <v>44</v>
       </c>
       <c r="D9" s="25" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E9" s="24" t="s">
         <v>39</v>
@@ -1719,7 +1719,7 @@
         <v>40</v>
       </c>
       <c r="G9" s="24" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="H9" s="24" t="s">
         <v>41</v>
@@ -1733,7 +1733,7 @@
         <v>36</v>
       </c>
       <c r="D10" s="28" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E10" s="29" t="s">
         <v>28</v>
@@ -1754,16 +1754,16 @@
         <v>36</v>
       </c>
       <c r="D11" s="28" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E11" s="29" t="s">
         <v>34</v>
       </c>
       <c r="F11" s="32" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="G11" s="32" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="H11" s="31"/>
     </row>
@@ -1775,16 +1775,16 @@
         <v>36</v>
       </c>
       <c r="D12" s="28" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E12" s="29" t="s">
         <v>33</v>
       </c>
       <c r="F12" s="33" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="G12" s="33" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="H12" s="31" t="s">
         <v>42</v>
@@ -1798,16 +1798,16 @@
         <v>38</v>
       </c>
       <c r="D13" s="35" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E13" s="36" t="s">
         <v>29</v>
       </c>
       <c r="F13" s="37" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="G13" s="38" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="H13" s="39" t="s">
         <v>43</v>
@@ -1821,16 +1821,16 @@
         <v>38</v>
       </c>
       <c r="D14" s="35" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E14" s="36" t="s">
         <v>30</v>
       </c>
       <c r="F14" s="37" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="G14" s="38" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="H14" s="39" t="s">
         <v>43</v>
@@ -1844,16 +1844,16 @@
         <v>38</v>
       </c>
       <c r="D15" s="35" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E15" s="36" t="s">
         <v>35</v>
       </c>
       <c r="F15" s="37" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="G15" s="38" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="H15" s="39" t="s">
         <v>43</v>
@@ -1867,7 +1867,7 @@
         <v>38</v>
       </c>
       <c r="D16" s="35" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E16" s="36">
         <v>0</v>
@@ -1890,16 +1890,16 @@
         <v>38</v>
       </c>
       <c r="D17" s="35" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E17" s="36" t="s">
         <v>31</v>
       </c>
       <c r="F17" s="37" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="G17" s="38" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="H17" s="39" t="s">
         <v>43</v>
@@ -1913,16 +1913,16 @@
         <v>38</v>
       </c>
       <c r="D18" s="35" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E18" s="36" t="s">
         <v>32</v>
       </c>
       <c r="F18" s="40" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="G18" s="38" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="H18" s="39" t="s">
         <v>43</v>
@@ -1936,7 +1936,7 @@
         <v>38</v>
       </c>
       <c r="D19" s="35" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E19" s="36" t="s">
         <v>28</v>
@@ -1957,16 +1957,16 @@
         <v>38</v>
       </c>
       <c r="D20" s="35" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E20" s="36" t="s">
         <v>30</v>
       </c>
       <c r="F20" s="37" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="G20" s="38" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="H20" s="39" t="s">
         <v>43</v>
@@ -1980,16 +1980,16 @@
         <v>38</v>
       </c>
       <c r="D21" s="35" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E21" s="36" t="s">
         <v>30</v>
       </c>
       <c r="F21" s="37" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="G21" s="38" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="H21" s="39" t="s">
         <v>43</v>
@@ -2003,16 +2003,16 @@
         <v>38</v>
       </c>
       <c r="D22" s="35" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E22" s="36" t="s">
         <v>31</v>
       </c>
       <c r="F22" s="37" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="G22" s="38" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="H22" s="39" t="s">
         <v>43</v>
@@ -2026,7 +2026,7 @@
         <v>38</v>
       </c>
       <c r="D23" s="35" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E23" s="36">
         <v>151</v>
@@ -2142,29 +2142,29 @@
     <row r="1" spans="1:8" ht="3" customHeight="1"/>
     <row r="2" spans="1:8" ht="35.25">
       <c r="A2" s="16" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B2" s="15"/>
     </row>
     <row r="3" spans="1:8" ht="36.950000000000003" customHeight="1">
       <c r="B3" s="42" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="11.1" customHeight="1"/>
     <row r="5" spans="1:8" ht="18.95" customHeight="1">
       <c r="B5" s="19" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="18.95" customHeight="1">
       <c r="B6" s="19" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="21" customHeight="1">
       <c r="B7" s="15" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="5.0999999999999996" customHeight="1"/>
@@ -2176,7 +2176,7 @@
         <v>49</v>
       </c>
       <c r="D9" s="25" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="E9" s="24" t="s">
         <v>46</v>
@@ -2185,7 +2185,7 @@
         <v>47</v>
       </c>
       <c r="G9" s="24" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="H9" s="24" t="s">
         <v>50</v>
@@ -2199,7 +2199,7 @@
         <v>37</v>
       </c>
       <c r="D10" s="35" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E10" s="37">
         <v>4096</v>
@@ -2222,16 +2222,16 @@
         <v>37</v>
       </c>
       <c r="D11" s="35" t="s">
+        <v>147</v>
+      </c>
+      <c r="E11" s="37" t="s">
         <v>148</v>
       </c>
-      <c r="E11" s="37" t="s">
+      <c r="F11" s="37" t="s">
         <v>149</v>
       </c>
-      <c r="F11" s="37" t="s">
-        <v>150</v>
-      </c>
       <c r="G11" s="37" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="H11" s="39" t="s">
         <v>52</v>
@@ -2245,7 +2245,7 @@
         <v>37</v>
       </c>
       <c r="D12" s="35" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E12" s="37">
         <v>30</v>
@@ -2268,7 +2268,7 @@
         <v>37</v>
       </c>
       <c r="D13" s="35" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="E13" s="37">
         <v>60</v>
@@ -2291,16 +2291,16 @@
         <v>37</v>
       </c>
       <c r="D14" s="35" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E14" s="37" t="s">
+        <v>139</v>
+      </c>
+      <c r="F14" s="37" t="s">
         <v>140</v>
       </c>
-      <c r="F14" s="37" t="s">
-        <v>141</v>
-      </c>
       <c r="G14" s="38" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="H14" s="39" t="s">
         <v>55</v>
@@ -2314,16 +2314,16 @@
         <v>37</v>
       </c>
       <c r="D15" s="35" t="s">
+        <v>153</v>
+      </c>
+      <c r="E15" s="37" t="s">
         <v>154</v>
       </c>
-      <c r="E15" s="37" t="s">
+      <c r="F15" s="37" t="s">
         <v>155</v>
       </c>
-      <c r="F15" s="37" t="s">
-        <v>156</v>
-      </c>
       <c r="G15" s="37" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="H15" s="39" t="s">
         <v>56</v>
@@ -2337,16 +2337,16 @@
         <v>37</v>
       </c>
       <c r="D16" s="35" t="s">
+        <v>156</v>
+      </c>
+      <c r="E16" s="37" t="s">
         <v>157</v>
       </c>
-      <c r="E16" s="37" t="s">
-        <v>158</v>
-      </c>
       <c r="F16" s="37" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="G16" s="37" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="H16" s="39" t="s">
         <v>57</v>
@@ -2360,7 +2360,7 @@
         <v>37</v>
       </c>
       <c r="D17" s="35" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E17" s="37">
         <v>60</v>
@@ -2383,16 +2383,16 @@
         <v>45</v>
       </c>
       <c r="D18" s="47" t="s">
+        <v>159</v>
+      </c>
+      <c r="E18" s="30" t="s">
         <v>160</v>
       </c>
-      <c r="E18" s="30" t="s">
+      <c r="F18" s="30" t="s">
         <v>161</v>
       </c>
-      <c r="F18" s="30" t="s">
-        <v>162</v>
-      </c>
       <c r="G18" s="30" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="H18" s="48"/>
     </row>
@@ -2404,7 +2404,7 @@
         <v>37</v>
       </c>
       <c r="D19" s="35" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E19" s="37">
         <v>2000</v>
@@ -2427,16 +2427,16 @@
         <v>45</v>
       </c>
       <c r="D20" s="47" t="s">
+        <v>163</v>
+      </c>
+      <c r="E20" s="30" t="s">
         <v>164</v>
       </c>
-      <c r="E20" s="30" t="s">
+      <c r="F20" s="30" t="s">
         <v>165</v>
       </c>
-      <c r="F20" s="30" t="s">
-        <v>166</v>
-      </c>
       <c r="G20" s="30" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="H20" s="31" t="s">
         <v>58</v>
@@ -2451,7 +2451,7 @@
         <v>37</v>
       </c>
       <c r="D21" s="35" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="E21" s="37">
         <v>2000</v>
@@ -2474,7 +2474,7 @@
         <v>37</v>
       </c>
       <c r="D22" s="35" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="E22" s="37">
         <v>60</v>
@@ -2497,16 +2497,16 @@
         <v>45</v>
       </c>
       <c r="D23" s="47" t="s">
+        <v>168</v>
+      </c>
+      <c r="E23" s="30" t="s">
         <v>169</v>
       </c>
-      <c r="E23" s="30" t="s">
+      <c r="F23" s="30" t="s">
         <v>170</v>
       </c>
-      <c r="F23" s="30" t="s">
-        <v>171</v>
-      </c>
       <c r="G23" s="30" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="H23" s="31" t="s">
         <v>59</v>
@@ -2520,7 +2520,7 @@
         <v>45</v>
       </c>
       <c r="D24" s="47" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="E24" s="30">
         <v>1000</v>
@@ -2531,7 +2531,7 @@
       <c r="G24" s="30">
         <v>1</v>
       </c>
-      <c r="H24" s="55" t="s">
+      <c r="H24" s="56" t="s">
         <v>62</v>
       </c>
     </row>
@@ -2543,7 +2543,7 @@
         <v>45</v>
       </c>
       <c r="D25" s="47" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="E25" s="30">
         <v>1440</v>
@@ -2554,7 +2554,7 @@
       <c r="G25" s="30">
         <v>43200</v>
       </c>
-      <c r="H25" s="55"/>
+      <c r="H25" s="56"/>
     </row>
     <row r="26" spans="2:10" ht="45" customHeight="1">
       <c r="B26" s="26">
@@ -2564,16 +2564,16 @@
         <v>45</v>
       </c>
       <c r="D26" s="47" t="s">
+        <v>173</v>
+      </c>
+      <c r="E26" s="30" t="s">
         <v>174</v>
       </c>
-      <c r="E26" s="30" t="s">
+      <c r="F26" s="30" t="s">
         <v>175</v>
       </c>
-      <c r="F26" s="30" t="s">
-        <v>176</v>
-      </c>
       <c r="G26" s="30" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="H26" s="49" t="s">
         <v>60</v>
@@ -2587,16 +2587,16 @@
         <v>45</v>
       </c>
       <c r="D27" s="47" t="s">
+        <v>176</v>
+      </c>
+      <c r="E27" s="30" t="s">
         <v>177</v>
       </c>
-      <c r="E27" s="30" t="s">
+      <c r="F27" s="30" t="s">
         <v>178</v>
       </c>
-      <c r="F27" s="30" t="s">
-        <v>179</v>
-      </c>
       <c r="G27" s="30" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="H27" s="49" t="s">
         <v>61</v>
@@ -2611,16 +2611,16 @@
         <v>45</v>
       </c>
       <c r="D28" s="47" t="s">
+        <v>179</v>
+      </c>
+      <c r="E28" s="30" t="s">
         <v>180</v>
       </c>
-      <c r="E28" s="30" t="s">
+      <c r="F28" s="30" t="s">
         <v>181</v>
       </c>
-      <c r="F28" s="30" t="s">
-        <v>182</v>
-      </c>
       <c r="G28" s="30" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="H28" s="49" t="s">
         <v>61</v>
@@ -2635,16 +2635,16 @@
         <v>45</v>
       </c>
       <c r="D29" s="47" t="s">
+        <v>182</v>
+      </c>
+      <c r="E29" s="30" t="s">
         <v>183</v>
       </c>
-      <c r="E29" s="30" t="s">
-        <v>184</v>
-      </c>
       <c r="F29" s="30" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="G29" s="30" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="H29" s="49" t="s">
         <v>61</v>
@@ -2658,16 +2658,16 @@
         <v>45</v>
       </c>
       <c r="D30" s="47" t="s">
+        <v>184</v>
+      </c>
+      <c r="E30" s="30" t="s">
         <v>185</v>
       </c>
-      <c r="E30" s="30" t="s">
-        <v>186</v>
-      </c>
       <c r="F30" s="30" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="G30" s="30" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="H30" s="49" t="s">
         <v>60</v>
@@ -2681,16 +2681,16 @@
         <v>45</v>
       </c>
       <c r="D31" s="47" t="s">
+        <v>186</v>
+      </c>
+      <c r="E31" s="30" t="s">
         <v>187</v>
       </c>
-      <c r="E31" s="30" t="s">
-        <v>188</v>
-      </c>
       <c r="F31" s="30" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="G31" s="30" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="H31" s="49" t="s">
         <v>60</v>
@@ -2704,16 +2704,16 @@
         <v>45</v>
       </c>
       <c r="D32" s="47" t="s">
+        <v>188</v>
+      </c>
+      <c r="E32" s="30" t="s">
         <v>189</v>
       </c>
-      <c r="E32" s="30" t="s">
+      <c r="F32" s="30" t="s">
         <v>190</v>
       </c>
-      <c r="F32" s="30" t="s">
-        <v>191</v>
-      </c>
       <c r="G32" s="30" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="H32" s="49" t="s">
         <v>60</v>
@@ -2727,19 +2727,19 @@
         <v>36</v>
       </c>
       <c r="D33" s="47" t="s">
+        <v>191</v>
+      </c>
+      <c r="E33" s="50" t="s">
+        <v>193</v>
+      </c>
+      <c r="F33" s="50" t="s">
         <v>192</v>
       </c>
-      <c r="E33" s="50" t="s">
-        <v>194</v>
-      </c>
-      <c r="F33" s="50" t="s">
-        <v>193</v>
-      </c>
       <c r="G33" s="50" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="H33" s="49" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="34" spans="2:8" ht="45" customHeight="1"/>
@@ -2782,7 +2782,7 @@
     <row r="1" spans="1:9" ht="3" customHeight="1"/>
     <row r="2" spans="1:9" ht="25.5">
       <c r="A2" s="8" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B2" s="53"/>
       <c r="C2" s="53"/>
@@ -2793,7 +2793,7 @@
     </row>
     <row r="3" spans="1:9" ht="22.5">
       <c r="B3" s="15" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C3" s="53"/>
       <c r="D3" s="53"/>
@@ -2817,7 +2817,7 @@
         <v>44</v>
       </c>
       <c r="D5" s="21" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="E5" s="20" t="s">
         <v>46</v>
@@ -2837,13 +2837,13 @@
         <v>45</v>
       </c>
       <c r="D6" s="49" t="s">
+        <v>196</v>
+      </c>
+      <c r="E6" s="52" t="s">
         <v>197</v>
       </c>
-      <c r="E6" s="52" t="s">
+      <c r="F6" s="51" t="s">
         <v>198</v>
-      </c>
-      <c r="F6" s="51" t="s">
-        <v>199</v>
       </c>
       <c r="G6" s="54" t="s">
         <v>48</v>
@@ -2857,13 +2857,13 @@
         <v>45</v>
       </c>
       <c r="D7" s="49" t="s">
+        <v>199</v>
+      </c>
+      <c r="E7" s="52" t="s">
         <v>200</v>
       </c>
-      <c r="E7" s="52" t="s">
+      <c r="F7" s="51" t="s">
         <v>201</v>
-      </c>
-      <c r="F7" s="51" t="s">
-        <v>202</v>
       </c>
       <c r="G7" s="54" t="s">
         <v>48</v>
@@ -2877,7 +2877,7 @@
         <v>45</v>
       </c>
       <c r="D8" s="49" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="E8" s="52" t="s">
         <v>24</v>
@@ -2897,7 +2897,7 @@
         <v>45</v>
       </c>
       <c r="D9" s="49" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="E9" s="52" t="s">
         <v>23</v>
@@ -2917,13 +2917,13 @@
         <v>45</v>
       </c>
       <c r="D10" s="49" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="E10" s="52" t="s">
         <v>22</v>
       </c>
       <c r="F10" s="51" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="G10" s="54" t="s">
         <v>48</v>
@@ -2937,13 +2937,13 @@
         <v>45</v>
       </c>
       <c r="D11" s="49" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="E11" s="52" t="s">
         <v>21</v>
       </c>
       <c r="F11" s="51" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="G11" s="54" t="s">
         <v>48</v>
@@ -2958,13 +2958,13 @@
         <v>45</v>
       </c>
       <c r="D12" s="49" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="E12" s="52" t="s">
         <v>20</v>
       </c>
       <c r="F12" s="51" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="G12" s="54" t="s">
         <v>48</v>
@@ -2978,13 +2978,13 @@
         <v>45</v>
       </c>
       <c r="D13" s="49" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="E13" s="52" t="s">
         <v>19</v>
       </c>
       <c r="F13" s="51" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="G13" s="54" t="s">
         <v>48</v>
@@ -2998,10 +2998,10 @@
         <v>45</v>
       </c>
       <c r="D14" s="49" t="s">
+        <v>212</v>
+      </c>
+      <c r="E14" s="52" t="s">
         <v>213</v>
-      </c>
-      <c r="E14" s="52" t="s">
-        <v>214</v>
       </c>
       <c r="F14" s="51" t="b">
         <v>0</v>
@@ -3018,13 +3018,13 @@
         <v>45</v>
       </c>
       <c r="D15" s="49" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="E15" s="52" t="s">
         <v>18</v>
       </c>
       <c r="F15" s="51" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="G15" s="54" t="s">
         <v>48</v>
@@ -3039,7 +3039,7 @@
         <v>45</v>
       </c>
       <c r="D16" s="49" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="E16" s="52" t="s">
         <v>17</v>
@@ -3048,7 +3048,7 @@
         <v>60</v>
       </c>
       <c r="G16" s="23" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="I16" s="1"/>
     </row>
@@ -3060,13 +3060,13 @@
         <v>45</v>
       </c>
       <c r="D17" s="49" t="s">
+        <v>217</v>
+      </c>
+      <c r="E17" s="52" t="s">
         <v>218</v>
       </c>
-      <c r="E17" s="52" t="s">
+      <c r="F17" s="51" t="s">
         <v>219</v>
-      </c>
-      <c r="F17" s="51" t="s">
-        <v>220</v>
       </c>
       <c r="G17" s="54" t="s">
         <v>48</v>
@@ -3080,16 +3080,16 @@
         <v>45</v>
       </c>
       <c r="D18" s="49" t="s">
+        <v>220</v>
+      </c>
+      <c r="E18" s="52" t="s">
         <v>221</v>
-      </c>
-      <c r="E18" s="52" t="s">
-        <v>222</v>
       </c>
       <c r="F18" s="51" t="b">
         <v>0</v>
       </c>
       <c r="G18" s="23" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="19" spans="2:7" ht="30" customHeight="1">
@@ -3100,13 +3100,13 @@
         <v>45</v>
       </c>
       <c r="D19" s="49" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="E19" s="52" t="s">
         <v>16</v>
       </c>
       <c r="F19" s="51" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="G19" s="54" t="s">
         <v>48</v>
@@ -3120,13 +3120,13 @@
         <v>45</v>
       </c>
       <c r="D20" s="49" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="E20" s="52" t="s">
         <v>15</v>
       </c>
       <c r="F20" s="51" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="G20" s="54" t="s">
         <v>48</v>
@@ -3140,13 +3140,13 @@
         <v>45</v>
       </c>
       <c r="D21" s="49" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="E21" s="52" t="s">
         <v>14</v>
       </c>
       <c r="F21" s="51" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="G21" s="54" t="s">
         <v>48</v>
@@ -3160,13 +3160,13 @@
         <v>45</v>
       </c>
       <c r="D22" s="49" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="E22" s="52" t="s">
         <v>13</v>
       </c>
       <c r="F22" s="51" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="G22" s="54" t="s">
         <v>48</v>
@@ -3180,13 +3180,13 @@
         <v>45</v>
       </c>
       <c r="D23" s="49" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="E23" s="52" t="s">
         <v>12</v>
       </c>
       <c r="F23" s="51" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="G23" s="54" t="s">
         <v>48</v>
@@ -3200,13 +3200,13 @@
         <v>45</v>
       </c>
       <c r="D24" s="49" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="E24" s="52" t="s">
         <v>11</v>
       </c>
       <c r="F24" s="51" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="G24" s="54" t="s">
         <v>48</v>
@@ -3220,13 +3220,13 @@
         <v>45</v>
       </c>
       <c r="D25" s="49" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E25" s="52" t="s">
         <v>10</v>
       </c>
       <c r="F25" s="51" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="G25" s="54" t="s">
         <v>48</v>
@@ -3240,16 +3240,16 @@
         <v>45</v>
       </c>
       <c r="D26" s="49" t="s">
+        <v>236</v>
+      </c>
+      <c r="E26" s="52" t="s">
         <v>237</v>
       </c>
-      <c r="E26" s="52" t="s">
-        <v>238</v>
-      </c>
-      <c r="F26" s="61" t="s">
-        <v>245</v>
+      <c r="F26" s="55" t="s">
+        <v>244</v>
       </c>
       <c r="G26" s="23" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="27" spans="2:7" ht="30" customHeight="1">
@@ -3260,12 +3260,12 @@
         <v>45</v>
       </c>
       <c r="D27" s="49" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="E27" s="52" t="s">
         <v>9</v>
       </c>
-      <c r="F27" s="61">
+      <c r="F27" s="55">
         <v>5099</v>
       </c>
       <c r="G27" s="54" t="s">
@@ -3280,12 +3280,12 @@
         <v>45</v>
       </c>
       <c r="D28" s="49" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="E28" s="52" t="s">
         <v>8</v>
       </c>
-      <c r="F28" s="61">
+      <c r="F28" s="55">
         <v>30</v>
       </c>
       <c r="G28" s="54" t="s">
@@ -3300,12 +3300,12 @@
         <v>45</v>
       </c>
       <c r="D29" s="49" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="E29" s="52" t="s">
         <v>7</v>
       </c>
-      <c r="F29" s="61">
+      <c r="F29" s="55">
         <v>5</v>
       </c>
       <c r="G29" s="54" t="s">
@@ -3320,12 +3320,12 @@
         <v>45</v>
       </c>
       <c r="D30" s="49" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="E30" s="52" t="s">
         <v>6</v>
       </c>
-      <c r="F30" s="61">
+      <c r="F30" s="55">
         <v>30</v>
       </c>
       <c r="G30" s="54" t="s">
@@ -3406,11 +3406,11 @@
   </sheetPr>
   <dimension ref="A1:K29"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="70" workbookViewId="0">
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="70" workbookViewId="0">
       <pane xSplit="2" ySplit="6" topLeftCell="C7" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight"/>
+      <selection pane="bottomRight" activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="1.625" defaultRowHeight="13.5"/>
@@ -3423,38 +3423,38 @@
   <sheetData>
     <row r="1" spans="1:11" ht="25.5">
       <c r="A1" s="8" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="5.0999999999999996" customHeight="1"/>
     <row r="3" spans="1:11" ht="17.25">
       <c r="B3" s="3" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
+      <c r="B5" s="57" t="s">
+        <v>0</v>
+      </c>
+      <c r="C5" s="59" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="5" spans="1:11">
-      <c r="B5" s="56" t="s">
-        <v>0</v>
-      </c>
-      <c r="C5" s="58" t="s">
-        <v>86</v>
-      </c>
-      <c r="D5" s="59"/>
-      <c r="E5" s="59"/>
-      <c r="F5" s="59"/>
-      <c r="G5" s="59"/>
-      <c r="H5" s="60"/>
-      <c r="I5" s="56" t="s">
+      <c r="D5" s="60"/>
+      <c r="E5" s="60"/>
+      <c r="F5" s="60"/>
+      <c r="G5" s="60"/>
+      <c r="H5" s="61"/>
+      <c r="I5" s="57" t="s">
         <v>63</v>
       </c>
-      <c r="J5" s="56" t="s">
+      <c r="J5" s="57" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="6" spans="1:11">
-      <c r="B6" s="57"/>
+      <c r="B6" s="58"/>
       <c r="C6" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>1</v>
@@ -3471,8 +3471,8 @@
       <c r="H6" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="I6" s="57"/>
-      <c r="J6" s="57"/>
+      <c r="I6" s="58"/>
+      <c r="J6" s="58"/>
     </row>
     <row r="7" spans="1:11" ht="67.5" customHeight="1">
       <c r="B7" s="9">
@@ -3487,7 +3487,7 @@
       <c r="G7" s="10"/>
       <c r="H7" s="10"/>
       <c r="I7" s="11" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="J7" s="4" t="s">
         <v>65</v>
@@ -3506,10 +3506,10 @@
       <c r="G8" s="10"/>
       <c r="H8" s="10"/>
       <c r="I8" s="11" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="J8" s="4" t="s">
-        <v>66</v>
+        <v>245</v>
       </c>
     </row>
     <row r="9" spans="1:11" ht="67.5" customHeight="1">
@@ -3531,10 +3531,10 @@
         <v>25</v>
       </c>
       <c r="I9" s="11" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="J9" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="10" spans="1:11" ht="67.5" customHeight="1">
@@ -3560,10 +3560,10 @@
         <v>25</v>
       </c>
       <c r="I10" s="11" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J10" s="4" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="11" spans="1:11" ht="67.5" customHeight="1">
@@ -3589,10 +3589,10 @@
         <v>25</v>
       </c>
       <c r="I11" s="11" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="J11" s="4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="12" spans="1:11" ht="67.5" customHeight="1">
@@ -3608,10 +3608,10 @@
       <c r="G12" s="10"/>
       <c r="H12" s="10"/>
       <c r="I12" s="11" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J12" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="13" spans="1:11" ht="110.1" customHeight="1">
@@ -3629,10 +3629,10 @@
         <v>25</v>
       </c>
       <c r="I13" s="11" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="J13" s="4" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="14" spans="1:11" ht="67.5" customHeight="1">
@@ -3648,10 +3648,10 @@
       <c r="G14" s="10"/>
       <c r="H14" s="10"/>
       <c r="I14" s="11" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="J14" s="4" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="K14" s="1"/>
     </row>
@@ -3674,10 +3674,10 @@
         <v>25</v>
       </c>
       <c r="I15" s="11" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="J15" s="4" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="16" spans="1:11" ht="67.5" customHeight="1">
@@ -3703,10 +3703,10 @@
         <v>25</v>
       </c>
       <c r="I16" s="11" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="J16" s="4" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="17" spans="2:11" ht="67.5" customHeight="1">
@@ -3732,10 +3732,10 @@
         <v>25</v>
       </c>
       <c r="I17" s="11" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="J17" s="5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="K17" s="1"/>
     </row>
@@ -3762,10 +3762,10 @@
         <v>25</v>
       </c>
       <c r="I18" s="11" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="J18" s="5" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="19" spans="2:11" ht="67.5" customHeight="1">
@@ -3791,10 +3791,10 @@
         <v>25</v>
       </c>
       <c r="I19" s="11" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="K19" s="1"/>
     </row>
@@ -3815,10 +3815,10 @@
         <v>25</v>
       </c>
       <c r="I20" s="11" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="21" spans="2:11" ht="54">
@@ -3834,10 +3834,10 @@
       <c r="G21" s="10"/>
       <c r="H21" s="10"/>
       <c r="I21" s="11" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="22" spans="2:11" ht="67.5" customHeight="1">
@@ -3853,10 +3853,10 @@
       <c r="G22" s="10"/>
       <c r="H22" s="10"/>
       <c r="I22" s="11" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="23" spans="2:11" ht="54">
@@ -3872,10 +3872,10 @@
       <c r="G23" s="10"/>
       <c r="H23" s="10"/>
       <c r="I23" s="11" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="J23" s="13" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="24" spans="2:11" ht="54">
@@ -3891,10 +3891,10 @@
       <c r="G24" s="10"/>
       <c r="H24" s="10"/>
       <c r="I24" s="11" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="25" spans="2:11" ht="18.75">
@@ -3902,7 +3902,7 @@
         <v>19</v>
       </c>
       <c r="C25" s="12" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D25" s="10"/>
       <c r="E25" s="10"/>
@@ -3910,10 +3910,10 @@
       <c r="G25" s="10"/>
       <c r="H25" s="10"/>
       <c r="I25" s="11" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="26" spans="2:11" ht="27">
@@ -3929,10 +3929,10 @@
       <c r="G26" s="10"/>
       <c r="H26" s="10"/>
       <c r="I26" s="11" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="27" spans="2:11" ht="27">
@@ -3958,20 +3958,20 @@
         <v>25</v>
       </c>
       <c r="I27" s="11" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="28" spans="2:11">
       <c r="J28" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="29" spans="2:11">
       <c r="J29" s="14" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
   </sheetData>

--- a/asset/Documents/Exastro-ITA_[Reference]Configuration_settings_during_installation.xlsx
+++ b/asset/Documents/Exastro-ITA_[Reference]Configuration_settings_during_installation.xlsx
@@ -433,9 +433,6 @@
     <t>(ITA installed directory)/ita-root/confs/restapiconfs/ansible_driver/ansible_playbook_watch_time.txt</t>
   </si>
   <si>
-    <t>(ITA installed directory)/ita-root/confs/commonconfs/admin_mail_addr.txt</t>
-  </si>
-  <si>
     <t>(ITA installed directory)/ita-root/confs/webconfs/ExternalAuthSettings.ini</t>
   </si>
   <si>
@@ -905,6 +902,10 @@
     <t>The execution time limit of data portability import process. 
 The process during execution will be determined as failed if the execution time passed the setting value.
 The unit is second.Default value is 18000</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>(ITA installed directory)/ita-root/confs/webconfs/admin_mail_addr.txt</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1691,7 +1692,7 @@
     </row>
     <row r="6" spans="1:8" ht="22.5">
       <c r="B6" s="19" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="22.5">
@@ -1710,7 +1711,7 @@
         <v>44</v>
       </c>
       <c r="D9" s="25" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E9" s="24" t="s">
         <v>39</v>
@@ -1719,7 +1720,7 @@
         <v>40</v>
       </c>
       <c r="G9" s="24" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="H9" s="24" t="s">
         <v>41</v>
@@ -1733,7 +1734,7 @@
         <v>36</v>
       </c>
       <c r="D10" s="28" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E10" s="29" t="s">
         <v>28</v>
@@ -1754,16 +1755,16 @@
         <v>36</v>
       </c>
       <c r="D11" s="28" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E11" s="29" t="s">
         <v>34</v>
       </c>
       <c r="F11" s="32" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="G11" s="32" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="H11" s="31"/>
     </row>
@@ -1775,16 +1776,16 @@
         <v>36</v>
       </c>
       <c r="D12" s="28" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E12" s="29" t="s">
         <v>33</v>
       </c>
       <c r="F12" s="33" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="G12" s="33" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="H12" s="31" t="s">
         <v>42</v>
@@ -1798,16 +1799,16 @@
         <v>38</v>
       </c>
       <c r="D13" s="35" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E13" s="36" t="s">
         <v>29</v>
       </c>
       <c r="F13" s="37" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="G13" s="38" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="H13" s="39" t="s">
         <v>43</v>
@@ -1821,16 +1822,16 @@
         <v>38</v>
       </c>
       <c r="D14" s="35" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E14" s="36" t="s">
         <v>30</v>
       </c>
       <c r="F14" s="37" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="G14" s="38" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="H14" s="39" t="s">
         <v>43</v>
@@ -1844,16 +1845,16 @@
         <v>38</v>
       </c>
       <c r="D15" s="35" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E15" s="36" t="s">
         <v>35</v>
       </c>
       <c r="F15" s="37" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="G15" s="38" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="H15" s="39" t="s">
         <v>43</v>
@@ -1867,7 +1868,7 @@
         <v>38</v>
       </c>
       <c r="D16" s="35" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E16" s="36">
         <v>0</v>
@@ -1890,16 +1891,16 @@
         <v>38</v>
       </c>
       <c r="D17" s="35" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E17" s="36" t="s">
         <v>31</v>
       </c>
       <c r="F17" s="37" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="G17" s="38" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="H17" s="39" t="s">
         <v>43</v>
@@ -1913,16 +1914,16 @@
         <v>38</v>
       </c>
       <c r="D18" s="35" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E18" s="36" t="s">
         <v>32</v>
       </c>
       <c r="F18" s="40" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="G18" s="38" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="H18" s="39" t="s">
         <v>43</v>
@@ -1936,7 +1937,7 @@
         <v>38</v>
       </c>
       <c r="D19" s="35" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E19" s="36" t="s">
         <v>28</v>
@@ -1957,16 +1958,16 @@
         <v>38</v>
       </c>
       <c r="D20" s="35" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E20" s="36" t="s">
         <v>30</v>
       </c>
       <c r="F20" s="37" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="G20" s="38" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="H20" s="39" t="s">
         <v>43</v>
@@ -1980,16 +1981,16 @@
         <v>38</v>
       </c>
       <c r="D21" s="35" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E21" s="36" t="s">
         <v>30</v>
       </c>
       <c r="F21" s="37" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="G21" s="38" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="H21" s="39" t="s">
         <v>43</v>
@@ -2003,16 +2004,16 @@
         <v>38</v>
       </c>
       <c r="D22" s="35" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E22" s="36" t="s">
         <v>31</v>
       </c>
       <c r="F22" s="37" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="G22" s="38" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="H22" s="39" t="s">
         <v>43</v>
@@ -2026,7 +2027,7 @@
         <v>38</v>
       </c>
       <c r="D23" s="35" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E23" s="36">
         <v>151</v>
@@ -2159,7 +2160,7 @@
     </row>
     <row r="6" spans="1:8" ht="18.95" customHeight="1">
       <c r="B6" s="19" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="21" customHeight="1">
@@ -2176,7 +2177,7 @@
         <v>49</v>
       </c>
       <c r="D9" s="25" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="E9" s="24" t="s">
         <v>46</v>
@@ -2185,7 +2186,7 @@
         <v>47</v>
       </c>
       <c r="G9" s="24" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="H9" s="24" t="s">
         <v>50</v>
@@ -2199,7 +2200,7 @@
         <v>37</v>
       </c>
       <c r="D10" s="35" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E10" s="37">
         <v>4096</v>
@@ -2222,16 +2223,16 @@
         <v>37</v>
       </c>
       <c r="D11" s="35" t="s">
+        <v>146</v>
+      </c>
+      <c r="E11" s="37" t="s">
         <v>147</v>
       </c>
-      <c r="E11" s="37" t="s">
+      <c r="F11" s="37" t="s">
         <v>148</v>
       </c>
-      <c r="F11" s="37" t="s">
-        <v>149</v>
-      </c>
       <c r="G11" s="37" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="H11" s="39" t="s">
         <v>52</v>
@@ -2245,7 +2246,7 @@
         <v>37</v>
       </c>
       <c r="D12" s="35" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E12" s="37">
         <v>30</v>
@@ -2268,7 +2269,7 @@
         <v>37</v>
       </c>
       <c r="D13" s="35" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E13" s="37">
         <v>60</v>
@@ -2291,16 +2292,16 @@
         <v>37</v>
       </c>
       <c r="D14" s="35" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="E14" s="37" t="s">
+        <v>138</v>
+      </c>
+      <c r="F14" s="37" t="s">
         <v>139</v>
       </c>
-      <c r="F14" s="37" t="s">
-        <v>140</v>
-      </c>
       <c r="G14" s="38" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="H14" s="39" t="s">
         <v>55</v>
@@ -2314,16 +2315,16 @@
         <v>37</v>
       </c>
       <c r="D15" s="35" t="s">
+        <v>152</v>
+      </c>
+      <c r="E15" s="37" t="s">
         <v>153</v>
       </c>
-      <c r="E15" s="37" t="s">
+      <c r="F15" s="37" t="s">
         <v>154</v>
       </c>
-      <c r="F15" s="37" t="s">
-        <v>155</v>
-      </c>
       <c r="G15" s="37" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="H15" s="39" t="s">
         <v>56</v>
@@ -2337,16 +2338,16 @@
         <v>37</v>
       </c>
       <c r="D16" s="35" t="s">
+        <v>155</v>
+      </c>
+      <c r="E16" s="37" t="s">
         <v>156</v>
       </c>
-      <c r="E16" s="37" t="s">
-        <v>157</v>
-      </c>
       <c r="F16" s="37" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="G16" s="37" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="H16" s="39" t="s">
         <v>57</v>
@@ -2360,7 +2361,7 @@
         <v>37</v>
       </c>
       <c r="D17" s="35" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E17" s="37">
         <v>60</v>
@@ -2383,16 +2384,16 @@
         <v>45</v>
       </c>
       <c r="D18" s="47" t="s">
+        <v>158</v>
+      </c>
+      <c r="E18" s="30" t="s">
         <v>159</v>
       </c>
-      <c r="E18" s="30" t="s">
+      <c r="F18" s="30" t="s">
         <v>160</v>
       </c>
-      <c r="F18" s="30" t="s">
-        <v>161</v>
-      </c>
       <c r="G18" s="30" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="H18" s="48"/>
     </row>
@@ -2404,7 +2405,7 @@
         <v>37</v>
       </c>
       <c r="D19" s="35" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E19" s="37">
         <v>2000</v>
@@ -2427,16 +2428,16 @@
         <v>45</v>
       </c>
       <c r="D20" s="47" t="s">
+        <v>162</v>
+      </c>
+      <c r="E20" s="30" t="s">
         <v>163</v>
       </c>
-      <c r="E20" s="30" t="s">
+      <c r="F20" s="30" t="s">
         <v>164</v>
       </c>
-      <c r="F20" s="30" t="s">
-        <v>165</v>
-      </c>
       <c r="G20" s="30" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="H20" s="31" t="s">
         <v>58</v>
@@ -2451,7 +2452,7 @@
         <v>37</v>
       </c>
       <c r="D21" s="35" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="E21" s="37">
         <v>2000</v>
@@ -2474,7 +2475,7 @@
         <v>37</v>
       </c>
       <c r="D22" s="35" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="E22" s="37">
         <v>60</v>
@@ -2497,16 +2498,16 @@
         <v>45</v>
       </c>
       <c r="D23" s="47" t="s">
+        <v>167</v>
+      </c>
+      <c r="E23" s="30" t="s">
         <v>168</v>
       </c>
-      <c r="E23" s="30" t="s">
+      <c r="F23" s="30" t="s">
         <v>169</v>
       </c>
-      <c r="F23" s="30" t="s">
-        <v>170</v>
-      </c>
       <c r="G23" s="30" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="H23" s="31" t="s">
         <v>59</v>
@@ -2520,7 +2521,7 @@
         <v>45</v>
       </c>
       <c r="D24" s="47" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="E24" s="30">
         <v>1000</v>
@@ -2543,7 +2544,7 @@
         <v>45</v>
       </c>
       <c r="D25" s="47" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="E25" s="30">
         <v>1440</v>
@@ -2564,16 +2565,16 @@
         <v>45</v>
       </c>
       <c r="D26" s="47" t="s">
+        <v>172</v>
+      </c>
+      <c r="E26" s="30" t="s">
         <v>173</v>
       </c>
-      <c r="E26" s="30" t="s">
+      <c r="F26" s="30" t="s">
         <v>174</v>
       </c>
-      <c r="F26" s="30" t="s">
-        <v>175</v>
-      </c>
       <c r="G26" s="30" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="H26" s="49" t="s">
         <v>60</v>
@@ -2587,16 +2588,16 @@
         <v>45</v>
       </c>
       <c r="D27" s="47" t="s">
+        <v>175</v>
+      </c>
+      <c r="E27" s="30" t="s">
         <v>176</v>
       </c>
-      <c r="E27" s="30" t="s">
+      <c r="F27" s="30" t="s">
         <v>177</v>
       </c>
-      <c r="F27" s="30" t="s">
-        <v>178</v>
-      </c>
       <c r="G27" s="30" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="H27" s="49" t="s">
         <v>61</v>
@@ -2611,16 +2612,16 @@
         <v>45</v>
       </c>
       <c r="D28" s="47" t="s">
+        <v>178</v>
+      </c>
+      <c r="E28" s="30" t="s">
         <v>179</v>
       </c>
-      <c r="E28" s="30" t="s">
+      <c r="F28" s="30" t="s">
         <v>180</v>
       </c>
-      <c r="F28" s="30" t="s">
-        <v>181</v>
-      </c>
       <c r="G28" s="30" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="H28" s="49" t="s">
         <v>61</v>
@@ -2635,16 +2636,16 @@
         <v>45</v>
       </c>
       <c r="D29" s="47" t="s">
+        <v>181</v>
+      </c>
+      <c r="E29" s="30" t="s">
         <v>182</v>
       </c>
-      <c r="E29" s="30" t="s">
-        <v>183</v>
-      </c>
       <c r="F29" s="30" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="G29" s="30" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="H29" s="49" t="s">
         <v>61</v>
@@ -2658,16 +2659,16 @@
         <v>45</v>
       </c>
       <c r="D30" s="47" t="s">
+        <v>183</v>
+      </c>
+      <c r="E30" s="30" t="s">
         <v>184</v>
       </c>
-      <c r="E30" s="30" t="s">
-        <v>185</v>
-      </c>
       <c r="F30" s="30" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="G30" s="30" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="H30" s="49" t="s">
         <v>60</v>
@@ -2681,16 +2682,16 @@
         <v>45</v>
       </c>
       <c r="D31" s="47" t="s">
+        <v>185</v>
+      </c>
+      <c r="E31" s="30" t="s">
         <v>186</v>
       </c>
-      <c r="E31" s="30" t="s">
-        <v>187</v>
-      </c>
       <c r="F31" s="30" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="G31" s="30" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="H31" s="49" t="s">
         <v>60</v>
@@ -2704,16 +2705,16 @@
         <v>45</v>
       </c>
       <c r="D32" s="47" t="s">
+        <v>187</v>
+      </c>
+      <c r="E32" s="30" t="s">
         <v>188</v>
       </c>
-      <c r="E32" s="30" t="s">
+      <c r="F32" s="30" t="s">
         <v>189</v>
       </c>
-      <c r="F32" s="30" t="s">
-        <v>190</v>
-      </c>
       <c r="G32" s="30" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="H32" s="49" t="s">
         <v>60</v>
@@ -2727,19 +2728,19 @@
         <v>36</v>
       </c>
       <c r="D33" s="47" t="s">
+        <v>190</v>
+      </c>
+      <c r="E33" s="50" t="s">
+        <v>192</v>
+      </c>
+      <c r="F33" s="50" t="s">
         <v>191</v>
       </c>
-      <c r="E33" s="50" t="s">
-        <v>193</v>
-      </c>
-      <c r="F33" s="50" t="s">
-        <v>192</v>
-      </c>
       <c r="G33" s="50" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="H33" s="49" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="34" spans="2:8" ht="45" customHeight="1"/>
@@ -2817,7 +2818,7 @@
         <v>44</v>
       </c>
       <c r="D5" s="21" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="E5" s="20" t="s">
         <v>46</v>
@@ -2837,13 +2838,13 @@
         <v>45</v>
       </c>
       <c r="D6" s="49" t="s">
+        <v>195</v>
+      </c>
+      <c r="E6" s="52" t="s">
         <v>196</v>
       </c>
-      <c r="E6" s="52" t="s">
+      <c r="F6" s="51" t="s">
         <v>197</v>
-      </c>
-      <c r="F6" s="51" t="s">
-        <v>198</v>
       </c>
       <c r="G6" s="54" t="s">
         <v>48</v>
@@ -2857,13 +2858,13 @@
         <v>45</v>
       </c>
       <c r="D7" s="49" t="s">
+        <v>198</v>
+      </c>
+      <c r="E7" s="52" t="s">
         <v>199</v>
       </c>
-      <c r="E7" s="52" t="s">
+      <c r="F7" s="51" t="s">
         <v>200</v>
-      </c>
-      <c r="F7" s="51" t="s">
-        <v>201</v>
       </c>
       <c r="G7" s="54" t="s">
         <v>48</v>
@@ -2877,7 +2878,7 @@
         <v>45</v>
       </c>
       <c r="D8" s="49" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="E8" s="52" t="s">
         <v>24</v>
@@ -2897,7 +2898,7 @@
         <v>45</v>
       </c>
       <c r="D9" s="49" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="E9" s="52" t="s">
         <v>23</v>
@@ -2917,13 +2918,13 @@
         <v>45</v>
       </c>
       <c r="D10" s="49" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="E10" s="52" t="s">
         <v>22</v>
       </c>
       <c r="F10" s="51" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="G10" s="54" t="s">
         <v>48</v>
@@ -2937,13 +2938,13 @@
         <v>45</v>
       </c>
       <c r="D11" s="49" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="E11" s="52" t="s">
         <v>21</v>
       </c>
       <c r="F11" s="51" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="G11" s="54" t="s">
         <v>48</v>
@@ -2958,13 +2959,13 @@
         <v>45</v>
       </c>
       <c r="D12" s="49" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="E12" s="52" t="s">
         <v>20</v>
       </c>
       <c r="F12" s="51" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="G12" s="54" t="s">
         <v>48</v>
@@ -2978,13 +2979,13 @@
         <v>45</v>
       </c>
       <c r="D13" s="49" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="E13" s="52" t="s">
         <v>19</v>
       </c>
       <c r="F13" s="51" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="G13" s="54" t="s">
         <v>48</v>
@@ -2998,10 +2999,10 @@
         <v>45</v>
       </c>
       <c r="D14" s="49" t="s">
+        <v>211</v>
+      </c>
+      <c r="E14" s="52" t="s">
         <v>212</v>
-      </c>
-      <c r="E14" s="52" t="s">
-        <v>213</v>
       </c>
       <c r="F14" s="51" t="b">
         <v>0</v>
@@ -3018,13 +3019,13 @@
         <v>45</v>
       </c>
       <c r="D15" s="49" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="E15" s="52" t="s">
         <v>18</v>
       </c>
       <c r="F15" s="51" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="G15" s="54" t="s">
         <v>48</v>
@@ -3039,7 +3040,7 @@
         <v>45</v>
       </c>
       <c r="D16" s="49" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="E16" s="52" t="s">
         <v>17</v>
@@ -3048,7 +3049,7 @@
         <v>60</v>
       </c>
       <c r="G16" s="23" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="I16" s="1"/>
     </row>
@@ -3060,13 +3061,13 @@
         <v>45</v>
       </c>
       <c r="D17" s="49" t="s">
+        <v>216</v>
+      </c>
+      <c r="E17" s="52" t="s">
         <v>217</v>
       </c>
-      <c r="E17" s="52" t="s">
+      <c r="F17" s="51" t="s">
         <v>218</v>
-      </c>
-      <c r="F17" s="51" t="s">
-        <v>219</v>
       </c>
       <c r="G17" s="54" t="s">
         <v>48</v>
@@ -3080,16 +3081,16 @@
         <v>45</v>
       </c>
       <c r="D18" s="49" t="s">
+        <v>219</v>
+      </c>
+      <c r="E18" s="52" t="s">
         <v>220</v>
-      </c>
-      <c r="E18" s="52" t="s">
-        <v>221</v>
       </c>
       <c r="F18" s="51" t="b">
         <v>0</v>
       </c>
       <c r="G18" s="23" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="19" spans="2:7" ht="30" customHeight="1">
@@ -3100,13 +3101,13 @@
         <v>45</v>
       </c>
       <c r="D19" s="49" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="E19" s="52" t="s">
         <v>16</v>
       </c>
       <c r="F19" s="51" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="G19" s="54" t="s">
         <v>48</v>
@@ -3120,13 +3121,13 @@
         <v>45</v>
       </c>
       <c r="D20" s="49" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="E20" s="52" t="s">
         <v>15</v>
       </c>
       <c r="F20" s="51" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="G20" s="54" t="s">
         <v>48</v>
@@ -3140,13 +3141,13 @@
         <v>45</v>
       </c>
       <c r="D21" s="49" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="E21" s="52" t="s">
         <v>14</v>
       </c>
       <c r="F21" s="51" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="G21" s="54" t="s">
         <v>48</v>
@@ -3160,13 +3161,13 @@
         <v>45</v>
       </c>
       <c r="D22" s="49" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="E22" s="52" t="s">
         <v>13</v>
       </c>
       <c r="F22" s="51" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="G22" s="54" t="s">
         <v>48</v>
@@ -3180,13 +3181,13 @@
         <v>45</v>
       </c>
       <c r="D23" s="49" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="E23" s="52" t="s">
         <v>12</v>
       </c>
       <c r="F23" s="51" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="G23" s="54" t="s">
         <v>48</v>
@@ -3200,13 +3201,13 @@
         <v>45</v>
       </c>
       <c r="D24" s="49" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="E24" s="52" t="s">
         <v>11</v>
       </c>
       <c r="F24" s="51" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="G24" s="54" t="s">
         <v>48</v>
@@ -3220,13 +3221,13 @@
         <v>45</v>
       </c>
       <c r="D25" s="49" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E25" s="52" t="s">
         <v>10</v>
       </c>
       <c r="F25" s="51" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="G25" s="54" t="s">
         <v>48</v>
@@ -3240,16 +3241,16 @@
         <v>45</v>
       </c>
       <c r="D26" s="49" t="s">
+        <v>235</v>
+      </c>
+      <c r="E26" s="52" t="s">
         <v>236</v>
       </c>
-      <c r="E26" s="52" t="s">
-        <v>237</v>
-      </c>
       <c r="F26" s="55" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="G26" s="23" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="27" spans="2:7" ht="30" customHeight="1">
@@ -3260,7 +3261,7 @@
         <v>45</v>
       </c>
       <c r="D27" s="49" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="E27" s="52" t="s">
         <v>9</v>
@@ -3280,7 +3281,7 @@
         <v>45</v>
       </c>
       <c r="D28" s="49" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="E28" s="52" t="s">
         <v>8</v>
@@ -3300,7 +3301,7 @@
         <v>45</v>
       </c>
       <c r="D29" s="49" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="E29" s="52" t="s">
         <v>7</v>
@@ -3320,7 +3321,7 @@
         <v>45</v>
       </c>
       <c r="D30" s="49" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="E30" s="52" t="s">
         <v>6</v>
@@ -3407,10 +3408,10 @@
   <dimension ref="A1:K29"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="70" workbookViewId="0">
-      <pane xSplit="2" ySplit="6" topLeftCell="C7" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="6" topLeftCell="C23" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="J10" sqref="J10"/>
+      <selection pane="bottomRight" activeCell="I24" sqref="I24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="1.625" defaultRowHeight="13.5"/>
@@ -3454,7 +3455,7 @@
     <row r="6" spans="1:11">
       <c r="B6" s="58"/>
       <c r="C6" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>1</v>
@@ -3487,7 +3488,7 @@
       <c r="G7" s="10"/>
       <c r="H7" s="10"/>
       <c r="I7" s="11" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="J7" s="4" t="s">
         <v>65</v>
@@ -3509,7 +3510,7 @@
         <v>87</v>
       </c>
       <c r="J8" s="4" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="9" spans="1:11" ht="67.5" customHeight="1">
@@ -3563,7 +3564,7 @@
         <v>89</v>
       </c>
       <c r="J10" s="4" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="11" spans="1:11" ht="67.5" customHeight="1">
@@ -3632,7 +3633,7 @@
         <v>92</v>
       </c>
       <c r="J13" s="4" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="14" spans="1:11" ht="67.5" customHeight="1">
@@ -3706,7 +3707,7 @@
         <v>95</v>
       </c>
       <c r="J16" s="4" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="17" spans="2:11" ht="67.5" customHeight="1">
@@ -3818,7 +3819,7 @@
         <v>99</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="21" spans="2:11" ht="54">
@@ -3875,7 +3876,7 @@
         <v>102</v>
       </c>
       <c r="J23" s="13" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="24" spans="2:11" ht="54">
@@ -3891,7 +3892,7 @@
       <c r="G24" s="10"/>
       <c r="H24" s="10"/>
       <c r="I24" s="11" t="s">
-        <v>103</v>
+        <v>245</v>
       </c>
       <c r="J24" s="7" t="s">
         <v>72</v>
@@ -3910,10 +3911,10 @@
       <c r="G25" s="10"/>
       <c r="H25" s="10"/>
       <c r="I25" s="11" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="26" spans="2:11" ht="27">
@@ -3929,7 +3930,7 @@
       <c r="G26" s="10"/>
       <c r="H26" s="10"/>
       <c r="I26" s="11" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="J26" s="7" t="s">
         <v>71</v>
@@ -3958,20 +3959,20 @@
         <v>25</v>
       </c>
       <c r="I27" s="11" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="28" spans="2:11">
       <c r="J28" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="29" spans="2:11">
       <c r="J29" s="14" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
   </sheetData>

--- a/asset/Documents/Exastro-ITA_[Reference]Configuration_settings_during_installation.xlsx
+++ b/asset/Documents/Exastro-ITA_[Reference]Configuration_settings_during_installation.xlsx
@@ -4,23 +4,26 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="153222"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11460" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19176" windowHeight="6588"/>
   </bookViews>
   <sheets>
     <sheet name="1. MariaDB(server.cnf)" sheetId="2" r:id="rId1"/>
     <sheet name="2. PHP(php.ini)" sheetId="4" r:id="rId2"/>
     <sheet name="3. ansible.cfg" sheetId="3" r:id="rId3"/>
     <sheet name="4. ITA setting file description" sheetId="9" r:id="rId4"/>
+    <sheet name="5．php-fpm(www.conf)" sheetId="11" r:id="rId5"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'1. MariaDB(server.cnf)'!$B$9:$H$21</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'2. PHP(php.ini)'!$B$9:$H$32</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'3. ansible.cfg'!$B$5:$G$27</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'4. ITA setting file description'!$B$6:$K$6</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'5．php-fpm(www.conf)'!$B$10:$H$12</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">'1. MariaDB(server.cnf)'!$A$2:$H$23</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="1">'2. PHP(php.ini)'!$A$2:$H$33</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="1">'2. PHP(php.ini)'!$A$2:$H$34</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="2">'3. ansible.cfg'!$A$2:$G$30</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="3">'4. ITA setting file description'!$A$1:$J$30</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="4">'5．php-fpm(www.conf)'!$A$1:$H$12</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="1">'2. PHP(php.ini)'!$2:$9</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="2">'3. ansible.cfg'!$2:$5</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="3">'4. ITA setting file description'!$1:$6</definedName>
@@ -35,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="455" uniqueCount="246">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="488" uniqueCount="262">
   <si>
     <t>№</t>
     <phoneticPr fontId="1"/>
@@ -49,14 +52,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>OpenStack</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>DSC</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>№</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -123,10 +118,6 @@
   </si>
   <si>
     <t>○</t>
-  </si>
-  <si>
-    <t>AnsibleTower</t>
-    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>OFF</t>
@@ -191,10 +182,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>Consider tuning depending on how to use ITA</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>Required/
 For reference</t>
     <phoneticPr fontId="1"/>
@@ -225,46 +212,7 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>Consider tuning depending on how to use ITA</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t xml:space="preserve">Modify the setting to hide PHP version
-</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t xml:space="preserve">Consider the tuning if timeout occurs when using ITA
-</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t xml:space="preserve">Consider the tuning if timeout occurs when using ITA
-</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t xml:space="preserve">Consider the tuning if memory allocation is not enough for PHP when using ITA
-</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t xml:space="preserve">Consider the tuning if large capacity registered/updated can't be performed when using ITA 
-</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Consider the tuning according to the file size that users want to upload in ITA</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>ITA uses PHP with PDO to connect to MySQL</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t xml:space="preserve">The directory mentioned in the modification is required to be created in advance.
-The default directory(/tmp) is not recommended
-</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -276,11 +224,6 @@
     <phoneticPr fontId="5"/>
   </si>
   <si>
-    <t>Control garbage collection of PHP session file. 
-According to the setting on the left with the combination of the default value session.gc_probability = 1, the session file that passed 12 hours or more is in 100% probability to be performed garbage collection.</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>Setting file name</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -290,6 +233,12 @@
   </si>
   <si>
     <t>Define the root path of data relay storage in Cobbler server</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>The execution time limit of data portability import process. 
+The process during execution will be determined as failed if the execution time passed the setting value.
+The unit is second.Default value is 300</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -431,6 +380,9 @@
   </si>
   <si>
     <t>(ITA installed directory)/ita-root/confs/restapiconfs/ansible_driver/ansible_playbook_watch_time.txt</t>
+  </si>
+  <si>
+    <t>(ITA installed directory)/ita-root/confs/commonconfs/admin_mail_addr.txt</t>
   </si>
   <si>
     <t>(ITA installed directory)/ita-root/confs/webconfs/ExternalAuthSettings.ini</t>
@@ -650,9 +602,6 @@
     <t>pdo_mysql.default_socket</t>
   </si>
   <si>
-    <t>（値空白）</t>
-  </si>
-  <si>
     <t>/var/lib/mysql/mysql.sock</t>
   </si>
   <si>
@@ -737,10 +686,6 @@
     <t>yaml.so</t>
   </si>
   <si>
-    <t>（No such value）</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>Setting item</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -899,13 +844,132 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>The execution time limit of data portability import process. 
-The process during execution will be determined as failed if the execution time passed the setting value.
-The unit is second.Default value is 18000</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>(ITA installed directory)/ita-root/confs/webconfs/admin_mail_addr.txt</t>
+    <t>Tune to fit your ITA Environment if necessary</t>
+  </si>
+  <si>
+    <t>Change if you want to hide the PHP version.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Modify if timeout occurs when using ITA
+</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Modify if the current memory allocation is not enough for PHP when using ITA
+</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Modify if large capacity register/update operations can't be performed when using ITA 
+</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Modify according to the file size that users want to upload in ITA</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">The directory mentioned in the modification must be created in advance.
+It is not recommended that the user use the default directory, (/tmp).
+※Uncomment + Modify
+</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Control garbage collection of PHP session file. 
+According to the setting on the left Controls the PHP Session file GC (garbage collection).
+According to the settings on the left
+ (Combination of session.gc_probability = 1 and default values)
+ any session files that exceeds 12 hours will be put in to the GC with a 100% probability.with the combination of the default value session.gc_probability = 1, the session file that passed 12 hours or more is in 100% probability to be performed garbage collection.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>session.cookie_httponly</t>
+  </si>
+  <si>
+    <t>(No value)</t>
+  </si>
+  <si>
+    <t>(No value)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>※Add</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>（Blank）</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>php_admin_value[memory_limit]</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>128M</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2048M</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>php_value[session.save_path]</t>
+  </si>
+  <si>
+    <t>/var/lib/php/session</t>
+  </si>
+  <si>
+    <t>-</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Ansible Tower</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Terraform</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>CI/CD For IaC</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>5．php-fpm(www.conf) setting value modification list.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Deployed if running on RHEL8 type server.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>The following settings are set to run on an ITA System server with the minimum required specs. (CPU: Duo core / Memory: 4GB) 。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>The tuning values are catered to an ITA System server with the following specs: (CPU: Quad core / Memory: 8GB)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>※1  ITA system server = Basic ITA Configuration where Ansible servers and other driver servers are constructed seperately.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Tuning value</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Reference</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>(ITA install directory)/ita_sessions</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Change</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -913,7 +977,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="17">
+  <fonts count="18">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1032,6 +1096,13 @@
     </font>
     <font>
       <sz val="10"/>
+      <color rgb="FFFF0000"/>
+      <name val="メイリオ"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="9"/>
       <color rgb="FFFF0000"/>
       <name val="メイリオ"/>
       <family val="3"/>
@@ -1174,7 +1245,7 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="62">
+  <cellXfs count="79">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1340,8 +1411,59 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -1653,77 +1775,77 @@
   </sheetPr>
   <dimension ref="A1:K95"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScale="85" zoomScaleNormal="70" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <pane xSplit="2" ySplit="9" topLeftCell="D10" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="70" workbookViewId="0">
+      <pane xSplit="2" ySplit="9" topLeftCell="C10" activePane="bottomRight" state="frozen"/>
       <selection activeCell="B2" sqref="B2"/>
       <selection pane="topRight" activeCell="B2" sqref="B2"/>
       <selection pane="bottomLeft" activeCell="B2" sqref="B2"/>
-      <selection pane="bottomRight"/>
+      <selection pane="bottomRight" activeCell="E31" sqref="E31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="1.625" defaultRowHeight="18.75"/>
+  <sheetFormatPr defaultColWidth="1.6640625" defaultRowHeight="17.399999999999999"/>
   <cols>
-    <col min="1" max="1" width="1.625" style="17"/>
+    <col min="1" max="1" width="1.6640625" style="17"/>
     <col min="2" max="2" width="4" style="17" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.375" style="17" customWidth="1"/>
-    <col min="4" max="4" width="27.875" style="17" customWidth="1"/>
-    <col min="5" max="5" width="13.125" style="17" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="57.5" style="17" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="57.5" style="17" customWidth="1"/>
-    <col min="8" max="8" width="60.625" style="17" customWidth="1"/>
-    <col min="9" max="16384" width="1.625" style="17"/>
+    <col min="3" max="3" width="15.33203125" style="17" customWidth="1"/>
+    <col min="4" max="4" width="27.88671875" style="17" customWidth="1"/>
+    <col min="5" max="5" width="13.109375" style="17" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="57.44140625" style="17" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="57.44140625" style="17" customWidth="1"/>
+    <col min="8" max="8" width="60.6640625" style="17" customWidth="1"/>
+    <col min="9" max="16384" width="1.6640625" style="17"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="3" customHeight="1"/>
-    <row r="2" spans="1:8" ht="45.95" customHeight="1">
+    <row r="2" spans="1:8" ht="45.9" customHeight="1">
       <c r="A2" s="16" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" ht="22.5">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="21.6">
       <c r="B3" s="15" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" ht="22.5">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="21.6">
       <c r="B5" s="19" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" ht="22.5">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="21.6">
       <c r="B6" s="19" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" ht="22.5">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="21.6">
       <c r="B7" s="15" t="s">
-        <v>81</v>
+        <v>69</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="6" customHeight="1">
       <c r="B8" s="15"/>
     </row>
-    <row r="9" spans="1:8" ht="33">
+    <row r="9" spans="1:8" ht="32.4">
       <c r="B9" s="24" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C9" s="25" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="D9" s="25" t="s">
-        <v>118</v>
+        <v>107</v>
       </c>
       <c r="E9" s="24" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="F9" s="24" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="G9" s="24" t="s">
-        <v>143</v>
+        <v>132</v>
       </c>
       <c r="H9" s="24" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="30" customHeight="1">
@@ -1731,13 +1853,13 @@
         <v>1</v>
       </c>
       <c r="C10" s="27" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="D10" s="28" t="s">
-        <v>119</v>
+        <v>108</v>
       </c>
       <c r="E10" s="29" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="F10" s="30" t="b">
         <v>1</v>
@@ -1752,19 +1874,19 @@
         <v>2</v>
       </c>
       <c r="C11" s="27" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="D11" s="28" t="s">
-        <v>120</v>
+        <v>109</v>
       </c>
       <c r="E11" s="29" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="F11" s="32" t="s">
-        <v>133</v>
+        <v>122</v>
       </c>
       <c r="G11" s="32" t="s">
-        <v>133</v>
+        <v>122</v>
       </c>
       <c r="H11" s="31"/>
     </row>
@@ -1773,22 +1895,22 @@
         <v>3</v>
       </c>
       <c r="C12" s="27" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="D12" s="28" t="s">
-        <v>121</v>
+        <v>110</v>
       </c>
       <c r="E12" s="29" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="F12" s="33" t="s">
-        <v>134</v>
+        <v>123</v>
       </c>
       <c r="G12" s="33" t="s">
-        <v>134</v>
+        <v>123</v>
       </c>
       <c r="H12" s="31" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -1796,22 +1918,22 @@
         <v>4</v>
       </c>
       <c r="C13" s="34" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="D13" s="35" t="s">
-        <v>122</v>
+        <v>111</v>
       </c>
       <c r="E13" s="36" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="F13" s="37" t="s">
-        <v>135</v>
+        <v>124</v>
       </c>
       <c r="G13" s="38" t="s">
-        <v>140</v>
+        <v>129</v>
       </c>
       <c r="H13" s="39" t="s">
-        <v>43</v>
+        <v>231</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="30" customHeight="1">
@@ -1819,22 +1941,22 @@
         <v>5</v>
       </c>
       <c r="C14" s="34" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="D14" s="35" t="s">
-        <v>123</v>
+        <v>112</v>
       </c>
       <c r="E14" s="36" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="F14" s="37" t="s">
-        <v>136</v>
+        <v>125</v>
       </c>
       <c r="G14" s="38" t="s">
-        <v>138</v>
+        <v>127</v>
       </c>
       <c r="H14" s="39" t="s">
-        <v>43</v>
+        <v>231</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="30" customHeight="1">
@@ -1842,22 +1964,22 @@
         <v>6</v>
       </c>
       <c r="C15" s="34" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="D15" s="35" t="s">
-        <v>124</v>
+        <v>113</v>
       </c>
       <c r="E15" s="36" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="F15" s="37" t="s">
-        <v>137</v>
+        <v>126</v>
       </c>
       <c r="G15" s="38" t="s">
-        <v>141</v>
+        <v>130</v>
       </c>
       <c r="H15" s="39" t="s">
-        <v>43</v>
+        <v>231</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="30" customHeight="1">
@@ -1865,10 +1987,10 @@
         <v>7</v>
       </c>
       <c r="C16" s="34" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="D16" s="35" t="s">
-        <v>125</v>
+        <v>114</v>
       </c>
       <c r="E16" s="36">
         <v>0</v>
@@ -1880,7 +2002,7 @@
         <v>100</v>
       </c>
       <c r="H16" s="39" t="s">
-        <v>43</v>
+        <v>231</v>
       </c>
     </row>
     <row r="17" spans="2:8" ht="30" customHeight="1">
@@ -1888,22 +2010,22 @@
         <v>8</v>
       </c>
       <c r="C17" s="34" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="D17" s="35" t="s">
+        <v>115</v>
+      </c>
+      <c r="E17" s="36" t="s">
+        <v>28</v>
+      </c>
+      <c r="F17" s="37" t="s">
+        <v>127</v>
+      </c>
+      <c r="G17" s="38" t="s">
         <v>126</v>
       </c>
-      <c r="E17" s="36" t="s">
-        <v>31</v>
-      </c>
-      <c r="F17" s="37" t="s">
-        <v>138</v>
-      </c>
-      <c r="G17" s="38" t="s">
-        <v>137</v>
-      </c>
       <c r="H17" s="39" t="s">
-        <v>43</v>
+        <v>231</v>
       </c>
     </row>
     <row r="18" spans="2:8" ht="30" customHeight="1">
@@ -1911,22 +2033,22 @@
         <v>9</v>
       </c>
       <c r="C18" s="34" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="D18" s="35" t="s">
-        <v>127</v>
+        <v>116</v>
       </c>
       <c r="E18" s="36" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="F18" s="40" t="s">
-        <v>139</v>
+        <v>128</v>
       </c>
       <c r="G18" s="38" t="s">
-        <v>142</v>
+        <v>131</v>
       </c>
       <c r="H18" s="39" t="s">
-        <v>43</v>
+        <v>231</v>
       </c>
     </row>
     <row r="19" spans="2:8" ht="30" customHeight="1">
@@ -1934,13 +2056,13 @@
         <v>10</v>
       </c>
       <c r="C19" s="34" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="D19" s="35" t="s">
-        <v>128</v>
+        <v>117</v>
       </c>
       <c r="E19" s="36" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="F19" s="40">
         <v>1</v>
@@ -1955,22 +2077,22 @@
         <v>11</v>
       </c>
       <c r="C20" s="34" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="D20" s="35" t="s">
-        <v>129</v>
+        <v>118</v>
       </c>
       <c r="E20" s="36" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="F20" s="37" t="s">
-        <v>136</v>
+        <v>125</v>
       </c>
       <c r="G20" s="38" t="s">
-        <v>138</v>
+        <v>127</v>
       </c>
       <c r="H20" s="39" t="s">
-        <v>43</v>
+        <v>231</v>
       </c>
     </row>
     <row r="21" spans="2:8" ht="30" customHeight="1">
@@ -1978,22 +2100,22 @@
         <v>12</v>
       </c>
       <c r="C21" s="34" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="D21" s="35" t="s">
-        <v>130</v>
+        <v>119</v>
       </c>
       <c r="E21" s="36" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="F21" s="37" t="s">
-        <v>136</v>
+        <v>125</v>
       </c>
       <c r="G21" s="38" t="s">
-        <v>138</v>
+        <v>127</v>
       </c>
       <c r="H21" s="39" t="s">
-        <v>43</v>
+        <v>231</v>
       </c>
     </row>
     <row r="22" spans="2:8" ht="30" customHeight="1">
@@ -2001,22 +2123,22 @@
         <v>13</v>
       </c>
       <c r="C22" s="34" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="D22" s="35" t="s">
-        <v>131</v>
+        <v>120</v>
       </c>
       <c r="E22" s="36" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="F22" s="37" t="s">
-        <v>136</v>
+        <v>125</v>
       </c>
       <c r="G22" s="38" t="s">
-        <v>138</v>
+        <v>127</v>
       </c>
       <c r="H22" s="39" t="s">
-        <v>43</v>
+        <v>231</v>
       </c>
     </row>
     <row r="23" spans="2:8">
@@ -2024,10 +2146,10 @@
         <v>14</v>
       </c>
       <c r="C23" s="34" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="D23" s="35" t="s">
-        <v>132</v>
+        <v>121</v>
       </c>
       <c r="E23" s="36">
         <v>151</v>
@@ -2039,7 +2161,7 @@
         <v>5000</v>
       </c>
       <c r="H23" s="39" t="s">
-        <v>43</v>
+        <v>231</v>
       </c>
     </row>
     <row r="36" spans="10:11">
@@ -2118,78 +2240,78 @@
     <tabColor rgb="FFCC9900"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:J34"/>
+  <dimension ref="A1:J35"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="70" workbookViewId="0">
       <pane xSplit="2" ySplit="9" topLeftCell="C10" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight"/>
+      <selection pane="bottomRight" activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="1.625" defaultRowHeight="18.75"/>
+  <sheetFormatPr defaultColWidth="1.6640625" defaultRowHeight="17.399999999999999"/>
   <cols>
-    <col min="1" max="1" width="1.625" style="17"/>
+    <col min="1" max="1" width="1.6640625" style="17"/>
     <col min="2" max="2" width="4" style="17" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.875" style="17" customWidth="1"/>
-    <col min="4" max="4" width="35.25" style="17" customWidth="1"/>
-    <col min="5" max="5" width="45.625" style="17" customWidth="1"/>
-    <col min="6" max="6" width="55.625" style="17" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="55.625" style="17" customWidth="1"/>
-    <col min="8" max="8" width="60.625" style="17" customWidth="1"/>
-    <col min="9" max="16384" width="1.625" style="17"/>
+    <col min="3" max="3" width="12.88671875" style="17" customWidth="1"/>
+    <col min="4" max="4" width="35.21875" style="17" customWidth="1"/>
+    <col min="5" max="5" width="45.6640625" style="17" customWidth="1"/>
+    <col min="6" max="6" width="55.6640625" style="17" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="55.6640625" style="17" customWidth="1"/>
+    <col min="8" max="8" width="60.6640625" style="17" customWidth="1"/>
+    <col min="9" max="16384" width="1.6640625" style="17"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="3" customHeight="1"/>
-    <row r="2" spans="1:8" ht="35.25">
+    <row r="2" spans="1:8" ht="34.799999999999997">
       <c r="A2" s="16" t="s">
-        <v>78</v>
+        <v>66</v>
       </c>
       <c r="B2" s="15"/>
     </row>
-    <row r="3" spans="1:8" ht="36.950000000000003" customHeight="1">
+    <row r="3" spans="1:8" ht="36.9" customHeight="1">
       <c r="B3" s="42" t="s">
-        <v>82</v>
+        <v>70</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="11.1" customHeight="1"/>
-    <row r="5" spans="1:8" ht="18.95" customHeight="1">
+    <row r="5" spans="1:8" ht="18.899999999999999" customHeight="1">
       <c r="B5" s="19" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" ht="18.95" customHeight="1">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="18.899999999999999" customHeight="1">
       <c r="B6" s="19" t="s">
-        <v>144</v>
+        <v>133</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="21" customHeight="1">
       <c r="B7" s="15" t="s">
-        <v>81</v>
+        <v>69</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="5.0999999999999996" customHeight="1"/>
-    <row r="9" spans="1:8" ht="33">
+    <row r="9" spans="1:8" ht="48.6">
       <c r="B9" s="24" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C9" s="25" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="D9" s="25" t="s">
-        <v>193</v>
+        <v>180</v>
       </c>
       <c r="E9" s="24" t="s">
+        <v>42</v>
+      </c>
+      <c r="F9" s="24" t="s">
+        <v>43</v>
+      </c>
+      <c r="G9" s="24" t="s">
+        <v>181</v>
+      </c>
+      <c r="H9" s="24" t="s">
         <v>46</v>
-      </c>
-      <c r="F9" s="24" t="s">
-        <v>47</v>
-      </c>
-      <c r="G9" s="24" t="s">
-        <v>194</v>
-      </c>
-      <c r="H9" s="24" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="45" customHeight="1">
@@ -2197,10 +2319,10 @@
         <v>1</v>
       </c>
       <c r="C10" s="34" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="D10" s="35" t="s">
-        <v>145</v>
+        <v>134</v>
       </c>
       <c r="E10" s="37">
         <v>4096</v>
@@ -2212,7 +2334,7 @@
         <v>16384</v>
       </c>
       <c r="H10" s="39" t="s">
-        <v>51</v>
+        <v>231</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="45" customHeight="1">
@@ -2220,22 +2342,22 @@
         <v>2</v>
       </c>
       <c r="C11" s="34" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="D11" s="35" t="s">
-        <v>146</v>
+        <v>135</v>
       </c>
       <c r="E11" s="37" t="s">
-        <v>147</v>
+        <v>136</v>
       </c>
       <c r="F11" s="37" t="s">
-        <v>148</v>
+        <v>137</v>
       </c>
       <c r="G11" s="37" t="s">
-        <v>148</v>
+        <v>137</v>
       </c>
       <c r="H11" s="39" t="s">
-        <v>52</v>
+        <v>232</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="45" customHeight="1">
@@ -2243,10 +2365,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="34" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="D12" s="35" t="s">
-        <v>149</v>
+        <v>138</v>
       </c>
       <c r="E12" s="37">
         <v>30</v>
@@ -2258,7 +2380,7 @@
         <v>600</v>
       </c>
       <c r="H12" s="39" t="s">
-        <v>53</v>
+        <v>233</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="45" customHeight="1">
@@ -2266,10 +2388,10 @@
         <v>4</v>
       </c>
       <c r="C13" s="34" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="D13" s="35" t="s">
-        <v>150</v>
+        <v>139</v>
       </c>
       <c r="E13" s="37">
         <v>60</v>
@@ -2281,7 +2403,7 @@
         <v>600</v>
       </c>
       <c r="H13" s="39" t="s">
-        <v>54</v>
+        <v>233</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="45" customHeight="1">
@@ -2289,22 +2411,22 @@
         <v>5</v>
       </c>
       <c r="C14" s="34" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="D14" s="35" t="s">
-        <v>151</v>
+        <v>140</v>
       </c>
       <c r="E14" s="37" t="s">
-        <v>138</v>
+        <v>127</v>
       </c>
       <c r="F14" s="37" t="s">
-        <v>139</v>
+        <v>128</v>
       </c>
       <c r="G14" s="38" t="s">
-        <v>142</v>
+        <v>131</v>
       </c>
       <c r="H14" s="39" t="s">
-        <v>55</v>
+        <v>234</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="45" customHeight="1">
@@ -2312,22 +2434,22 @@
         <v>6</v>
       </c>
       <c r="C15" s="34" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="D15" s="35" t="s">
-        <v>152</v>
+        <v>141</v>
       </c>
       <c r="E15" s="37" t="s">
-        <v>153</v>
+        <v>142</v>
       </c>
       <c r="F15" s="37" t="s">
-        <v>154</v>
+        <v>143</v>
       </c>
       <c r="G15" s="37" t="s">
-        <v>154</v>
+        <v>143</v>
       </c>
       <c r="H15" s="39" t="s">
-        <v>56</v>
+        <v>235</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="45" customHeight="1">
@@ -2335,22 +2457,22 @@
         <v>7</v>
       </c>
       <c r="C16" s="34" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="D16" s="35" t="s">
-        <v>155</v>
+        <v>144</v>
       </c>
       <c r="E16" s="37" t="s">
-        <v>156</v>
+        <v>145</v>
       </c>
       <c r="F16" s="37" t="s">
-        <v>154</v>
+        <v>143</v>
       </c>
       <c r="G16" s="37" t="s">
-        <v>154</v>
+        <v>143</v>
       </c>
       <c r="H16" s="39" t="s">
-        <v>57</v>
+        <v>236</v>
       </c>
     </row>
     <row r="17" spans="2:10" ht="45" customHeight="1">
@@ -2358,10 +2480,10 @@
         <v>8</v>
       </c>
       <c r="C17" s="45" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="D17" s="35" t="s">
-        <v>157</v>
+        <v>146</v>
       </c>
       <c r="E17" s="37">
         <v>60</v>
@@ -2373,7 +2495,7 @@
         <v>600</v>
       </c>
       <c r="H17" s="39" t="s">
-        <v>51</v>
+        <v>231</v>
       </c>
     </row>
     <row r="18" spans="2:10" ht="45" customHeight="1">
@@ -2381,19 +2503,19 @@
         <v>9</v>
       </c>
       <c r="C18" s="44" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="D18" s="47" t="s">
-        <v>158</v>
+        <v>147</v>
       </c>
       <c r="E18" s="30" t="s">
-        <v>159</v>
+        <v>148</v>
       </c>
       <c r="F18" s="30" t="s">
-        <v>160</v>
+        <v>149</v>
       </c>
       <c r="G18" s="30" t="s">
-        <v>160</v>
+        <v>149</v>
       </c>
       <c r="H18" s="48"/>
     </row>
@@ -2402,10 +2524,10 @@
         <v>10</v>
       </c>
       <c r="C19" s="45" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="D19" s="35" t="s">
-        <v>161</v>
+        <v>150</v>
       </c>
       <c r="E19" s="37">
         <v>2000</v>
@@ -2417,7 +2539,7 @@
         <v>8000</v>
       </c>
       <c r="H19" s="39" t="s">
-        <v>51</v>
+        <v>231</v>
       </c>
     </row>
     <row r="20" spans="2:10" ht="45" customHeight="1">
@@ -2425,22 +2547,22 @@
         <v>11</v>
       </c>
       <c r="C20" s="44" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="D20" s="47" t="s">
-        <v>162</v>
+        <v>151</v>
       </c>
       <c r="E20" s="30" t="s">
-        <v>163</v>
+        <v>243</v>
       </c>
       <c r="F20" s="30" t="s">
-        <v>164</v>
+        <v>152</v>
       </c>
       <c r="G20" s="30" t="s">
-        <v>164</v>
+        <v>152</v>
       </c>
       <c r="H20" s="31" t="s">
-        <v>58</v>
+        <v>47</v>
       </c>
       <c r="J20" s="18"/>
     </row>
@@ -2449,10 +2571,10 @@
         <v>12</v>
       </c>
       <c r="C21" s="34" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="D21" s="35" t="s">
-        <v>165</v>
+        <v>153</v>
       </c>
       <c r="E21" s="37">
         <v>2000</v>
@@ -2464,7 +2586,7 @@
         <v>8000</v>
       </c>
       <c r="H21" s="39" t="s">
-        <v>51</v>
+        <v>231</v>
       </c>
     </row>
     <row r="22" spans="2:10" ht="45" customHeight="1">
@@ -2472,10 +2594,10 @@
         <v>13</v>
       </c>
       <c r="C22" s="45" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="D22" s="35" t="s">
-        <v>166</v>
+        <v>154</v>
       </c>
       <c r="E22" s="37">
         <v>60</v>
@@ -2487,7 +2609,7 @@
         <v>600</v>
       </c>
       <c r="H22" s="39" t="s">
-        <v>51</v>
+        <v>231</v>
       </c>
     </row>
     <row r="23" spans="2:10" ht="66" customHeight="1">
@@ -2495,22 +2617,22 @@
         <v>14</v>
       </c>
       <c r="C23" s="44" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="D23" s="47" t="s">
-        <v>167</v>
+        <v>155</v>
       </c>
       <c r="E23" s="30" t="s">
-        <v>168</v>
+        <v>156</v>
       </c>
       <c r="F23" s="30" t="s">
-        <v>169</v>
+        <v>157</v>
       </c>
       <c r="G23" s="30" t="s">
-        <v>169</v>
+        <v>157</v>
       </c>
       <c r="H23" s="31" t="s">
-        <v>59</v>
+        <v>237</v>
       </c>
     </row>
     <row r="24" spans="2:10" ht="45" customHeight="1">
@@ -2518,10 +2640,10 @@
         <v>15</v>
       </c>
       <c r="C24" s="44" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="D24" s="47" t="s">
-        <v>170</v>
+        <v>158</v>
       </c>
       <c r="E24" s="30">
         <v>1000</v>
@@ -2532,8 +2654,8 @@
       <c r="G24" s="30">
         <v>1</v>
       </c>
-      <c r="H24" s="56" t="s">
-        <v>62</v>
+      <c r="H24" s="73" t="s">
+        <v>238</v>
       </c>
     </row>
     <row r="25" spans="2:10" ht="45" customHeight="1">
@@ -2541,10 +2663,10 @@
         <v>16</v>
       </c>
       <c r="C25" s="44" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="D25" s="47" t="s">
-        <v>171</v>
+        <v>159</v>
       </c>
       <c r="E25" s="30">
         <v>1440</v>
@@ -2555,29 +2677,29 @@
       <c r="G25" s="30">
         <v>43200</v>
       </c>
-      <c r="H25" s="56"/>
+      <c r="H25" s="73"/>
     </row>
     <row r="26" spans="2:10" ht="45" customHeight="1">
       <c r="B26" s="26">
         <v>17</v>
       </c>
       <c r="C26" s="44" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="D26" s="47" t="s">
-        <v>172</v>
+        <v>160</v>
       </c>
       <c r="E26" s="30" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="F26" s="30" t="s">
-        <v>174</v>
+        <v>162</v>
       </c>
       <c r="G26" s="30" t="s">
-        <v>174</v>
+        <v>162</v>
       </c>
       <c r="H26" s="49" t="s">
-        <v>60</v>
+        <v>48</v>
       </c>
     </row>
     <row r="27" spans="2:10" ht="45" customHeight="1">
@@ -2585,22 +2707,22 @@
         <v>18</v>
       </c>
       <c r="C27" s="44" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="D27" s="47" t="s">
-        <v>175</v>
+        <v>163</v>
       </c>
       <c r="E27" s="30" t="s">
-        <v>176</v>
+        <v>164</v>
       </c>
       <c r="F27" s="30" t="s">
-        <v>177</v>
+        <v>165</v>
       </c>
       <c r="G27" s="30" t="s">
-        <v>177</v>
+        <v>165</v>
       </c>
       <c r="H27" s="49" t="s">
-        <v>61</v>
+        <v>49</v>
       </c>
       <c r="J27" s="18"/>
     </row>
@@ -2609,22 +2731,22 @@
         <v>19</v>
       </c>
       <c r="C28" s="44" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="D28" s="47" t="s">
-        <v>178</v>
+        <v>166</v>
       </c>
       <c r="E28" s="30" t="s">
-        <v>179</v>
+        <v>167</v>
       </c>
       <c r="F28" s="30" t="s">
-        <v>180</v>
+        <v>168</v>
       </c>
       <c r="G28" s="30" t="s">
-        <v>180</v>
+        <v>168</v>
       </c>
       <c r="H28" s="49" t="s">
-        <v>61</v>
+        <v>49</v>
       </c>
       <c r="J28" s="18"/>
     </row>
@@ -2633,22 +2755,22 @@
         <v>20</v>
       </c>
       <c r="C29" s="44" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="D29" s="47" t="s">
-        <v>181</v>
+        <v>169</v>
       </c>
       <c r="E29" s="30" t="s">
-        <v>182</v>
+        <v>170</v>
       </c>
       <c r="F29" s="30" t="s">
-        <v>177</v>
+        <v>165</v>
       </c>
       <c r="G29" s="30" t="s">
-        <v>177</v>
+        <v>165</v>
       </c>
       <c r="H29" s="49" t="s">
-        <v>61</v>
+        <v>49</v>
       </c>
     </row>
     <row r="30" spans="2:10" ht="45" customHeight="1">
@@ -2656,22 +2778,22 @@
         <v>21</v>
       </c>
       <c r="C30" s="44" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="D30" s="47" t="s">
-        <v>183</v>
+        <v>171</v>
       </c>
       <c r="E30" s="30" t="s">
-        <v>184</v>
+        <v>172</v>
       </c>
       <c r="F30" s="30" t="s">
-        <v>148</v>
+        <v>137</v>
       </c>
       <c r="G30" s="30" t="s">
-        <v>148</v>
+        <v>137</v>
       </c>
       <c r="H30" s="49" t="s">
-        <v>60</v>
+        <v>48</v>
       </c>
     </row>
     <row r="31" spans="2:10" ht="45" customHeight="1">
@@ -2679,22 +2801,22 @@
         <v>22</v>
       </c>
       <c r="C31" s="44" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="D31" s="47" t="s">
-        <v>185</v>
+        <v>173</v>
       </c>
       <c r="E31" s="30" t="s">
-        <v>186</v>
+        <v>174</v>
       </c>
       <c r="F31" s="30" t="s">
-        <v>180</v>
+        <v>168</v>
       </c>
       <c r="G31" s="30" t="s">
-        <v>180</v>
+        <v>168</v>
       </c>
       <c r="H31" s="49" t="s">
-        <v>60</v>
+        <v>48</v>
       </c>
     </row>
     <row r="32" spans="2:10" ht="45" customHeight="1">
@@ -2702,48 +2824,71 @@
         <v>23</v>
       </c>
       <c r="C32" s="44" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="D32" s="47" t="s">
-        <v>187</v>
+        <v>175</v>
       </c>
       <c r="E32" s="30" t="s">
-        <v>188</v>
+        <v>176</v>
       </c>
       <c r="F32" s="30" t="s">
-        <v>189</v>
+        <v>177</v>
       </c>
       <c r="G32" s="30" t="s">
-        <v>189</v>
+        <v>177</v>
       </c>
       <c r="H32" s="49" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="33" spans="2:8" ht="45" customHeight="1">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="33" spans="2:8" s="53" customFormat="1" ht="45" customHeight="1">
       <c r="B33" s="26">
         <v>24</v>
       </c>
       <c r="C33" s="44" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="D33" s="47" t="s">
-        <v>190</v>
+        <v>178</v>
       </c>
       <c r="E33" s="50" t="s">
-        <v>192</v>
+        <v>240</v>
       </c>
       <c r="F33" s="50" t="s">
-        <v>191</v>
+        <v>179</v>
       </c>
       <c r="G33" s="50" t="s">
-        <v>191</v>
-      </c>
-      <c r="H33" s="49" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="34" spans="2:8" ht="45" customHeight="1"/>
+        <v>179</v>
+      </c>
+      <c r="H33" s="55" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="34" spans="2:8" ht="45" customHeight="1">
+      <c r="B34" s="26">
+        <v>25</v>
+      </c>
+      <c r="C34" s="44" t="s">
+        <v>33</v>
+      </c>
+      <c r="D34" s="47" t="s">
+        <v>239</v>
+      </c>
+      <c r="E34" s="50" t="s">
+        <v>241</v>
+      </c>
+      <c r="F34" s="50">
+        <v>1</v>
+      </c>
+      <c r="G34" s="50">
+        <v>1</v>
+      </c>
+      <c r="H34" s="48" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="35" spans="2:8" ht="45" customHeight="1"/>
   </sheetData>
   <autoFilter ref="B9:H32"/>
   <mergeCells count="1">
@@ -2767,23 +2912,23 @@
       <pane xSplit="2" ySplit="5" topLeftCell="C6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight"/>
+      <selection pane="bottomRight" activeCell="E43" sqref="E43"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="1.625" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="1.6640625" defaultRowHeight="13.2"/>
   <cols>
-    <col min="2" max="2" width="4.25" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.625" customWidth="1"/>
-    <col min="4" max="4" width="25.625" style="46" customWidth="1"/>
-    <col min="5" max="5" width="55.875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="108.5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="27.25" customWidth="1"/>
+    <col min="2" max="2" width="4.21875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.6640625" customWidth="1"/>
+    <col min="4" max="4" width="26.77734375" style="46" customWidth="1"/>
+    <col min="5" max="5" width="55.88671875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="108.44140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="27.21875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="3" customHeight="1"/>
-    <row r="2" spans="1:9" ht="25.5">
+    <row r="2" spans="1:9" ht="25.8">
       <c r="A2" s="8" t="s">
-        <v>78</v>
+        <v>66</v>
       </c>
       <c r="B2" s="53"/>
       <c r="C2" s="53"/>
@@ -2792,9 +2937,9 @@
       <c r="F2" s="53"/>
       <c r="G2" s="53"/>
     </row>
-    <row r="3" spans="1:9" ht="22.5">
+    <row r="3" spans="1:9" ht="21.6">
       <c r="B3" s="15" t="s">
-        <v>83</v>
+        <v>71</v>
       </c>
       <c r="C3" s="53"/>
       <c r="D3" s="53"/>
@@ -2810,24 +2955,24 @@
       <c r="F4" s="53"/>
       <c r="G4" s="53"/>
     </row>
-    <row r="5" spans="1:9" ht="56.25">
+    <row r="5" spans="1:9" ht="52.2">
       <c r="B5" s="20" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C5" s="21" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="D5" s="21" t="s">
-        <v>242</v>
+        <v>229</v>
       </c>
       <c r="E5" s="20" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="F5" s="20" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="G5" s="20" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="30" customHeight="1">
@@ -2835,19 +2980,19 @@
         <v>1</v>
       </c>
       <c r="C6" s="43" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="D6" s="49" t="s">
-        <v>195</v>
+        <v>182</v>
       </c>
       <c r="E6" s="52" t="s">
-        <v>196</v>
+        <v>183</v>
       </c>
       <c r="F6" s="51" t="s">
-        <v>197</v>
+        <v>184</v>
       </c>
       <c r="G6" s="54" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="30" customHeight="1">
@@ -2855,19 +3000,19 @@
         <v>2</v>
       </c>
       <c r="C7" s="43" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="D7" s="49" t="s">
-        <v>198</v>
+        <v>185</v>
       </c>
       <c r="E7" s="52" t="s">
-        <v>199</v>
+        <v>186</v>
       </c>
       <c r="F7" s="51" t="s">
-        <v>200</v>
+        <v>187</v>
       </c>
       <c r="G7" s="54" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="30" customHeight="1">
@@ -2875,19 +3020,19 @@
         <v>3</v>
       </c>
       <c r="C8" s="43" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="D8" s="49" t="s">
-        <v>201</v>
+        <v>188</v>
       </c>
       <c r="E8" s="52" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="F8" s="51">
         <v>5</v>
       </c>
       <c r="G8" s="54" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="30" customHeight="1">
@@ -2895,19 +3040,19 @@
         <v>4</v>
       </c>
       <c r="C9" s="43" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="D9" s="49" t="s">
-        <v>202</v>
+        <v>189</v>
       </c>
       <c r="E9" s="52" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F9" s="51">
         <v>15</v>
       </c>
       <c r="G9" s="54" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="30" customHeight="1">
@@ -2915,19 +3060,19 @@
         <v>5</v>
       </c>
       <c r="C10" s="43" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="D10" s="49" t="s">
-        <v>203</v>
+        <v>190</v>
       </c>
       <c r="E10" s="52" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="F10" s="51" t="s">
-        <v>204</v>
+        <v>191</v>
       </c>
       <c r="G10" s="54" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="30" customHeight="1">
@@ -2935,19 +3080,19 @@
         <v>6</v>
       </c>
       <c r="C11" s="43" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="D11" s="49" t="s">
-        <v>205</v>
+        <v>192</v>
       </c>
       <c r="E11" s="52" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F11" s="51" t="s">
-        <v>206</v>
+        <v>193</v>
       </c>
       <c r="G11" s="54" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="I11" s="1"/>
     </row>
@@ -2956,19 +3101,19 @@
         <v>7</v>
       </c>
       <c r="C12" s="43" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="D12" s="49" t="s">
-        <v>207</v>
+        <v>194</v>
       </c>
       <c r="E12" s="52" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="F12" s="51" t="s">
-        <v>208</v>
+        <v>195</v>
       </c>
       <c r="G12" s="54" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="30" customHeight="1">
@@ -2976,19 +3121,19 @@
         <v>8</v>
       </c>
       <c r="C13" s="43" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="D13" s="49" t="s">
-        <v>209</v>
+        <v>196</v>
       </c>
       <c r="E13" s="52" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="F13" s="51" t="s">
-        <v>210</v>
+        <v>197</v>
       </c>
       <c r="G13" s="54" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="30" customHeight="1">
@@ -2996,19 +3141,19 @@
         <v>9</v>
       </c>
       <c r="C14" s="43" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="D14" s="49" t="s">
-        <v>211</v>
+        <v>198</v>
       </c>
       <c r="E14" s="52" t="s">
-        <v>212</v>
+        <v>199</v>
       </c>
       <c r="F14" s="51" t="b">
         <v>0</v>
       </c>
       <c r="G14" s="54" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="30" customHeight="1">
@@ -3016,19 +3161,19 @@
         <v>10</v>
       </c>
       <c r="C15" s="43" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="D15" s="49" t="s">
-        <v>213</v>
+        <v>200</v>
       </c>
       <c r="E15" s="52" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="F15" s="51" t="s">
-        <v>214</v>
+        <v>201</v>
       </c>
       <c r="G15" s="54" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="I15" s="1"/>
     </row>
@@ -3037,19 +3182,19 @@
         <v>11</v>
       </c>
       <c r="C16" s="43" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="D16" s="49" t="s">
-        <v>215</v>
+        <v>202</v>
       </c>
       <c r="E16" s="52" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="F16" s="51">
         <v>60</v>
       </c>
       <c r="G16" s="23" t="s">
-        <v>241</v>
+        <v>228</v>
       </c>
       <c r="I16" s="1"/>
     </row>
@@ -3058,19 +3203,19 @@
         <v>12</v>
       </c>
       <c r="C17" s="43" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="D17" s="49" t="s">
-        <v>216</v>
+        <v>203</v>
       </c>
       <c r="E17" s="52" t="s">
-        <v>217</v>
+        <v>204</v>
       </c>
       <c r="F17" s="51" t="s">
-        <v>218</v>
+        <v>205</v>
       </c>
       <c r="G17" s="54" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
     </row>
     <row r="18" spans="2:7" ht="30" customHeight="1">
@@ -3078,19 +3223,19 @@
         <v>13</v>
       </c>
       <c r="C18" s="43" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="D18" s="49" t="s">
-        <v>219</v>
+        <v>206</v>
       </c>
       <c r="E18" s="52" t="s">
-        <v>220</v>
+        <v>207</v>
       </c>
       <c r="F18" s="51" t="b">
         <v>0</v>
       </c>
       <c r="G18" s="23" t="s">
-        <v>241</v>
+        <v>228</v>
       </c>
     </row>
     <row r="19" spans="2:7" ht="30" customHeight="1">
@@ -3098,19 +3243,19 @@
         <v>14</v>
       </c>
       <c r="C19" s="43" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="D19" s="49" t="s">
-        <v>221</v>
+        <v>208</v>
       </c>
       <c r="E19" s="52" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F19" s="51" t="s">
-        <v>222</v>
+        <v>209</v>
       </c>
       <c r="G19" s="54" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
     </row>
     <row r="20" spans="2:7" ht="30" customHeight="1">
@@ -3118,19 +3263,19 @@
         <v>15</v>
       </c>
       <c r="C20" s="43" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="D20" s="49" t="s">
-        <v>223</v>
+        <v>210</v>
       </c>
       <c r="E20" s="52" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F20" s="51" t="s">
-        <v>224</v>
+        <v>211</v>
       </c>
       <c r="G20" s="54" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
     </row>
     <row r="21" spans="2:7" ht="30" customHeight="1">
@@ -3138,19 +3283,19 @@
         <v>16</v>
       </c>
       <c r="C21" s="43" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="D21" s="49" t="s">
-        <v>225</v>
+        <v>212</v>
       </c>
       <c r="E21" s="52" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F21" s="51" t="s">
-        <v>226</v>
+        <v>213</v>
       </c>
       <c r="G21" s="54" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
     </row>
     <row r="22" spans="2:7" ht="30" customHeight="1">
@@ -3158,19 +3303,19 @@
         <v>17</v>
       </c>
       <c r="C22" s="43" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="D22" s="49" t="s">
-        <v>227</v>
+        <v>214</v>
       </c>
       <c r="E22" s="52" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F22" s="51" t="s">
-        <v>228</v>
+        <v>215</v>
       </c>
       <c r="G22" s="54" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
     </row>
     <row r="23" spans="2:7" ht="30" customHeight="1">
@@ -3178,19 +3323,19 @@
         <v>18</v>
       </c>
       <c r="C23" s="43" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="D23" s="49" t="s">
-        <v>229</v>
+        <v>216</v>
       </c>
       <c r="E23" s="52" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F23" s="51" t="s">
-        <v>230</v>
+        <v>217</v>
       </c>
       <c r="G23" s="54" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
     </row>
     <row r="24" spans="2:7" ht="30" customHeight="1">
@@ -3198,19 +3343,19 @@
         <v>19</v>
       </c>
       <c r="C24" s="43" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="D24" s="49" t="s">
-        <v>231</v>
+        <v>218</v>
       </c>
       <c r="E24" s="52" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="F24" s="51" t="s">
-        <v>232</v>
+        <v>219</v>
       </c>
       <c r="G24" s="54" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
     </row>
     <row r="25" spans="2:7" ht="30" customHeight="1">
@@ -3218,19 +3363,19 @@
         <v>20</v>
       </c>
       <c r="C25" s="43" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="D25" s="49" t="s">
-        <v>233</v>
+        <v>220</v>
       </c>
       <c r="E25" s="52" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F25" s="51" t="s">
-        <v>234</v>
+        <v>221</v>
       </c>
       <c r="G25" s="54" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
     </row>
     <row r="26" spans="2:7" ht="30" customHeight="1">
@@ -3238,19 +3383,19 @@
         <v>21</v>
       </c>
       <c r="C26" s="43" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="D26" s="49" t="s">
-        <v>235</v>
+        <v>222</v>
       </c>
       <c r="E26" s="52" t="s">
-        <v>236</v>
-      </c>
-      <c r="F26" s="55" t="s">
-        <v>243</v>
+        <v>223</v>
+      </c>
+      <c r="F26" s="56" t="s">
+        <v>230</v>
       </c>
       <c r="G26" s="23" t="s">
-        <v>241</v>
+        <v>228</v>
       </c>
     </row>
     <row r="27" spans="2:7" ht="30" customHeight="1">
@@ -3258,19 +3403,19 @@
         <v>22</v>
       </c>
       <c r="C27" s="43" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="D27" s="49" t="s">
-        <v>237</v>
+        <v>224</v>
       </c>
       <c r="E27" s="52" t="s">
-        <v>9</v>
-      </c>
-      <c r="F27" s="55">
+        <v>7</v>
+      </c>
+      <c r="F27" s="56">
         <v>5099</v>
       </c>
       <c r="G27" s="54" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
     </row>
     <row r="28" spans="2:7" ht="30" customHeight="1">
@@ -3278,19 +3423,19 @@
         <v>23</v>
       </c>
       <c r="C28" s="43" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="D28" s="49" t="s">
-        <v>238</v>
+        <v>225</v>
       </c>
       <c r="E28" s="52" t="s">
-        <v>8</v>
-      </c>
-      <c r="F28" s="55">
+        <v>6</v>
+      </c>
+      <c r="F28" s="56">
         <v>30</v>
       </c>
       <c r="G28" s="54" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
     </row>
     <row r="29" spans="2:7" ht="30" customHeight="1">
@@ -3298,19 +3443,19 @@
         <v>24</v>
       </c>
       <c r="C29" s="43" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="D29" s="49" t="s">
-        <v>239</v>
+        <v>226</v>
       </c>
       <c r="E29" s="52" t="s">
-        <v>7</v>
-      </c>
-      <c r="F29" s="55">
         <v>5</v>
       </c>
+      <c r="F29" s="56">
+        <v>5</v>
+      </c>
       <c r="G29" s="54" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
     </row>
     <row r="30" spans="2:7" ht="30" customHeight="1">
@@ -3318,19 +3463,19 @@
         <v>25</v>
       </c>
       <c r="C30" s="43" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="D30" s="49" t="s">
-        <v>240</v>
+        <v>227</v>
       </c>
       <c r="E30" s="52" t="s">
-        <v>6</v>
-      </c>
-      <c r="F30" s="55">
+        <v>4</v>
+      </c>
+      <c r="F30" s="56">
         <v>30</v>
       </c>
       <c r="G30" s="54" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
     </row>
     <row r="38" spans="9:10">
@@ -3395,7 +3540,7 @@
   <autoFilter ref="B5:G27"/>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="9" scale="57" fitToHeight="0" orientation="landscape" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="56" fitToHeight="0" orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -3407,73 +3552,73 @@
   </sheetPr>
   <dimension ref="A1:K29"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="70" workbookViewId="0">
-      <pane xSplit="2" ySplit="6" topLeftCell="C23" activePane="bottomRight" state="frozen"/>
+    <sheetView view="pageBreakPreview" zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="70" workbookViewId="0">
+      <pane xSplit="2" ySplit="6" topLeftCell="C9" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="I24" sqref="I24"/>
+      <selection pane="bottomRight" activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="1.625" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="1.6640625" defaultRowHeight="13.2"/>
   <cols>
-    <col min="2" max="2" width="3.375" bestFit="1" customWidth="1"/>
-    <col min="3" max="8" width="10.875" customWidth="1"/>
-    <col min="9" max="9" width="117.625" style="6" customWidth="1"/>
-    <col min="10" max="10" width="76.625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="3.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="8" width="10.88671875" customWidth="1"/>
+    <col min="9" max="9" width="117.6640625" style="6" customWidth="1"/>
+    <col min="10" max="10" width="76.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="25.5">
+    <row r="1" spans="1:11" ht="25.8">
       <c r="A1" s="8" t="s">
-        <v>78</v>
+        <v>66</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="5.0999999999999996" customHeight="1"/>
-    <row r="3" spans="1:11" ht="17.25">
+    <row r="3" spans="1:11" ht="16.2">
       <c r="B3" s="3" t="s">
-        <v>84</v>
+        <v>72</v>
       </c>
     </row>
     <row r="5" spans="1:11">
-      <c r="B5" s="57" t="s">
+      <c r="B5" s="74" t="s">
         <v>0</v>
       </c>
-      <c r="C5" s="59" t="s">
-        <v>85</v>
-      </c>
-      <c r="D5" s="60"/>
-      <c r="E5" s="60"/>
-      <c r="F5" s="60"/>
-      <c r="G5" s="60"/>
-      <c r="H5" s="61"/>
-      <c r="I5" s="57" t="s">
-        <v>63</v>
-      </c>
-      <c r="J5" s="57" t="s">
-        <v>64</v>
+      <c r="C5" s="76" t="s">
+        <v>73</v>
+      </c>
+      <c r="D5" s="77"/>
+      <c r="E5" s="77"/>
+      <c r="F5" s="77"/>
+      <c r="G5" s="77"/>
+      <c r="H5" s="78"/>
+      <c r="I5" s="74" t="s">
+        <v>50</v>
+      </c>
+      <c r="J5" s="74" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="6" spans="1:11">
-      <c r="B6" s="58"/>
+      <c r="B6" s="75"/>
       <c r="C6" s="2" t="s">
-        <v>107</v>
+        <v>96</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>1</v>
       </c>
       <c r="E6" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="F6" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="F6" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="G6" s="2" t="s">
-        <v>4</v>
+        <v>251</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="I6" s="58"/>
-      <c r="J6" s="58"/>
+        <v>252</v>
+      </c>
+      <c r="I6" s="75"/>
+      <c r="J6" s="75"/>
     </row>
     <row r="7" spans="1:11" ht="67.5" customHeight="1">
       <c r="B7" s="9">
@@ -3481,17 +3626,17 @@
       </c>
       <c r="C7" s="10"/>
       <c r="D7" s="10"/>
-      <c r="E7" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="F7" s="10"/>
+      <c r="E7" s="10"/>
+      <c r="F7" s="10" t="s">
+        <v>23</v>
+      </c>
       <c r="G7" s="10"/>
       <c r="H7" s="10"/>
       <c r="I7" s="11" t="s">
-        <v>106</v>
+        <v>95</v>
       </c>
       <c r="J7" s="4" t="s">
-        <v>65</v>
+        <v>52</v>
       </c>
     </row>
     <row r="8" spans="1:11" ht="67.5" customHeight="1">
@@ -3499,7 +3644,7 @@
         <v>2</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D8" s="10"/>
       <c r="E8" s="10"/>
@@ -3507,10 +3652,10 @@
       <c r="G8" s="10"/>
       <c r="H8" s="10"/>
       <c r="I8" s="11" t="s">
-        <v>87</v>
+        <v>75</v>
       </c>
       <c r="J8" s="4" t="s">
-        <v>244</v>
+        <v>53</v>
       </c>
     </row>
     <row r="9" spans="1:11" ht="67.5" customHeight="1">
@@ -3518,24 +3663,24 @@
         <v>3</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D9" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="E9" s="10"/>
+        <v>23</v>
+      </c>
+      <c r="E9" s="10" t="s">
+        <v>23</v>
+      </c>
       <c r="F9" s="10"/>
       <c r="G9" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="H9" s="10" t="s">
-        <v>25</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="H9" s="10"/>
       <c r="I9" s="11" t="s">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="J9" s="4" t="s">
-        <v>66</v>
+        <v>54</v>
       </c>
     </row>
     <row r="10" spans="1:11" ht="67.5" customHeight="1">
@@ -3543,28 +3688,28 @@
         <v>4</v>
       </c>
       <c r="C10" s="12" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D10" s="10" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E10" s="10" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="F10" s="10" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="G10" s="10" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="H10" s="10" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="I10" s="11" t="s">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="J10" s="4" t="s">
-        <v>108</v>
+        <v>97</v>
       </c>
     </row>
     <row r="11" spans="1:11" ht="67.5" customHeight="1">
@@ -3572,28 +3717,28 @@
         <v>5</v>
       </c>
       <c r="C11" s="12" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D11" s="10" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E11" s="10" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="F11" s="10" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="G11" s="10" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="H11" s="10" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="I11" s="11" t="s">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="J11" s="4" t="s">
-        <v>67</v>
+        <v>55</v>
       </c>
     </row>
     <row r="12" spans="1:11" ht="67.5" customHeight="1">
@@ -3601,7 +3746,7 @@
         <v>6</v>
       </c>
       <c r="C12" s="12" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D12" s="10"/>
       <c r="E12" s="10"/>
@@ -3609,10 +3754,10 @@
       <c r="G12" s="10"/>
       <c r="H12" s="10"/>
       <c r="I12" s="11" t="s">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="J12" s="4" t="s">
-        <v>68</v>
+        <v>56</v>
       </c>
     </row>
     <row r="13" spans="1:11" ht="110.1" customHeight="1">
@@ -3621,19 +3766,19 @@
       </c>
       <c r="C13" s="12"/>
       <c r="D13" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="E13" s="10"/>
+        <v>23</v>
+      </c>
+      <c r="E13" s="10" t="s">
+        <v>23</v>
+      </c>
       <c r="F13" s="10"/>
       <c r="G13" s="10"/>
-      <c r="H13" s="10" t="s">
-        <v>25</v>
-      </c>
+      <c r="H13" s="10"/>
       <c r="I13" s="11" t="s">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="J13" s="4" t="s">
-        <v>109</v>
+        <v>98</v>
       </c>
     </row>
     <row r="14" spans="1:11" ht="67.5" customHeight="1">
@@ -3641,7 +3786,7 @@
         <v>8</v>
       </c>
       <c r="C14" s="12" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D14" s="10"/>
       <c r="E14" s="10"/>
@@ -3649,10 +3794,10 @@
       <c r="G14" s="10"/>
       <c r="H14" s="10"/>
       <c r="I14" s="11" t="s">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="J14" s="4" t="s">
-        <v>69</v>
+        <v>57</v>
       </c>
       <c r="K14" s="1"/>
     </row>
@@ -3661,24 +3806,28 @@
         <v>9</v>
       </c>
       <c r="C15" s="12" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D15" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="E15" s="10"/>
-      <c r="F15" s="10"/>
+        <v>23</v>
+      </c>
+      <c r="E15" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="F15" s="10" t="s">
+        <v>23</v>
+      </c>
       <c r="G15" s="10" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="H15" s="10" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="I15" s="11" t="s">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="J15" s="4" t="s">
-        <v>77</v>
+        <v>65</v>
       </c>
     </row>
     <row r="16" spans="1:11" ht="67.5" customHeight="1">
@@ -3686,28 +3835,28 @@
         <v>10</v>
       </c>
       <c r="C16" s="12" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D16" s="10" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E16" s="10" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="F16" s="10" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="G16" s="10" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="H16" s="10" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="I16" s="11" t="s">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="J16" s="4" t="s">
-        <v>110</v>
+        <v>99</v>
       </c>
     </row>
     <row r="17" spans="2:11" ht="67.5" customHeight="1">
@@ -3715,28 +3864,28 @@
         <v>11</v>
       </c>
       <c r="C17" s="12" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D17" s="10" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E17" s="10" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="F17" s="10" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="G17" s="10" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="H17" s="10" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="I17" s="11" t="s">
-        <v>96</v>
+        <v>84</v>
       </c>
       <c r="J17" s="5" t="s">
-        <v>70</v>
+        <v>58</v>
       </c>
       <c r="K17" s="1"/>
     </row>
@@ -3745,28 +3894,28 @@
         <v>12</v>
       </c>
       <c r="C18" s="12" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D18" s="10" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E18" s="10" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="F18" s="10" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="G18" s="10" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="H18" s="10" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="I18" s="11" t="s">
-        <v>97</v>
+        <v>85</v>
       </c>
       <c r="J18" s="5" t="s">
-        <v>73</v>
+        <v>61</v>
       </c>
     </row>
     <row r="19" spans="2:11" ht="67.5" customHeight="1">
@@ -3774,28 +3923,28 @@
         <v>13</v>
       </c>
       <c r="C19" s="12" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D19" s="10" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E19" s="10" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="F19" s="10" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="G19" s="10" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="H19" s="10" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="I19" s="11" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>74</v>
+        <v>62</v>
       </c>
       <c r="K19" s="1"/>
     </row>
@@ -3804,41 +3953,41 @@
         <v>14</v>
       </c>
       <c r="C20" s="12" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D20" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="E20" s="10"/>
+        <v>23</v>
+      </c>
+      <c r="E20" s="10" t="s">
+        <v>23</v>
+      </c>
       <c r="F20" s="10"/>
       <c r="G20" s="10"/>
-      <c r="H20" s="10" t="s">
-        <v>25</v>
-      </c>
+      <c r="H20" s="10"/>
       <c r="I20" s="11" t="s">
-        <v>99</v>
+        <v>87</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="21" spans="2:11" ht="54">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="21" spans="2:11" ht="52.8">
       <c r="B21" s="9">
         <v>15</v>
       </c>
       <c r="C21" s="12"/>
       <c r="D21" s="10" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E21" s="10"/>
       <c r="F21" s="10"/>
       <c r="G21" s="10"/>
       <c r="H21" s="10"/>
       <c r="I21" s="11" t="s">
-        <v>100</v>
+        <v>88</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>75</v>
+        <v>63</v>
       </c>
     </row>
     <row r="22" spans="2:11" ht="67.5" customHeight="1">
@@ -3847,44 +3996,44 @@
       </c>
       <c r="C22" s="12"/>
       <c r="D22" s="10" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E22" s="10"/>
       <c r="F22" s="10"/>
       <c r="G22" s="10"/>
       <c r="H22" s="10"/>
       <c r="I22" s="11" t="s">
-        <v>101</v>
+        <v>89</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="23" spans="2:11" ht="54">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="23" spans="2:11" ht="52.8">
       <c r="B23" s="9">
         <v>17</v>
       </c>
       <c r="C23" s="12"/>
       <c r="D23" s="10" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E23" s="10"/>
       <c r="F23" s="10"/>
       <c r="G23" s="10"/>
       <c r="H23" s="10"/>
       <c r="I23" s="11" t="s">
-        <v>102</v>
+        <v>90</v>
       </c>
       <c r="J23" s="13" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="24" spans="2:11" ht="54">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="24" spans="2:11" ht="52.8">
       <c r="B24" s="9">
         <v>18</v>
       </c>
       <c r="C24" s="12" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D24" s="10"/>
       <c r="E24" s="10"/>
@@ -3892,18 +4041,18 @@
       <c r="G24" s="10"/>
       <c r="H24" s="10"/>
       <c r="I24" s="11" t="s">
-        <v>245</v>
+        <v>91</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="25" spans="2:11" ht="18.75">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="25" spans="2:11" ht="17.399999999999999">
       <c r="B25" s="9">
         <v>19</v>
       </c>
       <c r="C25" s="12" t="s">
-        <v>86</v>
+        <v>74</v>
       </c>
       <c r="D25" s="10"/>
       <c r="E25" s="10"/>
@@ -3911,18 +4060,18 @@
       <c r="G25" s="10"/>
       <c r="H25" s="10"/>
       <c r="I25" s="11" t="s">
-        <v>103</v>
+        <v>92</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="26" spans="2:11" ht="27">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="26" spans="2:11" ht="26.4">
       <c r="B26" s="9">
         <v>20</v>
       </c>
       <c r="C26" s="12" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D26" s="10"/>
       <c r="E26" s="10"/>
@@ -3930,49 +4079,65 @@
       <c r="G26" s="10"/>
       <c r="H26" s="10"/>
       <c r="I26" s="11" t="s">
-        <v>104</v>
+        <v>93</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="27" spans="2:11" ht="27">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="27" spans="2:11" ht="26.4">
       <c r="B27" s="9">
         <v>21</v>
       </c>
       <c r="C27" s="12" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D27" s="10" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E27" s="10" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="F27" s="10" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="G27" s="10" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="H27" s="10" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="I27" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="J27" s="7" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="28" spans="2:11" ht="17.399999999999999">
+      <c r="C28" s="12"/>
+      <c r="D28" s="10"/>
+      <c r="E28" s="10"/>
+      <c r="F28" s="10"/>
+      <c r="G28" s="10"/>
+      <c r="H28" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="J28" t="s">
         <v>105</v>
       </c>
-      <c r="J27" s="7" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="28" spans="2:11">
-      <c r="J28" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="29" spans="2:11">
+    </row>
+    <row r="29" spans="2:11" ht="17.399999999999999">
+      <c r="C29" s="12"/>
+      <c r="D29" s="10"/>
+      <c r="E29" s="10"/>
+      <c r="F29" s="10"/>
+      <c r="G29" s="10"/>
+      <c r="H29" s="10" t="s">
+        <v>23</v>
+      </c>
       <c r="J29" s="14" t="s">
-        <v>117</v>
+        <v>106</v>
       </c>
     </row>
   </sheetData>
@@ -3987,4 +4152,205 @@
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="50" fitToHeight="0" orientation="landscape" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:H13"/>
+  <sheetViews>
+    <sheetView view="pageBreakPreview" zoomScaleNormal="70" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <pane xSplit="2" ySplit="10" topLeftCell="C11" activePane="bottomRight" state="frozen"/>
+      <selection activeCell="E24" sqref="E24"/>
+      <selection pane="topRight" activeCell="E24" sqref="E24"/>
+      <selection pane="bottomLeft" activeCell="E24" sqref="E24"/>
+      <selection pane="bottomRight" activeCell="H14" sqref="H14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="1.6640625" defaultRowHeight="17.399999999999999"/>
+  <cols>
+    <col min="1" max="1" width="1.6640625" style="53"/>
+    <col min="2" max="2" width="4" style="53" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10" style="53" bestFit="1" customWidth="1"/>
+    <col min="4" max="6" width="28.77734375" style="53" customWidth="1"/>
+    <col min="7" max="7" width="28.77734375" style="63" customWidth="1"/>
+    <col min="8" max="8" width="61.88671875" style="53" customWidth="1"/>
+    <col min="9" max="16384" width="1.6640625" style="53"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" ht="24.75" customHeight="1">
+      <c r="A1" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="B1" s="58"/>
+      <c r="C1" s="58"/>
+      <c r="D1" s="58"/>
+      <c r="E1" s="58"/>
+      <c r="F1" s="58"/>
+      <c r="G1" s="59"/>
+      <c r="H1" s="60"/>
+    </row>
+    <row r="2" spans="1:8" ht="10.5" customHeight="1">
+      <c r="A2" s="60"/>
+      <c r="B2" s="60"/>
+      <c r="C2" s="60"/>
+      <c r="D2" s="60"/>
+      <c r="E2" s="60"/>
+      <c r="F2" s="60"/>
+      <c r="G2" s="61"/>
+      <c r="H2" s="60"/>
+    </row>
+    <row r="3" spans="1:8" ht="21.6">
+      <c r="A3" s="60"/>
+      <c r="B3" s="62" t="s">
+        <v>253</v>
+      </c>
+      <c r="C3" s="60"/>
+      <c r="D3" s="60"/>
+      <c r="E3" s="60"/>
+      <c r="F3" s="60"/>
+      <c r="G3" s="61"/>
+      <c r="H3" s="60"/>
+    </row>
+    <row r="4" spans="1:8" ht="9" customHeight="1">
+      <c r="A4" s="60"/>
+      <c r="B4" s="62"/>
+      <c r="C4" s="60"/>
+      <c r="D4" s="60"/>
+      <c r="E4" s="60"/>
+      <c r="F4" s="60"/>
+      <c r="G4" s="61"/>
+      <c r="H4" s="60"/>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" s="60"/>
+      <c r="B5" s="60" t="s">
+        <v>254</v>
+      </c>
+      <c r="C5" s="60"/>
+      <c r="D5" s="60"/>
+      <c r="E5" s="60"/>
+      <c r="F5" s="60"/>
+      <c r="G5" s="61"/>
+      <c r="H5" s="60"/>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" s="60"/>
+      <c r="B6" s="60" t="s">
+        <v>255</v>
+      </c>
+      <c r="C6" s="60"/>
+      <c r="D6" s="60"/>
+      <c r="E6" s="60"/>
+      <c r="F6" s="60"/>
+      <c r="G6" s="61"/>
+      <c r="H6" s="60"/>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" s="60"/>
+      <c r="B7" s="60" t="s">
+        <v>256</v>
+      </c>
+      <c r="C7" s="60"/>
+      <c r="D7" s="60"/>
+      <c r="E7" s="60"/>
+      <c r="F7" s="60"/>
+      <c r="G7" s="61"/>
+      <c r="H7" s="60"/>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" s="60"/>
+      <c r="B8" s="60" t="s">
+        <v>257</v>
+      </c>
+      <c r="C8" s="60"/>
+      <c r="D8" s="60"/>
+      <c r="E8" s="60"/>
+      <c r="F8" s="60"/>
+      <c r="G8" s="61"/>
+      <c r="H8" s="60"/>
+    </row>
+    <row r="9" spans="1:8" ht="6" customHeight="1"/>
+    <row r="10" spans="1:8" ht="69.599999999999994">
+      <c r="B10" s="64" t="s">
+        <v>0</v>
+      </c>
+      <c r="C10" s="21" t="s">
+        <v>40</v>
+      </c>
+      <c r="D10" s="21" t="s">
+        <v>229</v>
+      </c>
+      <c r="E10" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="F10" s="20" t="s">
+        <v>37</v>
+      </c>
+      <c r="G10" s="20" t="s">
+        <v>258</v>
+      </c>
+      <c r="H10" s="20" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="21" customHeight="1">
+      <c r="B11" s="65">
+        <v>1</v>
+      </c>
+      <c r="C11" s="66" t="s">
+        <v>259</v>
+      </c>
+      <c r="D11" s="67" t="s">
+        <v>244</v>
+      </c>
+      <c r="E11" s="68" t="s">
+        <v>245</v>
+      </c>
+      <c r="F11" s="68" t="s">
+        <v>131</v>
+      </c>
+      <c r="G11" s="69" t="s">
+        <v>246</v>
+      </c>
+      <c r="H11" s="39" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="21" customHeight="1">
+      <c r="B12" s="65">
+        <v>2</v>
+      </c>
+      <c r="C12" s="70" t="s">
+        <v>33</v>
+      </c>
+      <c r="D12" s="57" t="s">
+        <v>247</v>
+      </c>
+      <c r="E12" s="71" t="s">
+        <v>248</v>
+      </c>
+      <c r="F12" s="71" t="s">
+        <v>260</v>
+      </c>
+      <c r="G12" s="71" t="s">
+        <v>249</v>
+      </c>
+      <c r="H12" s="72" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="45" customHeight="1"/>
+  </sheetData>
+  <autoFilter ref="B10:H12"/>
+  <phoneticPr fontId="1"/>
+  <printOptions horizontalCentered="1"/>
+  <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.35433070866141736" bottom="0.55118110236220474" header="0.31496062992125984" footer="0.31496062992125984"/>
+  <pageSetup paperSize="9" scale="76" orientation="landscape" r:id="rId1"/>
+  <headerFooter>
+    <oddFooter>&amp;C&amp;P／&amp;N</oddFooter>
+  </headerFooter>
+</worksheet>
 </file>